--- a/AAII_Financials/Yearly/HYSNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HYSNY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>HYSNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>501000</v>
+        <v>514400</v>
       </c>
       <c r="E8" s="3">
-        <v>456900</v>
+        <v>501800</v>
       </c>
       <c r="F8" s="3">
-        <v>455300</v>
+        <v>457700</v>
       </c>
       <c r="G8" s="3">
-        <v>441700</v>
+        <v>456000</v>
       </c>
       <c r="H8" s="3">
-        <v>415200</v>
+        <v>442400</v>
       </c>
       <c r="I8" s="3">
-        <v>394500</v>
+        <v>415900</v>
       </c>
       <c r="J8" s="3">
+        <v>395100</v>
+      </c>
+      <c r="K8" s="3">
         <v>320200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>246000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>67400</v>
+        <v>69100</v>
       </c>
       <c r="E9" s="3">
-        <v>57800</v>
+        <v>67500</v>
       </c>
       <c r="F9" s="3">
-        <v>55100</v>
+        <v>57900</v>
       </c>
       <c r="G9" s="3">
-        <v>53300</v>
+        <v>55200</v>
       </c>
       <c r="H9" s="3">
-        <v>52000</v>
+        <v>53400</v>
       </c>
       <c r="I9" s="3">
+        <v>52100</v>
+      </c>
+      <c r="J9" s="3">
         <v>52200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>54500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>33500</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>433600</v>
+        <v>445300</v>
       </c>
       <c r="E10" s="3">
-        <v>399100</v>
+        <v>434300</v>
       </c>
       <c r="F10" s="3">
-        <v>400200</v>
+        <v>399700</v>
       </c>
       <c r="G10" s="3">
-        <v>388400</v>
+        <v>400800</v>
       </c>
       <c r="H10" s="3">
-        <v>363200</v>
+        <v>389000</v>
       </c>
       <c r="I10" s="3">
-        <v>342300</v>
+        <v>363800</v>
       </c>
       <c r="J10" s="3">
+        <v>342900</v>
+      </c>
+      <c r="K10" s="3">
         <v>265700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>212500</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,9 +887,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,9 +920,12 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>88600</v>
+        <v>82700</v>
       </c>
       <c r="E17" s="3">
-        <v>47100</v>
+        <v>88700</v>
       </c>
       <c r="F17" s="3">
-        <v>76900</v>
+        <v>47200</v>
       </c>
       <c r="G17" s="3">
-        <v>76500</v>
+        <v>77000</v>
       </c>
       <c r="H17" s="3">
-        <v>71100</v>
+        <v>76600</v>
       </c>
       <c r="I17" s="3">
-        <v>-520200</v>
+        <v>71200</v>
       </c>
       <c r="J17" s="3">
+        <v>-521000</v>
+      </c>
+      <c r="K17" s="3">
         <v>-1052700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-932500</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>412400</v>
+        <v>431700</v>
       </c>
       <c r="E18" s="3">
-        <v>409800</v>
+        <v>413000</v>
       </c>
       <c r="F18" s="3">
-        <v>378400</v>
+        <v>410400</v>
       </c>
       <c r="G18" s="3">
-        <v>365200</v>
+        <v>379000</v>
       </c>
       <c r="H18" s="3">
-        <v>344100</v>
+        <v>365800</v>
       </c>
       <c r="I18" s="3">
-        <v>914700</v>
+        <v>344700</v>
       </c>
       <c r="J18" s="3">
+        <v>916100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1372900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1178500</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>489900</v>
+        <v>323600</v>
       </c>
       <c r="E20" s="3">
-        <v>136600</v>
+        <v>490700</v>
       </c>
       <c r="F20" s="3">
-        <v>-123600</v>
+        <v>136900</v>
       </c>
       <c r="G20" s="3">
-        <v>120400</v>
+        <v>-123800</v>
       </c>
       <c r="H20" s="3">
-        <v>411900</v>
+        <v>120600</v>
       </c>
       <c r="I20" s="3">
+        <v>412500</v>
+      </c>
+      <c r="J20" s="3">
         <v>40100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>904500</v>
+        <v>758200</v>
       </c>
       <c r="E21" s="3">
-        <v>549300</v>
+        <v>905900</v>
       </c>
       <c r="F21" s="3">
-        <v>257600</v>
+        <v>550100</v>
       </c>
       <c r="G21" s="3">
-        <v>488400</v>
+        <v>258000</v>
       </c>
       <c r="H21" s="3">
-        <v>758200</v>
+        <v>489100</v>
       </c>
       <c r="I21" s="3">
-        <v>956800</v>
+        <v>759400</v>
       </c>
       <c r="J21" s="3">
+        <v>958300</v>
+      </c>
+      <c r="K21" s="3">
         <v>1374300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1179500</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>26500</v>
+        <v>38300</v>
       </c>
       <c r="E22" s="3">
+        <v>26600</v>
+      </c>
+      <c r="F22" s="3">
         <v>18800</v>
       </c>
-      <c r="F22" s="3">
-        <v>21600</v>
-      </c>
       <c r="G22" s="3">
+        <v>21700</v>
+      </c>
+      <c r="H22" s="3">
         <v>25500</v>
       </c>
-      <c r="H22" s="3">
-        <v>30100</v>
-      </c>
       <c r="I22" s="3">
-        <v>31400</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+        <v>30200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>31500</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>875800</v>
+        <v>717100</v>
       </c>
       <c r="E23" s="3">
-        <v>527700</v>
+        <v>877100</v>
       </c>
       <c r="F23" s="3">
-        <v>233100</v>
+        <v>528500</v>
       </c>
       <c r="G23" s="3">
-        <v>460200</v>
+        <v>233500</v>
       </c>
       <c r="H23" s="3">
-        <v>725900</v>
+        <v>460900</v>
       </c>
       <c r="I23" s="3">
-        <v>923300</v>
+        <v>727000</v>
       </c>
       <c r="J23" s="3">
+        <v>924700</v>
+      </c>
+      <c r="K23" s="3">
         <v>1372900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1178500</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>61900</v>
+        <v>61000</v>
       </c>
       <c r="E24" s="3">
-        <v>62300</v>
+        <v>62000</v>
       </c>
       <c r="F24" s="3">
-        <v>59600</v>
+        <v>62400</v>
       </c>
       <c r="G24" s="3">
-        <v>56400</v>
+        <v>59700</v>
       </c>
       <c r="H24" s="3">
-        <v>49700</v>
+        <v>56500</v>
       </c>
       <c r="I24" s="3">
-        <v>47900</v>
+        <v>49800</v>
       </c>
       <c r="J24" s="3">
+        <v>48000</v>
+      </c>
+      <c r="K24" s="3">
         <v>37200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>27800</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>813800</v>
+        <v>656000</v>
       </c>
       <c r="E26" s="3">
-        <v>465300</v>
+        <v>815100</v>
       </c>
       <c r="F26" s="3">
-        <v>173500</v>
+        <v>466000</v>
       </c>
       <c r="G26" s="3">
-        <v>403800</v>
+        <v>173700</v>
       </c>
       <c r="H26" s="3">
-        <v>676100</v>
+        <v>404400</v>
       </c>
       <c r="I26" s="3">
-        <v>875400</v>
+        <v>677200</v>
       </c>
       <c r="J26" s="3">
+        <v>876700</v>
+      </c>
+      <c r="K26" s="3">
         <v>1335700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1150700</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>777000</v>
+        <v>625000</v>
       </c>
       <c r="E27" s="3">
-        <v>468300</v>
+        <v>778200</v>
       </c>
       <c r="F27" s="3">
-        <v>156900</v>
+        <v>469000</v>
       </c>
       <c r="G27" s="3">
-        <v>373900</v>
+        <v>157100</v>
       </c>
       <c r="H27" s="3">
-        <v>631300</v>
+        <v>374500</v>
       </c>
       <c r="I27" s="3">
-        <v>793100</v>
+        <v>632300</v>
       </c>
       <c r="J27" s="3">
+        <v>794300</v>
+      </c>
+      <c r="K27" s="3">
         <v>1282100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1093800</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-489900</v>
+        <v>-323600</v>
       </c>
       <c r="E32" s="3">
-        <v>-136600</v>
+        <v>-490700</v>
       </c>
       <c r="F32" s="3">
-        <v>123600</v>
+        <v>-136900</v>
       </c>
       <c r="G32" s="3">
-        <v>-120400</v>
+        <v>123800</v>
       </c>
       <c r="H32" s="3">
-        <v>-411900</v>
+        <v>-120600</v>
       </c>
       <c r="I32" s="3">
+        <v>-412500</v>
+      </c>
+      <c r="J32" s="3">
         <v>-40100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>777000</v>
+        <v>625000</v>
       </c>
       <c r="E33" s="3">
-        <v>468300</v>
+        <v>778200</v>
       </c>
       <c r="F33" s="3">
-        <v>156900</v>
+        <v>469000</v>
       </c>
       <c r="G33" s="3">
-        <v>373900</v>
+        <v>157100</v>
       </c>
       <c r="H33" s="3">
-        <v>631300</v>
+        <v>374500</v>
       </c>
       <c r="I33" s="3">
-        <v>793100</v>
+        <v>632300</v>
       </c>
       <c r="J33" s="3">
+        <v>794300</v>
+      </c>
+      <c r="K33" s="3">
         <v>1282100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1093800</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>777000</v>
+        <v>625000</v>
       </c>
       <c r="E35" s="3">
-        <v>468300</v>
+        <v>778200</v>
       </c>
       <c r="F35" s="3">
-        <v>156900</v>
+        <v>469000</v>
       </c>
       <c r="G35" s="3">
-        <v>373900</v>
+        <v>157100</v>
       </c>
       <c r="H35" s="3">
-        <v>631300</v>
+        <v>374500</v>
       </c>
       <c r="I35" s="3">
-        <v>793100</v>
+        <v>632300</v>
       </c>
       <c r="J35" s="3">
+        <v>794300</v>
+      </c>
+      <c r="K35" s="3">
         <v>1282100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1093800</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,98 +1645,108 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>266500</v>
+        <v>464100</v>
       </c>
       <c r="E41" s="3">
-        <v>20200</v>
+        <v>266900</v>
       </c>
       <c r="F41" s="3">
+        <v>20300</v>
+      </c>
+      <c r="G41" s="3">
         <v>10200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13700</v>
       </c>
-      <c r="I41" s="3">
-        <v>10400</v>
-      </c>
       <c r="J41" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K41" s="3">
         <v>19700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7900</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>125600</v>
+        <v>739900</v>
       </c>
       <c r="E42" s="3">
-        <v>388300</v>
+        <v>125800</v>
       </c>
       <c r="F42" s="3">
-        <v>383700</v>
+        <v>389000</v>
       </c>
       <c r="G42" s="3">
-        <v>406800</v>
+        <v>384400</v>
       </c>
       <c r="H42" s="3">
-        <v>529800</v>
+        <v>407600</v>
       </c>
       <c r="I42" s="3">
-        <v>605200</v>
+        <v>530800</v>
       </c>
       <c r="J42" s="3">
+        <v>606300</v>
+      </c>
+      <c r="K42" s="3">
         <v>355600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>436000</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>26100</v>
+        <v>40500</v>
       </c>
       <c r="E43" s="3">
-        <v>29100</v>
+        <v>26200</v>
       </c>
       <c r="F43" s="3">
-        <v>156400</v>
+        <v>29200</v>
       </c>
       <c r="G43" s="3">
+        <v>156600</v>
+      </c>
+      <c r="H43" s="3">
         <v>25900</v>
       </c>
-      <c r="H43" s="3">
-        <v>32800</v>
-      </c>
       <c r="I43" s="3">
-        <v>31000</v>
+        <v>32900</v>
       </c>
       <c r="J43" s="3">
+        <v>31100</v>
+      </c>
+      <c r="K43" s="3">
         <v>20600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17200</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1679,9 +1774,12 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1709,99 +1807,111 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>418200</v>
+        <v>1244500</v>
       </c>
       <c r="E46" s="3">
-        <v>437600</v>
+        <v>418900</v>
       </c>
       <c r="F46" s="3">
-        <v>550200</v>
+        <v>438400</v>
       </c>
       <c r="G46" s="3">
-        <v>440600</v>
+        <v>551200</v>
       </c>
       <c r="H46" s="3">
-        <v>576300</v>
+        <v>441400</v>
       </c>
       <c r="I46" s="3">
-        <v>646700</v>
+        <v>577400</v>
       </c>
       <c r="J46" s="3">
+        <v>647800</v>
+      </c>
+      <c r="K46" s="3">
         <v>395900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>461100</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>684100</v>
+        <v>889700</v>
       </c>
       <c r="E47" s="3">
-        <v>705500</v>
+        <v>685400</v>
       </c>
       <c r="F47" s="3">
-        <v>693300</v>
+        <v>706800</v>
       </c>
       <c r="G47" s="3">
-        <v>624900</v>
+        <v>694500</v>
       </c>
       <c r="H47" s="3">
-        <v>657200</v>
+        <v>626000</v>
       </c>
       <c r="I47" s="3">
-        <v>652500</v>
+        <v>658400</v>
       </c>
       <c r="J47" s="3">
+        <v>653600</v>
+      </c>
+      <c r="K47" s="3">
         <v>611400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>674200</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10070000</v>
+        <v>10307700</v>
       </c>
       <c r="E48" s="3">
-        <v>9430100</v>
+        <v>10087900</v>
       </c>
       <c r="F48" s="3">
-        <v>9060800</v>
+        <v>9447000</v>
       </c>
       <c r="G48" s="3">
-        <v>9081600</v>
+        <v>9076900</v>
       </c>
       <c r="H48" s="3">
-        <v>8943800</v>
+        <v>9097800</v>
       </c>
       <c r="I48" s="3">
-        <v>8490600</v>
+        <v>8959800</v>
       </c>
       <c r="J48" s="3">
+        <v>8505800</v>
+      </c>
+      <c r="K48" s="3">
         <v>7804900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6463900</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1814,8 +1924,8 @@
       <c r="F49" s="3">
         <v>100</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
+      <c r="G49" s="3">
+        <v>100</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>8</v>
@@ -1829,9 +1939,12 @@
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>78400</v>
+      </c>
+      <c r="E52" s="3">
         <v>37900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1500</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="H52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
       <c r="I52" s="3">
-        <v>10400</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>10500</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11210300</v>
+        <v>12520500</v>
       </c>
       <c r="E54" s="3">
-        <v>10576200</v>
+        <v>11230300</v>
       </c>
       <c r="F54" s="3">
-        <v>10305900</v>
+        <v>10595100</v>
       </c>
       <c r="G54" s="3">
-        <v>10147100</v>
+        <v>10324300</v>
       </c>
       <c r="H54" s="3">
-        <v>10177400</v>
+        <v>10165200</v>
       </c>
       <c r="I54" s="3">
-        <v>9800100</v>
+        <v>10195500</v>
       </c>
       <c r="J54" s="3">
+        <v>9817600</v>
+      </c>
+      <c r="K54" s="3">
         <v>8812200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7599100</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>33100</v>
+        <v>41200</v>
       </c>
       <c r="E57" s="3">
+        <v>33200</v>
+      </c>
+      <c r="F57" s="3">
         <v>27700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>19200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>28600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>22300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>20900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>60400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>68100</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>38600</v>
+        <v>72900</v>
       </c>
       <c r="E58" s="3">
-        <v>19300</v>
+        <v>38700</v>
       </c>
       <c r="F58" s="3">
-        <v>152000</v>
+        <v>19400</v>
       </c>
       <c r="G58" s="3">
-        <v>32200</v>
+        <v>152200</v>
       </c>
       <c r="H58" s="3">
-        <v>204600</v>
+        <v>32300</v>
       </c>
       <c r="I58" s="3">
-        <v>135900</v>
+        <v>205000</v>
       </c>
       <c r="J58" s="3">
+        <v>136100</v>
+      </c>
+      <c r="K58" s="3">
         <v>90000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>192900</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>164600</v>
+        <v>202200</v>
       </c>
       <c r="E59" s="3">
-        <v>179800</v>
+        <v>164900</v>
       </c>
       <c r="F59" s="3">
-        <v>201400</v>
+        <v>180100</v>
       </c>
       <c r="G59" s="3">
-        <v>127600</v>
+        <v>201800</v>
       </c>
       <c r="H59" s="3">
-        <v>134800</v>
+        <v>127900</v>
       </c>
       <c r="I59" s="3">
-        <v>129300</v>
+        <v>135100</v>
       </c>
       <c r="J59" s="3">
+        <v>129500</v>
+      </c>
+      <c r="K59" s="3">
         <v>77100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>75400</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>236300</v>
+        <v>316200</v>
       </c>
       <c r="E60" s="3">
-        <v>226800</v>
+        <v>236800</v>
       </c>
       <c r="F60" s="3">
-        <v>372600</v>
+        <v>227200</v>
       </c>
       <c r="G60" s="3">
-        <v>188400</v>
+        <v>373300</v>
       </c>
       <c r="H60" s="3">
-        <v>361800</v>
+        <v>188800</v>
       </c>
       <c r="I60" s="3">
-        <v>286000</v>
+        <v>362400</v>
       </c>
       <c r="J60" s="3">
+        <v>286600</v>
+      </c>
+      <c r="K60" s="3">
         <v>227600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>336400</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>775600</v>
+        <v>1543600</v>
       </c>
       <c r="E61" s="3">
-        <v>777200</v>
+        <v>777000</v>
       </c>
       <c r="F61" s="3">
-        <v>658500</v>
+        <v>778600</v>
       </c>
       <c r="G61" s="3">
-        <v>602700</v>
+        <v>659700</v>
       </c>
       <c r="H61" s="3">
-        <v>629500</v>
+        <v>603800</v>
       </c>
       <c r="I61" s="3">
-        <v>830600</v>
+        <v>630600</v>
       </c>
       <c r="J61" s="3">
+        <v>832000</v>
+      </c>
+      <c r="K61" s="3">
         <v>675100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>660000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>199500</v>
+        <v>213700</v>
       </c>
       <c r="E62" s="3">
-        <v>170400</v>
+        <v>199900</v>
       </c>
       <c r="F62" s="3">
-        <v>171300</v>
+        <v>170700</v>
       </c>
       <c r="G62" s="3">
-        <v>164500</v>
+        <v>171600</v>
       </c>
       <c r="H62" s="3">
-        <v>154200</v>
+        <v>164800</v>
       </c>
       <c r="I62" s="3">
-        <v>160100</v>
+        <v>154400</v>
       </c>
       <c r="J62" s="3">
+        <v>160400</v>
+      </c>
+      <c r="K62" s="3">
         <v>124500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>107500</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1624300</v>
+        <v>2502100</v>
       </c>
       <c r="E66" s="3">
-        <v>1567000</v>
+        <v>1627200</v>
       </c>
       <c r="F66" s="3">
-        <v>1613900</v>
+        <v>1569800</v>
       </c>
       <c r="G66" s="3">
-        <v>1367200</v>
+        <v>1616700</v>
       </c>
       <c r="H66" s="3">
-        <v>1543300</v>
+        <v>1369700</v>
       </c>
       <c r="I66" s="3">
-        <v>1644400</v>
+        <v>1546000</v>
       </c>
       <c r="J66" s="3">
+        <v>1647300</v>
+      </c>
+      <c r="K66" s="3">
         <v>1326500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1358700</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8525600</v>
+        <v>8960300</v>
       </c>
       <c r="E72" s="3">
-        <v>7935500</v>
+        <v>8540900</v>
       </c>
       <c r="F72" s="3">
-        <v>7649500</v>
+        <v>7949700</v>
       </c>
       <c r="G72" s="3">
-        <v>7723300</v>
+        <v>7663100</v>
       </c>
       <c r="H72" s="3">
-        <v>7543400</v>
+        <v>7737100</v>
       </c>
       <c r="I72" s="3">
-        <v>7108200</v>
+        <v>7556800</v>
       </c>
       <c r="J72" s="3">
+        <v>7120900</v>
+      </c>
+      <c r="K72" s="3">
         <v>6448300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5123700</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9586000</v>
+        <v>10018400</v>
       </c>
       <c r="E76" s="3">
-        <v>9009200</v>
+        <v>9603100</v>
       </c>
       <c r="F76" s="3">
-        <v>8692000</v>
+        <v>9025300</v>
       </c>
       <c r="G76" s="3">
-        <v>8779900</v>
+        <v>8707600</v>
       </c>
       <c r="H76" s="3">
-        <v>8634100</v>
+        <v>8795600</v>
       </c>
       <c r="I76" s="3">
-        <v>8155800</v>
+        <v>8649500</v>
       </c>
       <c r="J76" s="3">
+        <v>8170300</v>
+      </c>
+      <c r="K76" s="3">
         <v>7485700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6240400</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>777000</v>
+        <v>625000</v>
       </c>
       <c r="E81" s="3">
-        <v>468300</v>
+        <v>778200</v>
       </c>
       <c r="F81" s="3">
-        <v>156900</v>
+        <v>469000</v>
       </c>
       <c r="G81" s="3">
-        <v>373900</v>
+        <v>157100</v>
       </c>
       <c r="H81" s="3">
-        <v>631300</v>
+        <v>374500</v>
       </c>
       <c r="I81" s="3">
-        <v>793100</v>
+        <v>632300</v>
       </c>
       <c r="J81" s="3">
+        <v>794300</v>
+      </c>
+      <c r="K81" s="3">
         <v>1282100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1093800</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E83" s="3">
         <v>2200</v>
-      </c>
-      <c r="E83" s="3">
-        <v>2800</v>
       </c>
       <c r="F83" s="3">
         <v>2800</v>
       </c>
       <c r="G83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H83" s="3">
         <v>2700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1000</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>354300</v>
+        <v>413000</v>
       </c>
       <c r="E89" s="3">
-        <v>320700</v>
+        <v>354900</v>
       </c>
       <c r="F89" s="3">
-        <v>375900</v>
+        <v>321200</v>
       </c>
       <c r="G89" s="3">
-        <v>327100</v>
+        <v>376500</v>
       </c>
       <c r="H89" s="3">
-        <v>308500</v>
+        <v>327600</v>
       </c>
       <c r="I89" s="3">
-        <v>292700</v>
+        <v>308900</v>
       </c>
       <c r="J89" s="3">
+        <v>293200</v>
+      </c>
+      <c r="K89" s="3">
         <v>221600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>180100</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-162900</v>
+        <v>-123300</v>
       </c>
       <c r="E91" s="3">
-        <v>-191400</v>
+        <v>-163200</v>
       </c>
       <c r="F91" s="3">
-        <v>-109100</v>
+        <v>-191700</v>
       </c>
       <c r="G91" s="3">
-        <v>-53300</v>
+        <v>-109300</v>
       </c>
       <c r="H91" s="3">
-        <v>-46200</v>
+        <v>-53400</v>
       </c>
       <c r="I91" s="3">
-        <v>-90700</v>
+        <v>-46300</v>
       </c>
       <c r="J91" s="3">
+        <v>-90800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-209400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-195600</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-127500</v>
+        <v>-765600</v>
       </c>
       <c r="E94" s="3">
+        <v>-127700</v>
+      </c>
+      <c r="F94" s="3">
         <v>5900</v>
       </c>
-      <c r="F94" s="3">
-        <v>-191400</v>
-      </c>
       <c r="G94" s="3">
-        <v>118700</v>
+        <v>-191700</v>
       </c>
       <c r="H94" s="3">
-        <v>29600</v>
+        <v>118900</v>
       </c>
       <c r="I94" s="3">
-        <v>-374000</v>
+        <v>29700</v>
       </c>
       <c r="J94" s="3">
+        <v>-374600</v>
+      </c>
+      <c r="K94" s="3">
         <v>46000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-326000</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-186000</v>
+        <v>-194400</v>
       </c>
       <c r="E96" s="3">
-        <v>-181700</v>
+        <v>-186300</v>
       </c>
       <c r="F96" s="3">
-        <v>-179500</v>
+        <v>-182000</v>
       </c>
       <c r="G96" s="3">
-        <v>-171300</v>
+        <v>-179800</v>
       </c>
       <c r="H96" s="3">
-        <v>-161600</v>
+        <v>-171600</v>
       </c>
       <c r="I96" s="3">
-        <v>-137000</v>
+        <v>-161900</v>
       </c>
       <c r="J96" s="3">
+        <v>-137200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-99000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-77600</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,39 +3420,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-222300</v>
+        <v>549600</v>
       </c>
       <c r="E100" s="3">
-        <v>-240700</v>
+        <v>-222600</v>
       </c>
       <c r="F100" s="3">
-        <v>-83700</v>
+        <v>-241100</v>
       </c>
       <c r="G100" s="3">
-        <v>-444800</v>
+        <v>-83800</v>
       </c>
       <c r="H100" s="3">
-        <v>-343900</v>
+        <v>-445500</v>
       </c>
       <c r="I100" s="3">
-        <v>37200</v>
+        <v>-344400</v>
       </c>
       <c r="J100" s="3">
+        <v>37300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-227800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>158000</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3238,37 +3486,43 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>197100</v>
+      </c>
+      <c r="E102" s="3">
         <v>4500</v>
       </c>
-      <c r="E102" s="3">
-        <v>85900</v>
-      </c>
       <c r="F102" s="3">
-        <v>100800</v>
+        <v>86000</v>
       </c>
       <c r="G102" s="3">
+        <v>101000</v>
+      </c>
+      <c r="H102" s="3">
         <v>1000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5800</v>
       </c>
-      <c r="I102" s="3">
-        <v>-44000</v>
-      </c>
       <c r="J102" s="3">
+        <v>-44100</v>
+      </c>
+      <c r="K102" s="3">
         <v>39800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12000</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HYSNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HYSNY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>514400</v>
+        <v>514600</v>
       </c>
       <c r="E8" s="3">
-        <v>501800</v>
+        <v>501900</v>
       </c>
       <c r="F8" s="3">
-        <v>457700</v>
+        <v>457800</v>
       </c>
       <c r="G8" s="3">
-        <v>456000</v>
+        <v>456100</v>
       </c>
       <c r="H8" s="3">
-        <v>442400</v>
+        <v>442600</v>
       </c>
       <c r="I8" s="3">
-        <v>415900</v>
+        <v>416000</v>
       </c>
       <c r="J8" s="3">
-        <v>395100</v>
+        <v>395200</v>
       </c>
       <c r="K8" s="3">
         <v>320200</v>
@@ -750,7 +750,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>69100</v>
+        <v>69200</v>
       </c>
       <c r="E9" s="3">
         <v>67500</v>
@@ -768,7 +768,7 @@
         <v>52100</v>
       </c>
       <c r="J9" s="3">
-        <v>52200</v>
+        <v>52300</v>
       </c>
       <c r="K9" s="3">
         <v>54500</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>445300</v>
+        <v>445400</v>
       </c>
       <c r="E10" s="3">
-        <v>434300</v>
+        <v>434400</v>
       </c>
       <c r="F10" s="3">
-        <v>399700</v>
+        <v>399900</v>
       </c>
       <c r="G10" s="3">
-        <v>400800</v>
+        <v>400900</v>
       </c>
       <c r="H10" s="3">
-        <v>389000</v>
+        <v>389200</v>
       </c>
       <c r="I10" s="3">
-        <v>363800</v>
+        <v>363900</v>
       </c>
       <c r="J10" s="3">
-        <v>342900</v>
+        <v>343000</v>
       </c>
       <c r="K10" s="3">
         <v>265700</v>
@@ -978,7 +978,7 @@
         <v>82700</v>
       </c>
       <c r="E17" s="3">
-        <v>88700</v>
+        <v>88800</v>
       </c>
       <c r="F17" s="3">
         <v>47200</v>
@@ -993,7 +993,7 @@
         <v>71200</v>
       </c>
       <c r="J17" s="3">
-        <v>-521000</v>
+        <v>-521200</v>
       </c>
       <c r="K17" s="3">
         <v>-1052700</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>431700</v>
+        <v>431900</v>
       </c>
       <c r="E18" s="3">
-        <v>413000</v>
+        <v>413200</v>
       </c>
       <c r="F18" s="3">
-        <v>410400</v>
+        <v>410600</v>
       </c>
       <c r="G18" s="3">
-        <v>379000</v>
+        <v>379100</v>
       </c>
       <c r="H18" s="3">
-        <v>365800</v>
+        <v>365900</v>
       </c>
       <c r="I18" s="3">
-        <v>344700</v>
+        <v>344800</v>
       </c>
       <c r="J18" s="3">
-        <v>916100</v>
+        <v>916400</v>
       </c>
       <c r="K18" s="3">
         <v>1372900</v>
@@ -1056,22 +1056,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>323600</v>
+        <v>323700</v>
       </c>
       <c r="E20" s="3">
-        <v>490700</v>
+        <v>490800</v>
       </c>
       <c r="F20" s="3">
         <v>136900</v>
       </c>
       <c r="G20" s="3">
-        <v>-123800</v>
+        <v>-123900</v>
       </c>
       <c r="H20" s="3">
         <v>120600</v>
       </c>
       <c r="I20" s="3">
-        <v>412500</v>
+        <v>412600</v>
       </c>
       <c r="J20" s="3">
         <v>40100</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>758200</v>
+        <v>758400</v>
       </c>
       <c r="E21" s="3">
-        <v>905900</v>
+        <v>906200</v>
       </c>
       <c r="F21" s="3">
-        <v>550100</v>
+        <v>550300</v>
       </c>
       <c r="G21" s="3">
-        <v>258000</v>
+        <v>258100</v>
       </c>
       <c r="H21" s="3">
-        <v>489100</v>
+        <v>489300</v>
       </c>
       <c r="I21" s="3">
-        <v>759400</v>
+        <v>759600</v>
       </c>
       <c r="J21" s="3">
-        <v>958300</v>
+        <v>958600</v>
       </c>
       <c r="K21" s="3">
         <v>1374300</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>717100</v>
+        <v>717300</v>
       </c>
       <c r="E23" s="3">
-        <v>877100</v>
+        <v>877400</v>
       </c>
       <c r="F23" s="3">
-        <v>528500</v>
+        <v>528600</v>
       </c>
       <c r="G23" s="3">
         <v>233500</v>
       </c>
       <c r="H23" s="3">
-        <v>460900</v>
+        <v>461000</v>
       </c>
       <c r="I23" s="3">
-        <v>727000</v>
+        <v>727200</v>
       </c>
       <c r="J23" s="3">
-        <v>924700</v>
+        <v>925000</v>
       </c>
       <c r="K23" s="3">
         <v>1372900</v>
@@ -1191,10 +1191,10 @@
         <v>61000</v>
       </c>
       <c r="E24" s="3">
-        <v>62000</v>
+        <v>62100</v>
       </c>
       <c r="F24" s="3">
-        <v>62400</v>
+        <v>62500</v>
       </c>
       <c r="G24" s="3">
         <v>59700</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>656000</v>
+        <v>656200</v>
       </c>
       <c r="E26" s="3">
-        <v>815100</v>
+        <v>815300</v>
       </c>
       <c r="F26" s="3">
-        <v>466000</v>
+        <v>466200</v>
       </c>
       <c r="G26" s="3">
-        <v>173700</v>
+        <v>173800</v>
       </c>
       <c r="H26" s="3">
-        <v>404400</v>
+        <v>404500</v>
       </c>
       <c r="I26" s="3">
-        <v>677200</v>
+        <v>677400</v>
       </c>
       <c r="J26" s="3">
-        <v>876700</v>
+        <v>877000</v>
       </c>
       <c r="K26" s="3">
         <v>1335700</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>625000</v>
+        <v>625200</v>
       </c>
       <c r="E27" s="3">
-        <v>778200</v>
+        <v>778400</v>
       </c>
       <c r="F27" s="3">
-        <v>469000</v>
+        <v>469200</v>
       </c>
       <c r="G27" s="3">
-        <v>157100</v>
+        <v>157200</v>
       </c>
       <c r="H27" s="3">
-        <v>374500</v>
+        <v>374600</v>
       </c>
       <c r="I27" s="3">
-        <v>632300</v>
+        <v>632500</v>
       </c>
       <c r="J27" s="3">
-        <v>794300</v>
+        <v>794600</v>
       </c>
       <c r="K27" s="3">
         <v>1282100</v>
@@ -1452,22 +1452,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-323600</v>
+        <v>-323700</v>
       </c>
       <c r="E32" s="3">
-        <v>-490700</v>
+        <v>-490800</v>
       </c>
       <c r="F32" s="3">
         <v>-136900</v>
       </c>
       <c r="G32" s="3">
-        <v>123800</v>
+        <v>123900</v>
       </c>
       <c r="H32" s="3">
         <v>-120600</v>
       </c>
       <c r="I32" s="3">
-        <v>-412500</v>
+        <v>-412600</v>
       </c>
       <c r="J32" s="3">
         <v>-40100</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>625000</v>
+        <v>625200</v>
       </c>
       <c r="E33" s="3">
-        <v>778200</v>
+        <v>778400</v>
       </c>
       <c r="F33" s="3">
-        <v>469000</v>
+        <v>469200</v>
       </c>
       <c r="G33" s="3">
-        <v>157100</v>
+        <v>157200</v>
       </c>
       <c r="H33" s="3">
-        <v>374500</v>
+        <v>374600</v>
       </c>
       <c r="I33" s="3">
-        <v>632300</v>
+        <v>632500</v>
       </c>
       <c r="J33" s="3">
-        <v>794300</v>
+        <v>794600</v>
       </c>
       <c r="K33" s="3">
         <v>1282100</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>625000</v>
+        <v>625200</v>
       </c>
       <c r="E35" s="3">
-        <v>778200</v>
+        <v>778400</v>
       </c>
       <c r="F35" s="3">
-        <v>469000</v>
+        <v>469200</v>
       </c>
       <c r="G35" s="3">
-        <v>157100</v>
+        <v>157200</v>
       </c>
       <c r="H35" s="3">
-        <v>374500</v>
+        <v>374600</v>
       </c>
       <c r="I35" s="3">
-        <v>632300</v>
+        <v>632500</v>
       </c>
       <c r="J35" s="3">
-        <v>794300</v>
+        <v>794600</v>
       </c>
       <c r="K35" s="3">
         <v>1282100</v>
@@ -1655,7 +1655,7 @@
         <v>464100</v>
       </c>
       <c r="E41" s="3">
-        <v>266900</v>
+        <v>267000</v>
       </c>
       <c r="F41" s="3">
         <v>20300</v>
@@ -1685,7 +1685,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>739900</v>
+        <v>740000</v>
       </c>
       <c r="E42" s="3">
         <v>125800</v>
@@ -1817,10 +1817,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1244500</v>
+        <v>1244600</v>
       </c>
       <c r="E46" s="3">
-        <v>418900</v>
+        <v>419000</v>
       </c>
       <c r="F46" s="3">
         <v>438400</v>
@@ -1835,7 +1835,7 @@
         <v>577400</v>
       </c>
       <c r="J46" s="3">
-        <v>647800</v>
+        <v>647900</v>
       </c>
       <c r="K46" s="3">
         <v>395900</v>
@@ -1850,7 +1850,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>889700</v>
+        <v>889800</v>
       </c>
       <c r="E47" s="3">
         <v>685400</v>
@@ -1859,16 +1859,16 @@
         <v>706800</v>
       </c>
       <c r="G47" s="3">
-        <v>694500</v>
+        <v>694600</v>
       </c>
       <c r="H47" s="3">
-        <v>626000</v>
+        <v>626100</v>
       </c>
       <c r="I47" s="3">
         <v>658400</v>
       </c>
       <c r="J47" s="3">
-        <v>653600</v>
+        <v>653700</v>
       </c>
       <c r="K47" s="3">
         <v>611400</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10307700</v>
+        <v>10308500</v>
       </c>
       <c r="E48" s="3">
-        <v>10087900</v>
+        <v>10088700</v>
       </c>
       <c r="F48" s="3">
-        <v>9447000</v>
+        <v>9447700</v>
       </c>
       <c r="G48" s="3">
-        <v>9076900</v>
+        <v>9077600</v>
       </c>
       <c r="H48" s="3">
-        <v>9097800</v>
+        <v>9098600</v>
       </c>
       <c r="I48" s="3">
-        <v>8959800</v>
+        <v>8960500</v>
       </c>
       <c r="J48" s="3">
-        <v>8505800</v>
+        <v>8506400</v>
       </c>
       <c r="K48" s="3">
         <v>7804900</v>
@@ -2015,7 +2015,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>78400</v>
+        <v>78500</v>
       </c>
       <c r="E52" s="3">
         <v>37900</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12520500</v>
+        <v>12521500</v>
       </c>
       <c r="E54" s="3">
-        <v>11230300</v>
+        <v>11231200</v>
       </c>
       <c r="F54" s="3">
-        <v>10595100</v>
+        <v>10595900</v>
       </c>
       <c r="G54" s="3">
-        <v>10324300</v>
+        <v>10325100</v>
       </c>
       <c r="H54" s="3">
-        <v>10165200</v>
+        <v>10166000</v>
       </c>
       <c r="I54" s="3">
-        <v>10195500</v>
+        <v>10196300</v>
       </c>
       <c r="J54" s="3">
-        <v>9817600</v>
+        <v>9818400</v>
       </c>
       <c r="K54" s="3">
         <v>8812200</v>
@@ -2186,7 +2186,7 @@
         <v>19400</v>
       </c>
       <c r="G58" s="3">
-        <v>152200</v>
+        <v>152300</v>
       </c>
       <c r="H58" s="3">
         <v>32300</v>
@@ -2243,7 +2243,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>316200</v>
+        <v>316300</v>
       </c>
       <c r="E60" s="3">
         <v>236800</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1543600</v>
+        <v>1543700</v>
       </c>
       <c r="E61" s="3">
         <v>777000</v>
       </c>
       <c r="F61" s="3">
-        <v>778600</v>
+        <v>778700</v>
       </c>
       <c r="G61" s="3">
         <v>659700</v>
       </c>
       <c r="H61" s="3">
-        <v>603800</v>
+        <v>603900</v>
       </c>
       <c r="I61" s="3">
-        <v>630600</v>
+        <v>630700</v>
       </c>
       <c r="J61" s="3">
-        <v>832000</v>
+        <v>832100</v>
       </c>
       <c r="K61" s="3">
         <v>675100</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2502100</v>
+        <v>2502300</v>
       </c>
       <c r="E66" s="3">
-        <v>1627200</v>
+        <v>1627300</v>
       </c>
       <c r="F66" s="3">
-        <v>1569800</v>
+        <v>1569900</v>
       </c>
       <c r="G66" s="3">
-        <v>1616700</v>
+        <v>1616900</v>
       </c>
       <c r="H66" s="3">
-        <v>1369700</v>
+        <v>1369800</v>
       </c>
       <c r="I66" s="3">
-        <v>1546000</v>
+        <v>1546200</v>
       </c>
       <c r="J66" s="3">
-        <v>1647300</v>
+        <v>1647500</v>
       </c>
       <c r="K66" s="3">
         <v>1326500</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8960300</v>
+        <v>8961000</v>
       </c>
       <c r="E72" s="3">
-        <v>8540900</v>
+        <v>8541500</v>
       </c>
       <c r="F72" s="3">
-        <v>7949700</v>
+        <v>7950300</v>
       </c>
       <c r="G72" s="3">
-        <v>7663100</v>
+        <v>7663700</v>
       </c>
       <c r="H72" s="3">
-        <v>7737100</v>
+        <v>7737700</v>
       </c>
       <c r="I72" s="3">
-        <v>7556800</v>
+        <v>7557400</v>
       </c>
       <c r="J72" s="3">
-        <v>7120900</v>
+        <v>7121400</v>
       </c>
       <c r="K72" s="3">
         <v>6448300</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10018400</v>
+        <v>10019200</v>
       </c>
       <c r="E76" s="3">
-        <v>9603100</v>
+        <v>9603800</v>
       </c>
       <c r="F76" s="3">
-        <v>9025300</v>
+        <v>9026000</v>
       </c>
       <c r="G76" s="3">
-        <v>8707600</v>
+        <v>8708200</v>
       </c>
       <c r="H76" s="3">
-        <v>8795600</v>
+        <v>8796200</v>
       </c>
       <c r="I76" s="3">
-        <v>8649500</v>
+        <v>8650200</v>
       </c>
       <c r="J76" s="3">
-        <v>8170300</v>
+        <v>8171000</v>
       </c>
       <c r="K76" s="3">
         <v>7485700</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>625000</v>
+        <v>625200</v>
       </c>
       <c r="E81" s="3">
-        <v>778200</v>
+        <v>778400</v>
       </c>
       <c r="F81" s="3">
-        <v>469000</v>
+        <v>469200</v>
       </c>
       <c r="G81" s="3">
-        <v>157100</v>
+        <v>157200</v>
       </c>
       <c r="H81" s="3">
-        <v>374500</v>
+        <v>374600</v>
       </c>
       <c r="I81" s="3">
-        <v>632300</v>
+        <v>632500</v>
       </c>
       <c r="J81" s="3">
-        <v>794300</v>
+        <v>794600</v>
       </c>
       <c r="K81" s="3">
         <v>1282100</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>413000</v>
+        <v>413200</v>
       </c>
       <c r="E89" s="3">
-        <v>354900</v>
+        <v>355000</v>
       </c>
       <c r="F89" s="3">
-        <v>321200</v>
+        <v>321300</v>
       </c>
       <c r="G89" s="3">
-        <v>376500</v>
+        <v>376600</v>
       </c>
       <c r="H89" s="3">
-        <v>327600</v>
+        <v>327700</v>
       </c>
       <c r="I89" s="3">
-        <v>308900</v>
+        <v>309000</v>
       </c>
       <c r="J89" s="3">
-        <v>293200</v>
+        <v>293300</v>
       </c>
       <c r="K89" s="3">
         <v>221600</v>
@@ -3151,7 +3151,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-123300</v>
+        <v>-123400</v>
       </c>
       <c r="E91" s="3">
         <v>-163200</v>
@@ -3250,7 +3250,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-765600</v>
+        <v>-765800</v>
       </c>
       <c r="E94" s="3">
         <v>-127700</v>
@@ -3262,13 +3262,13 @@
         <v>-191700</v>
       </c>
       <c r="H94" s="3">
-        <v>118900</v>
+        <v>119000</v>
       </c>
       <c r="I94" s="3">
         <v>29700</v>
       </c>
       <c r="J94" s="3">
-        <v>-374600</v>
+        <v>-374700</v>
       </c>
       <c r="K94" s="3">
         <v>46000</v>
@@ -3304,10 +3304,10 @@
         <v>-186300</v>
       </c>
       <c r="F96" s="3">
-        <v>-182000</v>
+        <v>-182100</v>
       </c>
       <c r="G96" s="3">
-        <v>-179800</v>
+        <v>-179900</v>
       </c>
       <c r="H96" s="3">
         <v>-171600</v>
@@ -3316,7 +3316,7 @@
         <v>-161900</v>
       </c>
       <c r="J96" s="3">
-        <v>-137200</v>
+        <v>-137300</v>
       </c>
       <c r="K96" s="3">
         <v>-99000</v>
@@ -3430,22 +3430,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>549600</v>
+        <v>549800</v>
       </c>
       <c r="E100" s="3">
-        <v>-222600</v>
+        <v>-222700</v>
       </c>
       <c r="F100" s="3">
-        <v>-241100</v>
+        <v>-241200</v>
       </c>
       <c r="G100" s="3">
-        <v>-83800</v>
+        <v>-83900</v>
       </c>
       <c r="H100" s="3">
-        <v>-445500</v>
+        <v>-445700</v>
       </c>
       <c r="I100" s="3">
-        <v>-344400</v>
+        <v>-344500</v>
       </c>
       <c r="J100" s="3">
         <v>37300</v>
@@ -3496,13 +3496,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>197100</v>
+        <v>197200</v>
       </c>
       <c r="E102" s="3">
         <v>4500</v>
       </c>
       <c r="F102" s="3">
-        <v>86000</v>
+        <v>86100</v>
       </c>
       <c r="G102" s="3">
         <v>101000</v>

--- a/AAII_Financials/Yearly/HYSNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HYSNY_YR_FIN.xlsx
@@ -717,7 +717,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>514600</v>
+        <v>514500</v>
       </c>
       <c r="E8" s="3">
         <v>501900</v>
@@ -729,7 +729,7 @@
         <v>456100</v>
       </c>
       <c r="H8" s="3">
-        <v>442600</v>
+        <v>442500</v>
       </c>
       <c r="I8" s="3">
         <v>416000</v>
@@ -789,19 +789,19 @@
         <v>434400</v>
       </c>
       <c r="F10" s="3">
-        <v>399900</v>
+        <v>399800</v>
       </c>
       <c r="G10" s="3">
         <v>400900</v>
       </c>
       <c r="H10" s="3">
-        <v>389200</v>
+        <v>389100</v>
       </c>
       <c r="I10" s="3">
-        <v>363900</v>
+        <v>363800</v>
       </c>
       <c r="J10" s="3">
-        <v>343000</v>
+        <v>342900</v>
       </c>
       <c r="K10" s="3">
         <v>265700</v>
@@ -993,7 +993,7 @@
         <v>71200</v>
       </c>
       <c r="J17" s="3">
-        <v>-521200</v>
+        <v>-521100</v>
       </c>
       <c r="K17" s="3">
         <v>-1052700</v>
@@ -1008,13 +1008,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>431900</v>
+        <v>431800</v>
       </c>
       <c r="E18" s="3">
-        <v>413200</v>
+        <v>413100</v>
       </c>
       <c r="F18" s="3">
-        <v>410600</v>
+        <v>410500</v>
       </c>
       <c r="G18" s="3">
         <v>379100</v>
@@ -1023,10 +1023,10 @@
         <v>365900</v>
       </c>
       <c r="I18" s="3">
-        <v>344800</v>
+        <v>344700</v>
       </c>
       <c r="J18" s="3">
-        <v>916400</v>
+        <v>916300</v>
       </c>
       <c r="K18" s="3">
         <v>1372900</v>
@@ -1092,22 +1092,22 @@
         <v>758400</v>
       </c>
       <c r="E21" s="3">
-        <v>906200</v>
+        <v>906100</v>
       </c>
       <c r="F21" s="3">
         <v>550300</v>
       </c>
       <c r="G21" s="3">
-        <v>258100</v>
+        <v>258000</v>
       </c>
       <c r="H21" s="3">
-        <v>489300</v>
+        <v>489200</v>
       </c>
       <c r="I21" s="3">
-        <v>759600</v>
+        <v>759500</v>
       </c>
       <c r="J21" s="3">
-        <v>958600</v>
+        <v>958500</v>
       </c>
       <c r="K21" s="3">
         <v>1374300</v>
@@ -1155,10 +1155,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>717300</v>
+        <v>717200</v>
       </c>
       <c r="E23" s="3">
-        <v>877400</v>
+        <v>877300</v>
       </c>
       <c r="F23" s="3">
         <v>528600</v>
@@ -1173,7 +1173,7 @@
         <v>727200</v>
       </c>
       <c r="J23" s="3">
-        <v>925000</v>
+        <v>924900</v>
       </c>
       <c r="K23" s="3">
         <v>1372900</v>
@@ -1194,7 +1194,7 @@
         <v>62100</v>
       </c>
       <c r="F24" s="3">
-        <v>62500</v>
+        <v>62400</v>
       </c>
       <c r="G24" s="3">
         <v>59700</v>
@@ -1260,7 +1260,7 @@
         <v>815300</v>
       </c>
       <c r="F26" s="3">
-        <v>466200</v>
+        <v>466100</v>
       </c>
       <c r="G26" s="3">
         <v>173800</v>
@@ -1272,7 +1272,7 @@
         <v>677400</v>
       </c>
       <c r="J26" s="3">
-        <v>877000</v>
+        <v>876900</v>
       </c>
       <c r="K26" s="3">
         <v>1335700</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>625200</v>
+        <v>625100</v>
       </c>
       <c r="E27" s="3">
         <v>778400</v>
       </c>
       <c r="F27" s="3">
-        <v>469200</v>
+        <v>469100</v>
       </c>
       <c r="G27" s="3">
-        <v>157200</v>
+        <v>157100</v>
       </c>
       <c r="H27" s="3">
-        <v>374600</v>
+        <v>374500</v>
       </c>
       <c r="I27" s="3">
         <v>632500</v>
       </c>
       <c r="J27" s="3">
-        <v>794600</v>
+        <v>794500</v>
       </c>
       <c r="K27" s="3">
         <v>1282100</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>625200</v>
+        <v>625100</v>
       </c>
       <c r="E33" s="3">
         <v>778400</v>
       </c>
       <c r="F33" s="3">
-        <v>469200</v>
+        <v>469100</v>
       </c>
       <c r="G33" s="3">
-        <v>157200</v>
+        <v>157100</v>
       </c>
       <c r="H33" s="3">
-        <v>374600</v>
+        <v>374500</v>
       </c>
       <c r="I33" s="3">
         <v>632500</v>
       </c>
       <c r="J33" s="3">
-        <v>794600</v>
+        <v>794500</v>
       </c>
       <c r="K33" s="3">
         <v>1282100</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>625200</v>
+        <v>625100</v>
       </c>
       <c r="E35" s="3">
         <v>778400</v>
       </c>
       <c r="F35" s="3">
-        <v>469200</v>
+        <v>469100</v>
       </c>
       <c r="G35" s="3">
-        <v>157200</v>
+        <v>157100</v>
       </c>
       <c r="H35" s="3">
-        <v>374600</v>
+        <v>374500</v>
       </c>
       <c r="I35" s="3">
         <v>632500</v>
       </c>
       <c r="J35" s="3">
-        <v>794600</v>
+        <v>794500</v>
       </c>
       <c r="K35" s="3">
         <v>1282100</v>
@@ -1655,7 +1655,7 @@
         <v>464100</v>
       </c>
       <c r="E41" s="3">
-        <v>267000</v>
+        <v>266900</v>
       </c>
       <c r="F41" s="3">
         <v>20300</v>
@@ -1685,7 +1685,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>740000</v>
+        <v>739900</v>
       </c>
       <c r="E42" s="3">
         <v>125800</v>
@@ -1817,10 +1817,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1244600</v>
+        <v>1244500</v>
       </c>
       <c r="E46" s="3">
-        <v>419000</v>
+        <v>418900</v>
       </c>
       <c r="F46" s="3">
         <v>438400</v>
@@ -1835,7 +1835,7 @@
         <v>577400</v>
       </c>
       <c r="J46" s="3">
-        <v>647900</v>
+        <v>647800</v>
       </c>
       <c r="K46" s="3">
         <v>395900</v>
@@ -1850,7 +1850,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>889800</v>
+        <v>889700</v>
       </c>
       <c r="E47" s="3">
         <v>685400</v>
@@ -1859,16 +1859,16 @@
         <v>706800</v>
       </c>
       <c r="G47" s="3">
-        <v>694600</v>
+        <v>694500</v>
       </c>
       <c r="H47" s="3">
-        <v>626100</v>
+        <v>626000</v>
       </c>
       <c r="I47" s="3">
         <v>658400</v>
       </c>
       <c r="J47" s="3">
-        <v>653700</v>
+        <v>653600</v>
       </c>
       <c r="K47" s="3">
         <v>611400</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10308500</v>
+        <v>10307700</v>
       </c>
       <c r="E48" s="3">
-        <v>10088700</v>
+        <v>10087900</v>
       </c>
       <c r="F48" s="3">
-        <v>9447700</v>
+        <v>9447000</v>
       </c>
       <c r="G48" s="3">
-        <v>9077600</v>
+        <v>9076900</v>
       </c>
       <c r="H48" s="3">
-        <v>9098600</v>
+        <v>9097800</v>
       </c>
       <c r="I48" s="3">
-        <v>8960500</v>
+        <v>8959800</v>
       </c>
       <c r="J48" s="3">
-        <v>8506400</v>
+        <v>8505800</v>
       </c>
       <c r="K48" s="3">
         <v>7804900</v>
@@ -2015,7 +2015,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>78500</v>
+        <v>78400</v>
       </c>
       <c r="E52" s="3">
         <v>37900</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12521500</v>
+        <v>12520500</v>
       </c>
       <c r="E54" s="3">
-        <v>11231200</v>
+        <v>11230300</v>
       </c>
       <c r="F54" s="3">
-        <v>10595900</v>
+        <v>10595100</v>
       </c>
       <c r="G54" s="3">
-        <v>10325100</v>
+        <v>10324300</v>
       </c>
       <c r="H54" s="3">
-        <v>10166000</v>
+        <v>10165200</v>
       </c>
       <c r="I54" s="3">
-        <v>10196300</v>
+        <v>10195500</v>
       </c>
       <c r="J54" s="3">
-        <v>9818400</v>
+        <v>9817600</v>
       </c>
       <c r="K54" s="3">
         <v>8812200</v>
@@ -2186,7 +2186,7 @@
         <v>19400</v>
       </c>
       <c r="G58" s="3">
-        <v>152300</v>
+        <v>152200</v>
       </c>
       <c r="H58" s="3">
         <v>32300</v>
@@ -2243,7 +2243,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>316300</v>
+        <v>316200</v>
       </c>
       <c r="E60" s="3">
         <v>236800</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1543700</v>
+        <v>1543600</v>
       </c>
       <c r="E61" s="3">
         <v>777000</v>
       </c>
       <c r="F61" s="3">
-        <v>778700</v>
+        <v>778600</v>
       </c>
       <c r="G61" s="3">
         <v>659700</v>
       </c>
       <c r="H61" s="3">
-        <v>603900</v>
+        <v>603800</v>
       </c>
       <c r="I61" s="3">
-        <v>630700</v>
+        <v>630600</v>
       </c>
       <c r="J61" s="3">
-        <v>832100</v>
+        <v>832000</v>
       </c>
       <c r="K61" s="3">
         <v>675100</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2502300</v>
+        <v>2502100</v>
       </c>
       <c r="E66" s="3">
-        <v>1627300</v>
+        <v>1627200</v>
       </c>
       <c r="F66" s="3">
-        <v>1569900</v>
+        <v>1569800</v>
       </c>
       <c r="G66" s="3">
-        <v>1616900</v>
+        <v>1616700</v>
       </c>
       <c r="H66" s="3">
-        <v>1369800</v>
+        <v>1369700</v>
       </c>
       <c r="I66" s="3">
-        <v>1546200</v>
+        <v>1546000</v>
       </c>
       <c r="J66" s="3">
-        <v>1647500</v>
+        <v>1647300</v>
       </c>
       <c r="K66" s="3">
         <v>1326500</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8961000</v>
+        <v>8960300</v>
       </c>
       <c r="E72" s="3">
-        <v>8541500</v>
+        <v>8540900</v>
       </c>
       <c r="F72" s="3">
-        <v>7950300</v>
+        <v>7949700</v>
       </c>
       <c r="G72" s="3">
-        <v>7663700</v>
+        <v>7663100</v>
       </c>
       <c r="H72" s="3">
-        <v>7737700</v>
+        <v>7737100</v>
       </c>
       <c r="I72" s="3">
-        <v>7557400</v>
+        <v>7556800</v>
       </c>
       <c r="J72" s="3">
-        <v>7121400</v>
+        <v>7120900</v>
       </c>
       <c r="K72" s="3">
         <v>6448300</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10019200</v>
+        <v>10018400</v>
       </c>
       <c r="E76" s="3">
-        <v>9603800</v>
+        <v>9603100</v>
       </c>
       <c r="F76" s="3">
-        <v>9026000</v>
+        <v>9025300</v>
       </c>
       <c r="G76" s="3">
-        <v>8708200</v>
+        <v>8707600</v>
       </c>
       <c r="H76" s="3">
-        <v>8796200</v>
+        <v>8795600</v>
       </c>
       <c r="I76" s="3">
-        <v>8650200</v>
+        <v>8649500</v>
       </c>
       <c r="J76" s="3">
-        <v>8171000</v>
+        <v>8170300</v>
       </c>
       <c r="K76" s="3">
         <v>7485700</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>625200</v>
+        <v>625100</v>
       </c>
       <c r="E81" s="3">
         <v>778400</v>
       </c>
       <c r="F81" s="3">
-        <v>469200</v>
+        <v>469100</v>
       </c>
       <c r="G81" s="3">
-        <v>157200</v>
+        <v>157100</v>
       </c>
       <c r="H81" s="3">
-        <v>374600</v>
+        <v>374500</v>
       </c>
       <c r="I81" s="3">
         <v>632500</v>
       </c>
       <c r="J81" s="3">
-        <v>794600</v>
+        <v>794500</v>
       </c>
       <c r="K81" s="3">
         <v>1282100</v>
@@ -3103,10 +3103,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>413200</v>
+        <v>413100</v>
       </c>
       <c r="E89" s="3">
-        <v>355000</v>
+        <v>354900</v>
       </c>
       <c r="F89" s="3">
         <v>321300</v>
@@ -3151,7 +3151,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-123400</v>
+        <v>-123300</v>
       </c>
       <c r="E91" s="3">
         <v>-163200</v>
@@ -3250,7 +3250,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-765800</v>
+        <v>-765700</v>
       </c>
       <c r="E94" s="3">
         <v>-127700</v>
@@ -3304,7 +3304,7 @@
         <v>-186300</v>
       </c>
       <c r="F96" s="3">
-        <v>-182100</v>
+        <v>-182000</v>
       </c>
       <c r="G96" s="3">
         <v>-179900</v>
@@ -3436,13 +3436,13 @@
         <v>-222700</v>
       </c>
       <c r="F100" s="3">
-        <v>-241200</v>
+        <v>-241100</v>
       </c>
       <c r="G100" s="3">
         <v>-83900</v>
       </c>
       <c r="H100" s="3">
-        <v>-445700</v>
+        <v>-445600</v>
       </c>
       <c r="I100" s="3">
         <v>-344500</v>
@@ -3496,7 +3496,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>197200</v>
+        <v>197100</v>
       </c>
       <c r="E102" s="3">
         <v>4500</v>

--- a/AAII_Financials/Yearly/HYSNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HYSNY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>HYSNY</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>514500</v>
+        <v>513400</v>
       </c>
       <c r="E8" s="3">
-        <v>501900</v>
+        <v>500800</v>
       </c>
       <c r="F8" s="3">
-        <v>457800</v>
+        <v>456700</v>
       </c>
       <c r="G8" s="3">
-        <v>456100</v>
+        <v>455100</v>
       </c>
       <c r="H8" s="3">
-        <v>442500</v>
+        <v>441500</v>
       </c>
       <c r="I8" s="3">
-        <v>416000</v>
+        <v>415000</v>
       </c>
       <c r="J8" s="3">
-        <v>395200</v>
+        <v>394300</v>
       </c>
       <c r="K8" s="3">
         <v>320200</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>69200</v>
+        <v>69000</v>
       </c>
       <c r="E9" s="3">
-        <v>67500</v>
+        <v>67300</v>
       </c>
       <c r="F9" s="3">
-        <v>57900</v>
+        <v>57800</v>
       </c>
       <c r="G9" s="3">
-        <v>55200</v>
+        <v>55100</v>
       </c>
       <c r="H9" s="3">
-        <v>53400</v>
+        <v>53300</v>
       </c>
       <c r="I9" s="3">
+        <v>52000</v>
+      </c>
+      <c r="J9" s="3">
         <v>52100</v>
-      </c>
-      <c r="J9" s="3">
-        <v>52300</v>
       </c>
       <c r="K9" s="3">
         <v>54500</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>445400</v>
+        <v>444400</v>
       </c>
       <c r="E10" s="3">
-        <v>434400</v>
+        <v>433400</v>
       </c>
       <c r="F10" s="3">
-        <v>399800</v>
+        <v>398900</v>
       </c>
       <c r="G10" s="3">
-        <v>400900</v>
+        <v>400000</v>
       </c>
       <c r="H10" s="3">
-        <v>389100</v>
+        <v>388200</v>
       </c>
       <c r="I10" s="3">
-        <v>363800</v>
+        <v>363000</v>
       </c>
       <c r="J10" s="3">
-        <v>342900</v>
+        <v>342200</v>
       </c>
       <c r="K10" s="3">
         <v>265700</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>82700</v>
+        <v>82500</v>
       </c>
       <c r="E17" s="3">
-        <v>88800</v>
+        <v>88600</v>
       </c>
       <c r="F17" s="3">
-        <v>47200</v>
+        <v>47100</v>
       </c>
       <c r="G17" s="3">
-        <v>77000</v>
+        <v>76900</v>
       </c>
       <c r="H17" s="3">
-        <v>76600</v>
+        <v>76500</v>
       </c>
       <c r="I17" s="3">
-        <v>71200</v>
+        <v>71100</v>
       </c>
       <c r="J17" s="3">
-        <v>-521100</v>
+        <v>-519900</v>
       </c>
       <c r="K17" s="3">
         <v>-1052700</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>431800</v>
+        <v>430900</v>
       </c>
       <c r="E18" s="3">
-        <v>413100</v>
+        <v>412200</v>
       </c>
       <c r="F18" s="3">
-        <v>410500</v>
+        <v>409600</v>
       </c>
       <c r="G18" s="3">
-        <v>379100</v>
+        <v>378200</v>
       </c>
       <c r="H18" s="3">
-        <v>365900</v>
+        <v>365100</v>
       </c>
       <c r="I18" s="3">
-        <v>344700</v>
+        <v>344000</v>
       </c>
       <c r="J18" s="3">
-        <v>916300</v>
+        <v>914200</v>
       </c>
       <c r="K18" s="3">
         <v>1372900</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>323700</v>
+        <v>323000</v>
       </c>
       <c r="E20" s="3">
-        <v>490800</v>
+        <v>489700</v>
       </c>
       <c r="F20" s="3">
-        <v>136900</v>
+        <v>136600</v>
       </c>
       <c r="G20" s="3">
-        <v>-123900</v>
+        <v>-123600</v>
       </c>
       <c r="H20" s="3">
-        <v>120600</v>
+        <v>120400</v>
       </c>
       <c r="I20" s="3">
-        <v>412600</v>
+        <v>411700</v>
       </c>
       <c r="J20" s="3">
-        <v>40100</v>
+        <v>40000</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>758400</v>
+        <v>756700</v>
       </c>
       <c r="E21" s="3">
-        <v>906100</v>
+        <v>904100</v>
       </c>
       <c r="F21" s="3">
-        <v>550300</v>
+        <v>549000</v>
       </c>
       <c r="G21" s="3">
-        <v>258000</v>
+        <v>257500</v>
       </c>
       <c r="H21" s="3">
-        <v>489200</v>
+        <v>488100</v>
       </c>
       <c r="I21" s="3">
-        <v>759500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>958500</v>
+        <v>757800</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>1374300</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>38300</v>
+        <v>38200</v>
       </c>
       <c r="E22" s="3">
-        <v>26600</v>
+        <v>26500</v>
       </c>
       <c r="F22" s="3">
         <v>18800</v>
       </c>
       <c r="G22" s="3">
-        <v>21700</v>
+        <v>21600</v>
       </c>
       <c r="H22" s="3">
         <v>25500</v>
       </c>
       <c r="I22" s="3">
-        <v>30200</v>
+        <v>30100</v>
       </c>
       <c r="J22" s="3">
-        <v>31500</v>
+        <v>31400</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>717200</v>
+        <v>715600</v>
       </c>
       <c r="E23" s="3">
-        <v>877300</v>
+        <v>875400</v>
       </c>
       <c r="F23" s="3">
-        <v>528600</v>
+        <v>527400</v>
       </c>
       <c r="G23" s="3">
-        <v>233500</v>
+        <v>233000</v>
       </c>
       <c r="H23" s="3">
-        <v>461000</v>
+        <v>460000</v>
       </c>
       <c r="I23" s="3">
-        <v>727200</v>
+        <v>725500</v>
       </c>
       <c r="J23" s="3">
-        <v>924900</v>
+        <v>922900</v>
       </c>
       <c r="K23" s="3">
         <v>1372900</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>61000</v>
+        <v>60900</v>
       </c>
       <c r="E24" s="3">
-        <v>62100</v>
+        <v>61900</v>
       </c>
       <c r="F24" s="3">
-        <v>62400</v>
+        <v>62300</v>
       </c>
       <c r="G24" s="3">
-        <v>59700</v>
+        <v>59600</v>
       </c>
       <c r="H24" s="3">
-        <v>56500</v>
+        <v>56400</v>
       </c>
       <c r="I24" s="3">
-        <v>49800</v>
+        <v>49700</v>
       </c>
       <c r="J24" s="3">
-        <v>48000</v>
+        <v>47900</v>
       </c>
       <c r="K24" s="3">
         <v>37200</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>656200</v>
+        <v>654700</v>
       </c>
       <c r="E26" s="3">
-        <v>815300</v>
+        <v>813400</v>
       </c>
       <c r="F26" s="3">
-        <v>466100</v>
+        <v>465100</v>
       </c>
       <c r="G26" s="3">
-        <v>173800</v>
+        <v>173400</v>
       </c>
       <c r="H26" s="3">
-        <v>404500</v>
+        <v>403600</v>
       </c>
       <c r="I26" s="3">
-        <v>677400</v>
+        <v>675800</v>
       </c>
       <c r="J26" s="3">
-        <v>876900</v>
+        <v>875000</v>
       </c>
       <c r="K26" s="3">
         <v>1335700</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>625100</v>
+        <v>623700</v>
       </c>
       <c r="E27" s="3">
-        <v>778400</v>
+        <v>776600</v>
       </c>
       <c r="F27" s="3">
-        <v>469100</v>
+        <v>468100</v>
       </c>
       <c r="G27" s="3">
-        <v>157100</v>
+        <v>156800</v>
       </c>
       <c r="H27" s="3">
-        <v>374500</v>
+        <v>373700</v>
       </c>
       <c r="I27" s="3">
-        <v>632500</v>
+        <v>631000</v>
       </c>
       <c r="J27" s="3">
-        <v>794500</v>
+        <v>792700</v>
       </c>
       <c r="K27" s="3">
         <v>1282100</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-323700</v>
+        <v>-323000</v>
       </c>
       <c r="E32" s="3">
-        <v>-490800</v>
+        <v>-489700</v>
       </c>
       <c r="F32" s="3">
-        <v>-136900</v>
+        <v>-136600</v>
       </c>
       <c r="G32" s="3">
-        <v>123900</v>
+        <v>123600</v>
       </c>
       <c r="H32" s="3">
-        <v>-120600</v>
+        <v>-120400</v>
       </c>
       <c r="I32" s="3">
-        <v>-412600</v>
+        <v>-411700</v>
       </c>
       <c r="J32" s="3">
-        <v>-40100</v>
+        <v>-40000</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>625100</v>
+        <v>623700</v>
       </c>
       <c r="E33" s="3">
-        <v>778400</v>
+        <v>776600</v>
       </c>
       <c r="F33" s="3">
-        <v>469100</v>
+        <v>468100</v>
       </c>
       <c r="G33" s="3">
-        <v>157100</v>
+        <v>156800</v>
       </c>
       <c r="H33" s="3">
-        <v>374500</v>
+        <v>373700</v>
       </c>
       <c r="I33" s="3">
-        <v>632500</v>
+        <v>631000</v>
       </c>
       <c r="J33" s="3">
-        <v>794500</v>
+        <v>792700</v>
       </c>
       <c r="K33" s="3">
         <v>1282100</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>625100</v>
+        <v>623700</v>
       </c>
       <c r="E35" s="3">
-        <v>778400</v>
+        <v>776600</v>
       </c>
       <c r="F35" s="3">
-        <v>469100</v>
+        <v>468100</v>
       </c>
       <c r="G35" s="3">
-        <v>157100</v>
+        <v>156800</v>
       </c>
       <c r="H35" s="3">
-        <v>374500</v>
+        <v>373700</v>
       </c>
       <c r="I35" s="3">
-        <v>632500</v>
+        <v>631000</v>
       </c>
       <c r="J35" s="3">
-        <v>794500</v>
+        <v>792700</v>
       </c>
       <c r="K35" s="3">
         <v>1282100</v>
@@ -1652,13 +1652,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>464100</v>
+        <v>463000</v>
       </c>
       <c r="E41" s="3">
-        <v>266900</v>
+        <v>266300</v>
       </c>
       <c r="F41" s="3">
-        <v>20300</v>
+        <v>20200</v>
       </c>
       <c r="G41" s="3">
         <v>10200</v>
@@ -1667,10 +1667,10 @@
         <v>7900</v>
       </c>
       <c r="I41" s="3">
-        <v>13700</v>
+        <v>13600</v>
       </c>
       <c r="J41" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="K41" s="3">
         <v>19700</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>739900</v>
+        <v>738300</v>
       </c>
       <c r="E42" s="3">
-        <v>125800</v>
+        <v>125500</v>
       </c>
       <c r="F42" s="3">
-        <v>389000</v>
+        <v>388100</v>
       </c>
       <c r="G42" s="3">
-        <v>384400</v>
+        <v>383500</v>
       </c>
       <c r="H42" s="3">
-        <v>407600</v>
+        <v>406700</v>
       </c>
       <c r="I42" s="3">
-        <v>530800</v>
+        <v>529600</v>
       </c>
       <c r="J42" s="3">
-        <v>606300</v>
+        <v>604900</v>
       </c>
       <c r="K42" s="3">
         <v>355600</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>40500</v>
+        <v>40400</v>
       </c>
       <c r="E43" s="3">
-        <v>26200</v>
+        <v>26100</v>
       </c>
       <c r="F43" s="3">
-        <v>29200</v>
+        <v>29100</v>
       </c>
       <c r="G43" s="3">
-        <v>156600</v>
+        <v>156300</v>
       </c>
       <c r="H43" s="3">
         <v>25900</v>
       </c>
       <c r="I43" s="3">
-        <v>32900</v>
+        <v>32800</v>
       </c>
       <c r="J43" s="3">
-        <v>31100</v>
+        <v>31000</v>
       </c>
       <c r="K43" s="3">
         <v>20600</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1244500</v>
+        <v>1241700</v>
       </c>
       <c r="E46" s="3">
-        <v>418900</v>
+        <v>418000</v>
       </c>
       <c r="F46" s="3">
-        <v>438400</v>
+        <v>437400</v>
       </c>
       <c r="G46" s="3">
-        <v>551200</v>
+        <v>549900</v>
       </c>
       <c r="H46" s="3">
-        <v>441400</v>
+        <v>440400</v>
       </c>
       <c r="I46" s="3">
-        <v>577400</v>
+        <v>576100</v>
       </c>
       <c r="J46" s="3">
-        <v>647800</v>
+        <v>646400</v>
       </c>
       <c r="K46" s="3">
         <v>395900</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>889700</v>
+        <v>887700</v>
       </c>
       <c r="E47" s="3">
-        <v>685400</v>
+        <v>683800</v>
       </c>
       <c r="F47" s="3">
-        <v>706800</v>
+        <v>705200</v>
       </c>
       <c r="G47" s="3">
-        <v>694500</v>
+        <v>693000</v>
       </c>
       <c r="H47" s="3">
-        <v>626000</v>
+        <v>624600</v>
       </c>
       <c r="I47" s="3">
-        <v>658400</v>
+        <v>656900</v>
       </c>
       <c r="J47" s="3">
-        <v>653600</v>
+        <v>652100</v>
       </c>
       <c r="K47" s="3">
         <v>611400</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10307700</v>
+        <v>10284500</v>
       </c>
       <c r="E48" s="3">
-        <v>10087900</v>
+        <v>10065300</v>
       </c>
       <c r="F48" s="3">
-        <v>9447000</v>
+        <v>9425700</v>
       </c>
       <c r="G48" s="3">
-        <v>9076900</v>
+        <v>9056500</v>
       </c>
       <c r="H48" s="3">
-        <v>9097800</v>
+        <v>9077400</v>
       </c>
       <c r="I48" s="3">
-        <v>8959800</v>
+        <v>8939700</v>
       </c>
       <c r="J48" s="3">
-        <v>8505800</v>
+        <v>8486700</v>
       </c>
       <c r="K48" s="3">
         <v>7804900</v>
@@ -2015,10 +2015,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>78400</v>
+        <v>78300</v>
       </c>
       <c r="E52" s="3">
-        <v>37900</v>
+        <v>37800</v>
       </c>
       <c r="F52" s="3">
         <v>2800</v>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12520500</v>
+        <v>12492300</v>
       </c>
       <c r="E54" s="3">
-        <v>11230300</v>
+        <v>11205000</v>
       </c>
       <c r="F54" s="3">
-        <v>10595100</v>
+        <v>10571300</v>
       </c>
       <c r="G54" s="3">
-        <v>10324300</v>
+        <v>10301100</v>
       </c>
       <c r="H54" s="3">
-        <v>10165200</v>
+        <v>10142400</v>
       </c>
       <c r="I54" s="3">
-        <v>10195500</v>
+        <v>10172600</v>
       </c>
       <c r="J54" s="3">
-        <v>9817600</v>
+        <v>9795600</v>
       </c>
       <c r="K54" s="3">
         <v>8812200</v>
@@ -2144,10 +2144,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>41200</v>
+        <v>41100</v>
       </c>
       <c r="E57" s="3">
-        <v>33200</v>
+        <v>33100</v>
       </c>
       <c r="F57" s="3">
         <v>27700</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>72900</v>
+        <v>72700</v>
       </c>
       <c r="E58" s="3">
-        <v>38700</v>
+        <v>38600</v>
       </c>
       <c r="F58" s="3">
-        <v>19400</v>
+        <v>19300</v>
       </c>
       <c r="G58" s="3">
-        <v>152200</v>
+        <v>151900</v>
       </c>
       <c r="H58" s="3">
-        <v>32300</v>
+        <v>32200</v>
       </c>
       <c r="I58" s="3">
-        <v>205000</v>
+        <v>204600</v>
       </c>
       <c r="J58" s="3">
-        <v>136100</v>
+        <v>135800</v>
       </c>
       <c r="K58" s="3">
         <v>90000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>202200</v>
+        <v>201700</v>
       </c>
       <c r="E59" s="3">
-        <v>164900</v>
+        <v>164500</v>
       </c>
       <c r="F59" s="3">
-        <v>180100</v>
+        <v>179700</v>
       </c>
       <c r="G59" s="3">
-        <v>201800</v>
+        <v>201300</v>
       </c>
       <c r="H59" s="3">
-        <v>127900</v>
+        <v>127600</v>
       </c>
       <c r="I59" s="3">
-        <v>135100</v>
+        <v>134800</v>
       </c>
       <c r="J59" s="3">
-        <v>129500</v>
+        <v>129200</v>
       </c>
       <c r="K59" s="3">
         <v>77100</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>316200</v>
+        <v>315500</v>
       </c>
       <c r="E60" s="3">
-        <v>236800</v>
+        <v>236200</v>
       </c>
       <c r="F60" s="3">
-        <v>227200</v>
+        <v>226700</v>
       </c>
       <c r="G60" s="3">
-        <v>373300</v>
+        <v>372400</v>
       </c>
       <c r="H60" s="3">
-        <v>188800</v>
+        <v>188300</v>
       </c>
       <c r="I60" s="3">
-        <v>362400</v>
+        <v>361600</v>
       </c>
       <c r="J60" s="3">
-        <v>286600</v>
+        <v>285900</v>
       </c>
       <c r="K60" s="3">
         <v>227600</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1543600</v>
+        <v>1540100</v>
       </c>
       <c r="E61" s="3">
-        <v>777000</v>
+        <v>775200</v>
       </c>
       <c r="F61" s="3">
-        <v>778600</v>
+        <v>776900</v>
       </c>
       <c r="G61" s="3">
-        <v>659700</v>
+        <v>658200</v>
       </c>
       <c r="H61" s="3">
-        <v>603800</v>
+        <v>602500</v>
       </c>
       <c r="I61" s="3">
-        <v>630600</v>
+        <v>629200</v>
       </c>
       <c r="J61" s="3">
-        <v>832000</v>
+        <v>830200</v>
       </c>
       <c r="K61" s="3">
         <v>675100</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>213700</v>
+        <v>213200</v>
       </c>
       <c r="E62" s="3">
-        <v>199900</v>
+        <v>199400</v>
       </c>
       <c r="F62" s="3">
-        <v>170700</v>
+        <v>170300</v>
       </c>
       <c r="G62" s="3">
-        <v>171600</v>
+        <v>171200</v>
       </c>
       <c r="H62" s="3">
-        <v>164800</v>
+        <v>164400</v>
       </c>
       <c r="I62" s="3">
-        <v>154400</v>
+        <v>154100</v>
       </c>
       <c r="J62" s="3">
-        <v>160400</v>
+        <v>160000</v>
       </c>
       <c r="K62" s="3">
         <v>124500</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2502100</v>
+        <v>2496500</v>
       </c>
       <c r="E66" s="3">
-        <v>1627200</v>
+        <v>1623500</v>
       </c>
       <c r="F66" s="3">
-        <v>1569800</v>
+        <v>1566300</v>
       </c>
       <c r="G66" s="3">
-        <v>1616700</v>
+        <v>1613100</v>
       </c>
       <c r="H66" s="3">
-        <v>1369700</v>
+        <v>1366600</v>
       </c>
       <c r="I66" s="3">
-        <v>1546000</v>
+        <v>1542600</v>
       </c>
       <c r="J66" s="3">
-        <v>1647300</v>
+        <v>1643600</v>
       </c>
       <c r="K66" s="3">
         <v>1326500</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8960300</v>
+        <v>8940200</v>
       </c>
       <c r="E72" s="3">
-        <v>8540900</v>
+        <v>8521700</v>
       </c>
       <c r="F72" s="3">
-        <v>7949700</v>
+        <v>7931800</v>
       </c>
       <c r="G72" s="3">
-        <v>7663100</v>
+        <v>7645900</v>
       </c>
       <c r="H72" s="3">
-        <v>7737100</v>
+        <v>7719700</v>
       </c>
       <c r="I72" s="3">
-        <v>7556800</v>
+        <v>7539800</v>
       </c>
       <c r="J72" s="3">
-        <v>7120900</v>
+        <v>7104900</v>
       </c>
       <c r="K72" s="3">
         <v>6448300</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10018400</v>
+        <v>9995900</v>
       </c>
       <c r="E76" s="3">
-        <v>9603100</v>
+        <v>9581500</v>
       </c>
       <c r="F76" s="3">
-        <v>9025300</v>
+        <v>9005000</v>
       </c>
       <c r="G76" s="3">
-        <v>8707600</v>
+        <v>8688000</v>
       </c>
       <c r="H76" s="3">
-        <v>8795600</v>
+        <v>8775800</v>
       </c>
       <c r="I76" s="3">
-        <v>8649500</v>
+        <v>8630100</v>
       </c>
       <c r="J76" s="3">
-        <v>8170300</v>
+        <v>8152000</v>
       </c>
       <c r="K76" s="3">
         <v>7485700</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>625100</v>
+        <v>623700</v>
       </c>
       <c r="E81" s="3">
-        <v>778400</v>
+        <v>776600</v>
       </c>
       <c r="F81" s="3">
-        <v>469100</v>
+        <v>468100</v>
       </c>
       <c r="G81" s="3">
-        <v>157100</v>
+        <v>156800</v>
       </c>
       <c r="H81" s="3">
-        <v>374500</v>
+        <v>373700</v>
       </c>
       <c r="I81" s="3">
-        <v>632500</v>
+        <v>631000</v>
       </c>
       <c r="J81" s="3">
-        <v>794500</v>
+        <v>792700</v>
       </c>
       <c r="K81" s="3">
         <v>1282100</v>
@@ -2922,8 +2922,8 @@
       <c r="I83" s="3">
         <v>2200</v>
       </c>
-      <c r="J83" s="3">
-        <v>2100</v>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>1400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>413100</v>
+        <v>412200</v>
       </c>
       <c r="E89" s="3">
-        <v>354900</v>
+        <v>354100</v>
       </c>
       <c r="F89" s="3">
-        <v>321300</v>
+        <v>320500</v>
       </c>
       <c r="G89" s="3">
-        <v>376600</v>
+        <v>375800</v>
       </c>
       <c r="H89" s="3">
-        <v>327700</v>
+        <v>327000</v>
       </c>
       <c r="I89" s="3">
-        <v>309000</v>
+        <v>308300</v>
       </c>
       <c r="J89" s="3">
-        <v>293300</v>
+        <v>292600</v>
       </c>
       <c r="K89" s="3">
         <v>221600</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-123300</v>
+        <v>-123100</v>
       </c>
       <c r="E91" s="3">
-        <v>-163200</v>
+        <v>-162800</v>
       </c>
       <c r="F91" s="3">
-        <v>-191700</v>
+        <v>-191300</v>
       </c>
       <c r="G91" s="3">
-        <v>-109300</v>
+        <v>-109000</v>
       </c>
       <c r="H91" s="3">
-        <v>-53400</v>
+        <v>-53300</v>
       </c>
       <c r="I91" s="3">
-        <v>-46300</v>
+        <v>-46200</v>
       </c>
       <c r="J91" s="3">
-        <v>-90800</v>
+        <v>-90600</v>
       </c>
       <c r="K91" s="3">
         <v>-209400</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-765700</v>
+        <v>-764000</v>
       </c>
       <c r="E94" s="3">
-        <v>-127700</v>
+        <v>-127400</v>
       </c>
       <c r="F94" s="3">
         <v>5900</v>
       </c>
       <c r="G94" s="3">
-        <v>-191700</v>
+        <v>-191300</v>
       </c>
       <c r="H94" s="3">
-        <v>119000</v>
+        <v>118700</v>
       </c>
       <c r="I94" s="3">
-        <v>29700</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-374700</v>
+        <v>29600</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>46000</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-194400</v>
+        <v>-194000</v>
       </c>
       <c r="E96" s="3">
-        <v>-186300</v>
+        <v>-185900</v>
       </c>
       <c r="F96" s="3">
-        <v>-182000</v>
+        <v>-181600</v>
       </c>
       <c r="G96" s="3">
-        <v>-179900</v>
+        <v>-179400</v>
       </c>
       <c r="H96" s="3">
-        <v>-171600</v>
+        <v>-171200</v>
       </c>
       <c r="I96" s="3">
-        <v>-161900</v>
+        <v>-161600</v>
       </c>
       <c r="J96" s="3">
-        <v>-137300</v>
+        <v>-137000</v>
       </c>
       <c r="K96" s="3">
         <v>-99000</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>549800</v>
+        <v>548500</v>
       </c>
       <c r="E100" s="3">
-        <v>-222700</v>
+        <v>-222200</v>
       </c>
       <c r="F100" s="3">
-        <v>-241100</v>
+        <v>-240600</v>
       </c>
       <c r="G100" s="3">
-        <v>-83900</v>
+        <v>-83700</v>
       </c>
       <c r="H100" s="3">
-        <v>-445600</v>
+        <v>-444600</v>
       </c>
       <c r="I100" s="3">
-        <v>-344500</v>
-      </c>
-      <c r="J100" s="3">
-        <v>37300</v>
+        <v>-343700</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>-227800</v>
@@ -3480,8 +3480,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3496,16 +3496,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>197100</v>
+        <v>196700</v>
       </c>
       <c r="E102" s="3">
         <v>4500</v>
       </c>
       <c r="F102" s="3">
-        <v>86100</v>
+        <v>85900</v>
       </c>
       <c r="G102" s="3">
-        <v>101000</v>
+        <v>100800</v>
       </c>
       <c r="H102" s="3">
         <v>1000</v>
@@ -3514,7 +3514,7 @@
         <v>-5800</v>
       </c>
       <c r="J102" s="3">
-        <v>-44100</v>
+        <v>-44000</v>
       </c>
       <c r="K102" s="3">
         <v>39800</v>

--- a/AAII_Financials/Yearly/HYSNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HYSNY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>HYSNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>513400</v>
+        <v>478000</v>
       </c>
       <c r="E8" s="3">
-        <v>500800</v>
+        <v>513800</v>
       </c>
       <c r="F8" s="3">
-        <v>456700</v>
+        <v>501100</v>
       </c>
       <c r="G8" s="3">
-        <v>455100</v>
+        <v>457100</v>
       </c>
       <c r="H8" s="3">
-        <v>441500</v>
+        <v>455400</v>
       </c>
       <c r="I8" s="3">
-        <v>415000</v>
+        <v>441900</v>
       </c>
       <c r="J8" s="3">
+        <v>415300</v>
+      </c>
+      <c r="K8" s="3">
         <v>394300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>320200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>246000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>69000</v>
+        <v>63100</v>
       </c>
       <c r="E9" s="3">
-        <v>67300</v>
+        <v>69100</v>
       </c>
       <c r="F9" s="3">
+        <v>67400</v>
+      </c>
+      <c r="G9" s="3">
         <v>57800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>55100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>53300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>52000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>52100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>54500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>33500</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>444400</v>
+        <v>414800</v>
       </c>
       <c r="E10" s="3">
-        <v>433400</v>
+        <v>444700</v>
       </c>
       <c r="F10" s="3">
-        <v>398900</v>
+        <v>433800</v>
       </c>
       <c r="G10" s="3">
-        <v>400000</v>
+        <v>399200</v>
       </c>
       <c r="H10" s="3">
-        <v>388200</v>
+        <v>400300</v>
       </c>
       <c r="I10" s="3">
-        <v>363000</v>
+        <v>388600</v>
       </c>
       <c r="J10" s="3">
+        <v>363300</v>
+      </c>
+      <c r="K10" s="3">
         <v>342200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>265700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>212500</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,9 +906,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,9 +942,12 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -956,9 +978,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>82500</v>
+        <v>62000</v>
       </c>
       <c r="E17" s="3">
+        <v>82600</v>
+      </c>
+      <c r="F17" s="3">
         <v>88600</v>
       </c>
-      <c r="F17" s="3">
-        <v>47100</v>
-      </c>
       <c r="G17" s="3">
+        <v>47200</v>
+      </c>
+      <c r="H17" s="3">
         <v>76900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>76500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>71100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-519900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-1052700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-932500</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>430900</v>
+        <v>416000</v>
       </c>
       <c r="E18" s="3">
-        <v>412200</v>
+        <v>431200</v>
       </c>
       <c r="F18" s="3">
-        <v>409600</v>
+        <v>412500</v>
       </c>
       <c r="G18" s="3">
-        <v>378200</v>
+        <v>409900</v>
       </c>
       <c r="H18" s="3">
-        <v>365100</v>
+        <v>378500</v>
       </c>
       <c r="I18" s="3">
-        <v>344000</v>
+        <v>365400</v>
       </c>
       <c r="J18" s="3">
+        <v>344200</v>
+      </c>
+      <c r="K18" s="3">
         <v>914200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1372900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1178500</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>323000</v>
+        <v>-608100</v>
       </c>
       <c r="E20" s="3">
-        <v>489700</v>
+        <v>323200</v>
       </c>
       <c r="F20" s="3">
-        <v>136600</v>
+        <v>490100</v>
       </c>
       <c r="G20" s="3">
-        <v>-123600</v>
+        <v>136700</v>
       </c>
       <c r="H20" s="3">
-        <v>120400</v>
+        <v>-123700</v>
       </c>
       <c r="I20" s="3">
-        <v>411700</v>
+        <v>120500</v>
       </c>
       <c r="J20" s="3">
+        <v>412000</v>
+      </c>
+      <c r="K20" s="3">
         <v>40000</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>756700</v>
+        <v>-189000</v>
       </c>
       <c r="E21" s="3">
-        <v>904100</v>
+        <v>757300</v>
       </c>
       <c r="F21" s="3">
-        <v>549000</v>
+        <v>904800</v>
       </c>
       <c r="G21" s="3">
-        <v>257500</v>
+        <v>549500</v>
       </c>
       <c r="H21" s="3">
-        <v>488100</v>
+        <v>257700</v>
       </c>
       <c r="I21" s="3">
-        <v>757800</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>488500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>758400</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1374300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1179500</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>38200</v>
+        <v>64900</v>
       </c>
       <c r="E22" s="3">
+        <v>38300</v>
+      </c>
+      <c r="F22" s="3">
         <v>26500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>18800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>21600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>25500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>30100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>31400</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>715600</v>
+        <v>-257000</v>
       </c>
       <c r="E23" s="3">
-        <v>875400</v>
+        <v>716200</v>
       </c>
       <c r="F23" s="3">
-        <v>527400</v>
+        <v>876000</v>
       </c>
       <c r="G23" s="3">
-        <v>233000</v>
+        <v>527800</v>
       </c>
       <c r="H23" s="3">
-        <v>460000</v>
+        <v>233200</v>
       </c>
       <c r="I23" s="3">
-        <v>725500</v>
+        <v>460300</v>
       </c>
       <c r="J23" s="3">
+        <v>726100</v>
+      </c>
+      <c r="K23" s="3">
         <v>922900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1372900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1178500</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>45500</v>
+      </c>
+      <c r="E24" s="3">
         <v>60900</v>
       </c>
-      <c r="E24" s="3">
-        <v>61900</v>
-      </c>
       <c r="F24" s="3">
-        <v>62300</v>
+        <v>62000</v>
       </c>
       <c r="G24" s="3">
+        <v>62400</v>
+      </c>
+      <c r="H24" s="3">
         <v>59600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>56400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>49700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>47900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>37200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>27800</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>654700</v>
+        <v>-302500</v>
       </c>
       <c r="E26" s="3">
-        <v>813400</v>
+        <v>655200</v>
       </c>
       <c r="F26" s="3">
-        <v>465100</v>
+        <v>814100</v>
       </c>
       <c r="G26" s="3">
-        <v>173400</v>
+        <v>465500</v>
       </c>
       <c r="H26" s="3">
-        <v>403600</v>
+        <v>173500</v>
       </c>
       <c r="I26" s="3">
-        <v>675800</v>
+        <v>403900</v>
       </c>
       <c r="J26" s="3">
+        <v>676400</v>
+      </c>
+      <c r="K26" s="3">
         <v>875000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1335700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1150700</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>623700</v>
+        <v>-328100</v>
       </c>
       <c r="E27" s="3">
-        <v>776600</v>
+        <v>624200</v>
       </c>
       <c r="F27" s="3">
-        <v>468100</v>
+        <v>777200</v>
       </c>
       <c r="G27" s="3">
-        <v>156800</v>
+        <v>468400</v>
       </c>
       <c r="H27" s="3">
-        <v>373700</v>
+        <v>156900</v>
       </c>
       <c r="I27" s="3">
-        <v>631000</v>
+        <v>374000</v>
       </c>
       <c r="J27" s="3">
+        <v>631500</v>
+      </c>
+      <c r="K27" s="3">
         <v>792700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1282100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1093800</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-323000</v>
+        <v>608100</v>
       </c>
       <c r="E32" s="3">
-        <v>-489700</v>
+        <v>-323200</v>
       </c>
       <c r="F32" s="3">
-        <v>-136600</v>
+        <v>-490100</v>
       </c>
       <c r="G32" s="3">
-        <v>123600</v>
+        <v>-136700</v>
       </c>
       <c r="H32" s="3">
-        <v>-120400</v>
+        <v>123700</v>
       </c>
       <c r="I32" s="3">
-        <v>-411700</v>
+        <v>-120500</v>
       </c>
       <c r="J32" s="3">
+        <v>-412000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-40000</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>623700</v>
+        <v>-328100</v>
       </c>
       <c r="E33" s="3">
-        <v>776600</v>
+        <v>624200</v>
       </c>
       <c r="F33" s="3">
-        <v>468100</v>
+        <v>777200</v>
       </c>
       <c r="G33" s="3">
-        <v>156800</v>
+        <v>468400</v>
       </c>
       <c r="H33" s="3">
-        <v>373700</v>
+        <v>156900</v>
       </c>
       <c r="I33" s="3">
-        <v>631000</v>
+        <v>374000</v>
       </c>
       <c r="J33" s="3">
+        <v>631500</v>
+      </c>
+      <c r="K33" s="3">
         <v>792700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1282100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1093800</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>623700</v>
+        <v>-328100</v>
       </c>
       <c r="E35" s="3">
-        <v>776600</v>
+        <v>624200</v>
       </c>
       <c r="F35" s="3">
-        <v>468100</v>
+        <v>777200</v>
       </c>
       <c r="G35" s="3">
-        <v>156800</v>
+        <v>468400</v>
       </c>
       <c r="H35" s="3">
-        <v>373700</v>
+        <v>156900</v>
       </c>
       <c r="I35" s="3">
-        <v>631000</v>
+        <v>374000</v>
       </c>
       <c r="J35" s="3">
+        <v>631500</v>
+      </c>
+      <c r="K35" s="3">
         <v>792700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1282100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1093800</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,107 +1731,117 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>463000</v>
+        <v>1853700</v>
       </c>
       <c r="E41" s="3">
-        <v>266300</v>
+        <v>463400</v>
       </c>
       <c r="F41" s="3">
+        <v>266500</v>
+      </c>
+      <c r="G41" s="3">
         <v>20200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7900</v>
       </c>
-      <c r="I41" s="3">
-        <v>13600</v>
-      </c>
       <c r="J41" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K41" s="3">
         <v>10400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>19700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7900</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>738300</v>
+        <v>1358600</v>
       </c>
       <c r="E42" s="3">
-        <v>125500</v>
+        <v>738800</v>
       </c>
       <c r="F42" s="3">
-        <v>388100</v>
+        <v>125600</v>
       </c>
       <c r="G42" s="3">
-        <v>383500</v>
+        <v>388400</v>
       </c>
       <c r="H42" s="3">
-        <v>406700</v>
+        <v>383800</v>
       </c>
       <c r="I42" s="3">
-        <v>529600</v>
+        <v>407000</v>
       </c>
       <c r="J42" s="3">
+        <v>530000</v>
+      </c>
+      <c r="K42" s="3">
         <v>604900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>355600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>436000</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>40400</v>
+        <v>60200</v>
       </c>
       <c r="E43" s="3">
-        <v>26100</v>
+        <v>40500</v>
       </c>
       <c r="F43" s="3">
+        <v>26200</v>
+      </c>
+      <c r="G43" s="3">
         <v>29100</v>
       </c>
-      <c r="G43" s="3">
-        <v>156300</v>
-      </c>
       <c r="H43" s="3">
+        <v>156400</v>
+      </c>
+      <c r="I43" s="3">
         <v>25900</v>
       </c>
-      <c r="I43" s="3">
-        <v>32800</v>
-      </c>
       <c r="J43" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K43" s="3">
         <v>31000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>20600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17200</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1777,9 +1872,12 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1810,113 +1908,125 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1241700</v>
+        <v>3272500</v>
       </c>
       <c r="E46" s="3">
-        <v>418000</v>
+        <v>1242700</v>
       </c>
       <c r="F46" s="3">
-        <v>437400</v>
+        <v>418300</v>
       </c>
       <c r="G46" s="3">
-        <v>549900</v>
+        <v>437800</v>
       </c>
       <c r="H46" s="3">
-        <v>440400</v>
+        <v>550400</v>
       </c>
       <c r="I46" s="3">
-        <v>576100</v>
+        <v>440700</v>
       </c>
       <c r="J46" s="3">
+        <v>576500</v>
+      </c>
+      <c r="K46" s="3">
         <v>646400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>395900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>461100</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>887700</v>
+        <v>989700</v>
       </c>
       <c r="E47" s="3">
-        <v>683800</v>
+        <v>888400</v>
       </c>
       <c r="F47" s="3">
-        <v>705200</v>
+        <v>684300</v>
       </c>
       <c r="G47" s="3">
-        <v>693000</v>
+        <v>705700</v>
       </c>
       <c r="H47" s="3">
-        <v>624600</v>
+        <v>693500</v>
       </c>
       <c r="I47" s="3">
-        <v>656900</v>
+        <v>625100</v>
       </c>
       <c r="J47" s="3">
+        <v>657400</v>
+      </c>
+      <c r="K47" s="3">
         <v>652100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>611400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>674200</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10284500</v>
+        <v>9768800</v>
       </c>
       <c r="E48" s="3">
-        <v>10065300</v>
+        <v>10292500</v>
       </c>
       <c r="F48" s="3">
-        <v>9425700</v>
+        <v>10073100</v>
       </c>
       <c r="G48" s="3">
-        <v>9056500</v>
+        <v>9433100</v>
       </c>
       <c r="H48" s="3">
-        <v>9077400</v>
+        <v>9063600</v>
       </c>
       <c r="I48" s="3">
-        <v>8939700</v>
+        <v>9084400</v>
       </c>
       <c r="J48" s="3">
+        <v>8946600</v>
+      </c>
+      <c r="K48" s="3">
         <v>8486700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7804900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6463900</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>100</v>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E49" s="3">
         <v>100</v>
@@ -1927,8 +2037,8 @@
       <c r="G49" s="3">
         <v>100</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
+      <c r="H49" s="3">
+        <v>100</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>8</v>
@@ -1942,9 +2052,12 @@
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>108700</v>
+      </c>
+      <c r="E52" s="3">
         <v>78300</v>
       </c>
-      <c r="E52" s="3">
-        <v>37800</v>
-      </c>
       <c r="F52" s="3">
+        <v>37900</v>
+      </c>
+      <c r="G52" s="3">
         <v>2800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1500</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="I52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>10400</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12492300</v>
+        <v>14139700</v>
       </c>
       <c r="E54" s="3">
-        <v>11205000</v>
+        <v>12502000</v>
       </c>
       <c r="F54" s="3">
-        <v>10571300</v>
+        <v>11213700</v>
       </c>
       <c r="G54" s="3">
-        <v>10301100</v>
+        <v>10579500</v>
       </c>
       <c r="H54" s="3">
-        <v>10142400</v>
+        <v>10309100</v>
       </c>
       <c r="I54" s="3">
-        <v>10172600</v>
+        <v>10150300</v>
       </c>
       <c r="J54" s="3">
+        <v>10180500</v>
+      </c>
+      <c r="K54" s="3">
         <v>9795600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8812200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7599100</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E57" s="3">
         <v>41100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>33100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>27700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>19200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>28600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>22300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>20900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>60400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>68100</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>72700</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>72800</v>
+      </c>
+      <c r="F58" s="3">
         <v>38600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>19300</v>
       </c>
-      <c r="G58" s="3">
-        <v>151900</v>
-      </c>
       <c r="H58" s="3">
+        <v>152000</v>
+      </c>
+      <c r="I58" s="3">
         <v>32200</v>
       </c>
-      <c r="I58" s="3">
-        <v>204600</v>
-      </c>
       <c r="J58" s="3">
+        <v>204700</v>
+      </c>
+      <c r="K58" s="3">
         <v>135800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>90000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>192900</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>201700</v>
+        <v>164300</v>
       </c>
       <c r="E59" s="3">
-        <v>164500</v>
+        <v>201900</v>
       </c>
       <c r="F59" s="3">
-        <v>179700</v>
+        <v>164600</v>
       </c>
       <c r="G59" s="3">
-        <v>201300</v>
+        <v>179800</v>
       </c>
       <c r="H59" s="3">
-        <v>127600</v>
+        <v>201500</v>
       </c>
       <c r="I59" s="3">
-        <v>134800</v>
+        <v>127700</v>
       </c>
       <c r="J59" s="3">
+        <v>134900</v>
+      </c>
+      <c r="K59" s="3">
         <v>129200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>77100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>75400</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>315500</v>
+        <v>199900</v>
       </c>
       <c r="E60" s="3">
-        <v>236200</v>
+        <v>315800</v>
       </c>
       <c r="F60" s="3">
-        <v>226700</v>
+        <v>236400</v>
       </c>
       <c r="G60" s="3">
-        <v>372400</v>
+        <v>226900</v>
       </c>
       <c r="H60" s="3">
-        <v>188300</v>
+        <v>372700</v>
       </c>
       <c r="I60" s="3">
-        <v>361600</v>
+        <v>188500</v>
       </c>
       <c r="J60" s="3">
+        <v>361900</v>
+      </c>
+      <c r="K60" s="3">
         <v>285900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>227600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>336400</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1540100</v>
+        <v>2443900</v>
       </c>
       <c r="E61" s="3">
-        <v>775200</v>
+        <v>1541300</v>
       </c>
       <c r="F61" s="3">
-        <v>776900</v>
+        <v>775800</v>
       </c>
       <c r="G61" s="3">
-        <v>658200</v>
+        <v>777500</v>
       </c>
       <c r="H61" s="3">
-        <v>602500</v>
+        <v>658700</v>
       </c>
       <c r="I61" s="3">
-        <v>629200</v>
+        <v>602900</v>
       </c>
       <c r="J61" s="3">
+        <v>629700</v>
+      </c>
+      <c r="K61" s="3">
         <v>830200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>675100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>660000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>213200</v>
+        <v>229800</v>
       </c>
       <c r="E62" s="3">
-        <v>199400</v>
+        <v>213300</v>
       </c>
       <c r="F62" s="3">
-        <v>170300</v>
+        <v>199600</v>
       </c>
       <c r="G62" s="3">
-        <v>171200</v>
+        <v>170400</v>
       </c>
       <c r="H62" s="3">
-        <v>164400</v>
+        <v>171300</v>
       </c>
       <c r="I62" s="3">
-        <v>154100</v>
+        <v>164500</v>
       </c>
       <c r="J62" s="3">
+        <v>154200</v>
+      </c>
+      <c r="K62" s="3">
         <v>160000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>124500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>107500</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2496500</v>
+        <v>3274600</v>
       </c>
       <c r="E66" s="3">
-        <v>1623500</v>
+        <v>2498400</v>
       </c>
       <c r="F66" s="3">
-        <v>1566300</v>
+        <v>1624800</v>
       </c>
       <c r="G66" s="3">
-        <v>1613100</v>
+        <v>1567500</v>
       </c>
       <c r="H66" s="3">
-        <v>1366600</v>
+        <v>1614400</v>
       </c>
       <c r="I66" s="3">
-        <v>1542600</v>
+        <v>1367700</v>
       </c>
       <c r="J66" s="3">
+        <v>1543800</v>
+      </c>
+      <c r="K66" s="3">
         <v>1643600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1326500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1358700</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8940200</v>
+        <v>8406700</v>
       </c>
       <c r="E72" s="3">
-        <v>8521700</v>
+        <v>8947100</v>
       </c>
       <c r="F72" s="3">
-        <v>7931800</v>
+        <v>8528300</v>
       </c>
       <c r="G72" s="3">
-        <v>7645900</v>
+        <v>7938000</v>
       </c>
       <c r="H72" s="3">
-        <v>7719700</v>
+        <v>7651900</v>
       </c>
       <c r="I72" s="3">
-        <v>7539800</v>
+        <v>7725700</v>
       </c>
       <c r="J72" s="3">
+        <v>7545700</v>
+      </c>
+      <c r="K72" s="3">
         <v>7104900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6448300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5123700</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9995900</v>
+        <v>10865100</v>
       </c>
       <c r="E76" s="3">
-        <v>9581500</v>
+        <v>10003600</v>
       </c>
       <c r="F76" s="3">
-        <v>9005000</v>
+        <v>9588900</v>
       </c>
       <c r="G76" s="3">
-        <v>8688000</v>
+        <v>9012000</v>
       </c>
       <c r="H76" s="3">
-        <v>8775800</v>
+        <v>8694700</v>
       </c>
       <c r="I76" s="3">
-        <v>8630100</v>
+        <v>8782600</v>
       </c>
       <c r="J76" s="3">
+        <v>8636800</v>
+      </c>
+      <c r="K76" s="3">
         <v>8152000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7485700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6240400</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>623700</v>
+        <v>-328100</v>
       </c>
       <c r="E81" s="3">
-        <v>776600</v>
+        <v>624200</v>
       </c>
       <c r="F81" s="3">
-        <v>468100</v>
+        <v>777200</v>
       </c>
       <c r="G81" s="3">
-        <v>156800</v>
+        <v>468400</v>
       </c>
       <c r="H81" s="3">
-        <v>373700</v>
+        <v>156900</v>
       </c>
       <c r="I81" s="3">
-        <v>631000</v>
+        <v>374000</v>
       </c>
       <c r="J81" s="3">
+        <v>631500</v>
+      </c>
+      <c r="K81" s="3">
         <v>792700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1282100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1093800</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E83" s="3">
         <v>2800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>2800</v>
       </c>
       <c r="G83" s="3">
         <v>2800</v>
       </c>
       <c r="H83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I83" s="3">
         <v>2700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2200</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1000</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>412200</v>
+        <v>262800</v>
       </c>
       <c r="E89" s="3">
-        <v>354100</v>
+        <v>412500</v>
       </c>
       <c r="F89" s="3">
-        <v>320500</v>
+        <v>354400</v>
       </c>
       <c r="G89" s="3">
-        <v>375800</v>
+        <v>320800</v>
       </c>
       <c r="H89" s="3">
-        <v>327000</v>
+        <v>376100</v>
       </c>
       <c r="I89" s="3">
-        <v>308300</v>
+        <v>327200</v>
       </c>
       <c r="J89" s="3">
+        <v>308500</v>
+      </c>
+      <c r="K89" s="3">
         <v>292600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>221600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>180100</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-123100</v>
+        <v>-117600</v>
       </c>
       <c r="E91" s="3">
-        <v>-162800</v>
+        <v>-123200</v>
       </c>
       <c r="F91" s="3">
-        <v>-191300</v>
+        <v>-163000</v>
       </c>
       <c r="G91" s="3">
-        <v>-109000</v>
+        <v>-191400</v>
       </c>
       <c r="H91" s="3">
+        <v>-109100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-53300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-46200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-90600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-209400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-195600</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-764000</v>
+        <v>-746300</v>
       </c>
       <c r="E94" s="3">
-        <v>-127400</v>
+        <v>-764600</v>
       </c>
       <c r="F94" s="3">
+        <v>-127500</v>
+      </c>
+      <c r="G94" s="3">
         <v>5900</v>
       </c>
-      <c r="G94" s="3">
-        <v>-191300</v>
-      </c>
       <c r="H94" s="3">
-        <v>118700</v>
+        <v>-191400</v>
       </c>
       <c r="I94" s="3">
+        <v>118800</v>
+      </c>
+      <c r="J94" s="3">
         <v>29600</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>46000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-326000</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-194000</v>
+        <v>-193500</v>
       </c>
       <c r="E96" s="3">
-        <v>-185900</v>
+        <v>-194100</v>
       </c>
       <c r="F96" s="3">
-        <v>-181600</v>
+        <v>-186000</v>
       </c>
       <c r="G96" s="3">
-        <v>-179400</v>
+        <v>-181800</v>
       </c>
       <c r="H96" s="3">
-        <v>-171200</v>
+        <v>-179600</v>
       </c>
       <c r="I96" s="3">
-        <v>-161600</v>
+        <v>-171300</v>
       </c>
       <c r="J96" s="3">
+        <v>-161700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-137000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-99000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-77600</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,42 +3665,48 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>548500</v>
+        <v>1873800</v>
       </c>
       <c r="E100" s="3">
-        <v>-222200</v>
+        <v>548900</v>
       </c>
       <c r="F100" s="3">
-        <v>-240600</v>
+        <v>-222400</v>
       </c>
       <c r="G100" s="3">
+        <v>-240800</v>
+      </c>
+      <c r="H100" s="3">
         <v>-83700</v>
       </c>
-      <c r="H100" s="3">
-        <v>-444600</v>
-      </c>
       <c r="I100" s="3">
-        <v>-343700</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-445000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-344000</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-227800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>158000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3480,49 +3728,55 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>196700</v>
+        <v>1390300</v>
       </c>
       <c r="E102" s="3">
+        <v>196900</v>
+      </c>
+      <c r="F102" s="3">
         <v>4500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>85900</v>
       </c>
-      <c r="G102" s="3">
-        <v>100800</v>
-      </c>
       <c r="H102" s="3">
+        <v>100900</v>
+      </c>
+      <c r="I102" s="3">
         <v>1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-44000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>39800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>12000</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HYSNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HYSNY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>478000</v>
+        <v>476300</v>
       </c>
       <c r="E8" s="3">
-        <v>513800</v>
+        <v>511900</v>
       </c>
       <c r="F8" s="3">
-        <v>501100</v>
+        <v>499400</v>
       </c>
       <c r="G8" s="3">
-        <v>457100</v>
+        <v>455500</v>
       </c>
       <c r="H8" s="3">
-        <v>455400</v>
+        <v>453800</v>
       </c>
       <c r="I8" s="3">
-        <v>441900</v>
+        <v>440300</v>
       </c>
       <c r="J8" s="3">
-        <v>415300</v>
+        <v>413900</v>
       </c>
       <c r="K8" s="3">
         <v>394300</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>63100</v>
+        <v>62900</v>
       </c>
       <c r="E9" s="3">
-        <v>69100</v>
+        <v>68800</v>
       </c>
       <c r="F9" s="3">
-        <v>67400</v>
+        <v>67100</v>
       </c>
       <c r="G9" s="3">
-        <v>57800</v>
+        <v>57600</v>
       </c>
       <c r="H9" s="3">
-        <v>55100</v>
+        <v>54900</v>
       </c>
       <c r="I9" s="3">
-        <v>53300</v>
+        <v>53100</v>
       </c>
       <c r="J9" s="3">
-        <v>52000</v>
+        <v>51900</v>
       </c>
       <c r="K9" s="3">
         <v>52100</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>414800</v>
+        <v>413400</v>
       </c>
       <c r="E10" s="3">
-        <v>444700</v>
+        <v>443100</v>
       </c>
       <c r="F10" s="3">
-        <v>433800</v>
+        <v>432200</v>
       </c>
       <c r="G10" s="3">
-        <v>399200</v>
+        <v>397800</v>
       </c>
       <c r="H10" s="3">
-        <v>400300</v>
+        <v>398800</v>
       </c>
       <c r="I10" s="3">
-        <v>388600</v>
+        <v>387200</v>
       </c>
       <c r="J10" s="3">
-        <v>363300</v>
+        <v>362000</v>
       </c>
       <c r="K10" s="3">
         <v>342200</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>62000</v>
+        <v>61700</v>
       </c>
       <c r="E17" s="3">
-        <v>82600</v>
+        <v>82300</v>
       </c>
       <c r="F17" s="3">
-        <v>88600</v>
+        <v>88300</v>
       </c>
       <c r="G17" s="3">
-        <v>47200</v>
+        <v>47000</v>
       </c>
       <c r="H17" s="3">
-        <v>76900</v>
+        <v>76600</v>
       </c>
       <c r="I17" s="3">
-        <v>76500</v>
+        <v>76300</v>
       </c>
       <c r="J17" s="3">
-        <v>71100</v>
+        <v>70900</v>
       </c>
       <c r="K17" s="3">
         <v>-519900</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>416000</v>
+        <v>414500</v>
       </c>
       <c r="E18" s="3">
-        <v>431200</v>
+        <v>429700</v>
       </c>
       <c r="F18" s="3">
-        <v>412500</v>
+        <v>411000</v>
       </c>
       <c r="G18" s="3">
-        <v>409900</v>
+        <v>408500</v>
       </c>
       <c r="H18" s="3">
-        <v>378500</v>
+        <v>377200</v>
       </c>
       <c r="I18" s="3">
-        <v>365400</v>
+        <v>364100</v>
       </c>
       <c r="J18" s="3">
-        <v>344200</v>
+        <v>343000</v>
       </c>
       <c r="K18" s="3">
         <v>914200</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-608100</v>
+        <v>-605900</v>
       </c>
       <c r="E20" s="3">
-        <v>323200</v>
+        <v>322100</v>
       </c>
       <c r="F20" s="3">
-        <v>490100</v>
+        <v>488300</v>
       </c>
       <c r="G20" s="3">
-        <v>136700</v>
+        <v>136200</v>
       </c>
       <c r="H20" s="3">
-        <v>-123700</v>
+        <v>-123200</v>
       </c>
       <c r="I20" s="3">
-        <v>120500</v>
+        <v>120000</v>
       </c>
       <c r="J20" s="3">
-        <v>412000</v>
+        <v>410500</v>
       </c>
       <c r="K20" s="3">
         <v>40000</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-189000</v>
+        <v>-188300</v>
       </c>
       <c r="E21" s="3">
-        <v>757300</v>
+        <v>754600</v>
       </c>
       <c r="F21" s="3">
-        <v>904800</v>
+        <v>901500</v>
       </c>
       <c r="G21" s="3">
-        <v>549500</v>
+        <v>547500</v>
       </c>
       <c r="H21" s="3">
-        <v>257700</v>
+        <v>256700</v>
       </c>
       <c r="I21" s="3">
-        <v>488500</v>
+        <v>486800</v>
       </c>
       <c r="J21" s="3">
-        <v>758400</v>
+        <v>755700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>64900</v>
+        <v>64700</v>
       </c>
       <c r="E22" s="3">
-        <v>38300</v>
+        <v>38100</v>
       </c>
       <c r="F22" s="3">
-        <v>26500</v>
+        <v>26400</v>
       </c>
       <c r="G22" s="3">
-        <v>18800</v>
+        <v>18700</v>
       </c>
       <c r="H22" s="3">
         <v>21600</v>
       </c>
       <c r="I22" s="3">
-        <v>25500</v>
+        <v>25400</v>
       </c>
       <c r="J22" s="3">
-        <v>30100</v>
+        <v>30000</v>
       </c>
       <c r="K22" s="3">
         <v>31400</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-257000</v>
+        <v>-256100</v>
       </c>
       <c r="E23" s="3">
-        <v>716200</v>
+        <v>713600</v>
       </c>
       <c r="F23" s="3">
-        <v>876000</v>
+        <v>872900</v>
       </c>
       <c r="G23" s="3">
-        <v>527800</v>
+        <v>525900</v>
       </c>
       <c r="H23" s="3">
-        <v>233200</v>
+        <v>232300</v>
       </c>
       <c r="I23" s="3">
-        <v>460300</v>
+        <v>458700</v>
       </c>
       <c r="J23" s="3">
-        <v>726100</v>
+        <v>723500</v>
       </c>
       <c r="K23" s="3">
         <v>922900</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>45500</v>
+        <v>45300</v>
       </c>
       <c r="E24" s="3">
-        <v>60900</v>
+        <v>60700</v>
       </c>
       <c r="F24" s="3">
-        <v>62000</v>
+        <v>61700</v>
       </c>
       <c r="G24" s="3">
-        <v>62400</v>
+        <v>62100</v>
       </c>
       <c r="H24" s="3">
-        <v>59600</v>
+        <v>59400</v>
       </c>
       <c r="I24" s="3">
-        <v>56400</v>
+        <v>56200</v>
       </c>
       <c r="J24" s="3">
-        <v>49700</v>
+        <v>49600</v>
       </c>
       <c r="K24" s="3">
         <v>47900</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-302500</v>
+        <v>-301400</v>
       </c>
       <c r="E26" s="3">
-        <v>655200</v>
+        <v>652900</v>
       </c>
       <c r="F26" s="3">
-        <v>814100</v>
+        <v>811200</v>
       </c>
       <c r="G26" s="3">
-        <v>465500</v>
+        <v>463800</v>
       </c>
       <c r="H26" s="3">
-        <v>173500</v>
+        <v>172900</v>
       </c>
       <c r="I26" s="3">
-        <v>403900</v>
+        <v>402400</v>
       </c>
       <c r="J26" s="3">
-        <v>676400</v>
+        <v>673900</v>
       </c>
       <c r="K26" s="3">
         <v>875000</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-328100</v>
+        <v>-327000</v>
       </c>
       <c r="E27" s="3">
-        <v>624200</v>
+        <v>622000</v>
       </c>
       <c r="F27" s="3">
-        <v>777200</v>
+        <v>774500</v>
       </c>
       <c r="G27" s="3">
-        <v>468400</v>
+        <v>466800</v>
       </c>
       <c r="H27" s="3">
-        <v>156900</v>
+        <v>156400</v>
       </c>
       <c r="I27" s="3">
-        <v>374000</v>
+        <v>372700</v>
       </c>
       <c r="J27" s="3">
-        <v>631500</v>
+        <v>629300</v>
       </c>
       <c r="K27" s="3">
         <v>792700</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>608100</v>
+        <v>605900</v>
       </c>
       <c r="E32" s="3">
-        <v>-323200</v>
+        <v>-322100</v>
       </c>
       <c r="F32" s="3">
-        <v>-490100</v>
+        <v>-488300</v>
       </c>
       <c r="G32" s="3">
-        <v>-136700</v>
+        <v>-136200</v>
       </c>
       <c r="H32" s="3">
-        <v>123700</v>
+        <v>123200</v>
       </c>
       <c r="I32" s="3">
-        <v>-120500</v>
+        <v>-120000</v>
       </c>
       <c r="J32" s="3">
-        <v>-412000</v>
+        <v>-410500</v>
       </c>
       <c r="K32" s="3">
         <v>-40000</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-328100</v>
+        <v>-327000</v>
       </c>
       <c r="E33" s="3">
-        <v>624200</v>
+        <v>622000</v>
       </c>
       <c r="F33" s="3">
-        <v>777200</v>
+        <v>774500</v>
       </c>
       <c r="G33" s="3">
-        <v>468400</v>
+        <v>466800</v>
       </c>
       <c r="H33" s="3">
-        <v>156900</v>
+        <v>156400</v>
       </c>
       <c r="I33" s="3">
-        <v>374000</v>
+        <v>372700</v>
       </c>
       <c r="J33" s="3">
-        <v>631500</v>
+        <v>629300</v>
       </c>
       <c r="K33" s="3">
         <v>792700</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-328100</v>
+        <v>-327000</v>
       </c>
       <c r="E35" s="3">
-        <v>624200</v>
+        <v>622000</v>
       </c>
       <c r="F35" s="3">
-        <v>777200</v>
+        <v>774500</v>
       </c>
       <c r="G35" s="3">
-        <v>468400</v>
+        <v>466800</v>
       </c>
       <c r="H35" s="3">
-        <v>156900</v>
+        <v>156400</v>
       </c>
       <c r="I35" s="3">
-        <v>374000</v>
+        <v>372700</v>
       </c>
       <c r="J35" s="3">
-        <v>631500</v>
+        <v>629300</v>
       </c>
       <c r="K35" s="3">
         <v>792700</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1853700</v>
+        <v>1847100</v>
       </c>
       <c r="E41" s="3">
-        <v>463400</v>
+        <v>461700</v>
       </c>
       <c r="F41" s="3">
-        <v>266500</v>
+        <v>265600</v>
       </c>
       <c r="G41" s="3">
         <v>20200</v>
       </c>
       <c r="H41" s="3">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="I41" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="J41" s="3">
-        <v>13700</v>
+        <v>13600</v>
       </c>
       <c r="K41" s="3">
         <v>10400</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1358600</v>
+        <v>1353800</v>
       </c>
       <c r="E42" s="3">
-        <v>738800</v>
+        <v>736200</v>
       </c>
       <c r="F42" s="3">
-        <v>125600</v>
+        <v>125200</v>
       </c>
       <c r="G42" s="3">
-        <v>388400</v>
+        <v>387000</v>
       </c>
       <c r="H42" s="3">
-        <v>383800</v>
+        <v>382400</v>
       </c>
       <c r="I42" s="3">
-        <v>407000</v>
+        <v>405500</v>
       </c>
       <c r="J42" s="3">
-        <v>530000</v>
+        <v>528100</v>
       </c>
       <c r="K42" s="3">
         <v>604900</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>60200</v>
+        <v>59900</v>
       </c>
       <c r="E43" s="3">
-        <v>40500</v>
+        <v>40300</v>
       </c>
       <c r="F43" s="3">
-        <v>26200</v>
+        <v>26100</v>
       </c>
       <c r="G43" s="3">
-        <v>29100</v>
+        <v>29000</v>
       </c>
       <c r="H43" s="3">
-        <v>156400</v>
+        <v>155800</v>
       </c>
       <c r="I43" s="3">
-        <v>25900</v>
+        <v>25800</v>
       </c>
       <c r="J43" s="3">
-        <v>32900</v>
+        <v>32700</v>
       </c>
       <c r="K43" s="3">
         <v>31000</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3272500</v>
+        <v>3260900</v>
       </c>
       <c r="E46" s="3">
-        <v>1242700</v>
+        <v>1238300</v>
       </c>
       <c r="F46" s="3">
-        <v>418300</v>
+        <v>416800</v>
       </c>
       <c r="G46" s="3">
-        <v>437800</v>
+        <v>436200</v>
       </c>
       <c r="H46" s="3">
-        <v>550400</v>
+        <v>548400</v>
       </c>
       <c r="I46" s="3">
-        <v>440700</v>
+        <v>439200</v>
       </c>
       <c r="J46" s="3">
-        <v>576500</v>
+        <v>574500</v>
       </c>
       <c r="K46" s="3">
         <v>646400</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>989700</v>
+        <v>986100</v>
       </c>
       <c r="E47" s="3">
-        <v>888400</v>
+        <v>885200</v>
       </c>
       <c r="F47" s="3">
-        <v>684300</v>
+        <v>681900</v>
       </c>
       <c r="G47" s="3">
-        <v>705700</v>
+        <v>703200</v>
       </c>
       <c r="H47" s="3">
-        <v>693500</v>
+        <v>691000</v>
       </c>
       <c r="I47" s="3">
-        <v>625100</v>
+        <v>622900</v>
       </c>
       <c r="J47" s="3">
-        <v>657400</v>
+        <v>655100</v>
       </c>
       <c r="K47" s="3">
         <v>652100</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9768800</v>
+        <v>9733900</v>
       </c>
       <c r="E48" s="3">
-        <v>10292500</v>
+        <v>10255700</v>
       </c>
       <c r="F48" s="3">
-        <v>10073100</v>
+        <v>10037100</v>
       </c>
       <c r="G48" s="3">
-        <v>9433100</v>
+        <v>9399400</v>
       </c>
       <c r="H48" s="3">
-        <v>9063600</v>
+        <v>9031200</v>
       </c>
       <c r="I48" s="3">
-        <v>9084400</v>
+        <v>9052000</v>
       </c>
       <c r="J48" s="3">
-        <v>8946600</v>
+        <v>8914700</v>
       </c>
       <c r="K48" s="3">
         <v>8486700</v>
@@ -2134,13 +2134,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>108700</v>
+        <v>108300</v>
       </c>
       <c r="E52" s="3">
-        <v>78300</v>
+        <v>78000</v>
       </c>
       <c r="F52" s="3">
-        <v>37900</v>
+        <v>37700</v>
       </c>
       <c r="G52" s="3">
         <v>2800</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14139700</v>
+        <v>14089200</v>
       </c>
       <c r="E54" s="3">
-        <v>12502000</v>
+        <v>12457400</v>
       </c>
       <c r="F54" s="3">
-        <v>11213700</v>
+        <v>11173700</v>
       </c>
       <c r="G54" s="3">
-        <v>10579500</v>
+        <v>10541700</v>
       </c>
       <c r="H54" s="3">
-        <v>10309100</v>
+        <v>10272300</v>
       </c>
       <c r="I54" s="3">
-        <v>10150300</v>
+        <v>10114000</v>
       </c>
       <c r="J54" s="3">
-        <v>10180500</v>
+        <v>10144200</v>
       </c>
       <c r="K54" s="3">
         <v>9795600</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>35700</v>
+        <v>35600</v>
       </c>
       <c r="E57" s="3">
-        <v>41100</v>
+        <v>41000</v>
       </c>
       <c r="F57" s="3">
-        <v>33100</v>
+        <v>33000</v>
       </c>
       <c r="G57" s="3">
-        <v>27700</v>
+        <v>27600</v>
       </c>
       <c r="H57" s="3">
-        <v>19200</v>
+        <v>19100</v>
       </c>
       <c r="I57" s="3">
-        <v>28600</v>
+        <v>28500</v>
       </c>
       <c r="J57" s="3">
-        <v>22300</v>
+        <v>22200</v>
       </c>
       <c r="K57" s="3">
         <v>20900</v>
@@ -2313,22 +2313,22 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>72800</v>
+        <v>72500</v>
       </c>
       <c r="F58" s="3">
-        <v>38600</v>
+        <v>38500</v>
       </c>
       <c r="G58" s="3">
         <v>19300</v>
       </c>
       <c r="H58" s="3">
-        <v>152000</v>
+        <v>151500</v>
       </c>
       <c r="I58" s="3">
-        <v>32200</v>
+        <v>32100</v>
       </c>
       <c r="J58" s="3">
-        <v>204700</v>
+        <v>204000</v>
       </c>
       <c r="K58" s="3">
         <v>135800</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>164300</v>
+        <v>163700</v>
       </c>
       <c r="E59" s="3">
-        <v>201900</v>
+        <v>201200</v>
       </c>
       <c r="F59" s="3">
-        <v>164600</v>
+        <v>164100</v>
       </c>
       <c r="G59" s="3">
-        <v>179800</v>
+        <v>179200</v>
       </c>
       <c r="H59" s="3">
-        <v>201500</v>
+        <v>200800</v>
       </c>
       <c r="I59" s="3">
-        <v>127700</v>
+        <v>127200</v>
       </c>
       <c r="J59" s="3">
-        <v>134900</v>
+        <v>134400</v>
       </c>
       <c r="K59" s="3">
         <v>129200</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>199900</v>
+        <v>199200</v>
       </c>
       <c r="E60" s="3">
-        <v>315800</v>
+        <v>314600</v>
       </c>
       <c r="F60" s="3">
-        <v>236400</v>
+        <v>235600</v>
       </c>
       <c r="G60" s="3">
-        <v>226900</v>
+        <v>226100</v>
       </c>
       <c r="H60" s="3">
-        <v>372700</v>
+        <v>371400</v>
       </c>
       <c r="I60" s="3">
-        <v>188500</v>
+        <v>187800</v>
       </c>
       <c r="J60" s="3">
-        <v>361900</v>
+        <v>360600</v>
       </c>
       <c r="K60" s="3">
         <v>285900</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2443900</v>
+        <v>2435200</v>
       </c>
       <c r="E61" s="3">
-        <v>1541300</v>
+        <v>1535800</v>
       </c>
       <c r="F61" s="3">
-        <v>775800</v>
+        <v>773000</v>
       </c>
       <c r="G61" s="3">
-        <v>777500</v>
+        <v>774700</v>
       </c>
       <c r="H61" s="3">
-        <v>658700</v>
+        <v>656400</v>
       </c>
       <c r="I61" s="3">
-        <v>602900</v>
+        <v>591700</v>
       </c>
       <c r="J61" s="3">
-        <v>629700</v>
+        <v>623600</v>
       </c>
       <c r="K61" s="3">
         <v>830200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>229800</v>
+        <v>229000</v>
       </c>
       <c r="E62" s="3">
-        <v>213300</v>
+        <v>212600</v>
       </c>
       <c r="F62" s="3">
-        <v>199600</v>
+        <v>198800</v>
       </c>
       <c r="G62" s="3">
-        <v>170400</v>
+        <v>169800</v>
       </c>
       <c r="H62" s="3">
-        <v>171300</v>
+        <v>170700</v>
       </c>
       <c r="I62" s="3">
-        <v>164500</v>
+        <v>173000</v>
       </c>
       <c r="J62" s="3">
-        <v>154200</v>
+        <v>157500</v>
       </c>
       <c r="K62" s="3">
         <v>160000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3274600</v>
+        <v>3262900</v>
       </c>
       <c r="E66" s="3">
-        <v>2498400</v>
+        <v>2489500</v>
       </c>
       <c r="F66" s="3">
-        <v>1624800</v>
+        <v>1619000</v>
       </c>
       <c r="G66" s="3">
-        <v>1567500</v>
+        <v>1561900</v>
       </c>
       <c r="H66" s="3">
-        <v>1614400</v>
+        <v>1608600</v>
       </c>
       <c r="I66" s="3">
-        <v>1367700</v>
+        <v>1362800</v>
       </c>
       <c r="J66" s="3">
-        <v>1543800</v>
+        <v>1538300</v>
       </c>
       <c r="K66" s="3">
         <v>1643600</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8406700</v>
+        <v>8376700</v>
       </c>
       <c r="E72" s="3">
-        <v>8947100</v>
+        <v>8915200</v>
       </c>
       <c r="F72" s="3">
-        <v>8528300</v>
+        <v>8497800</v>
       </c>
       <c r="G72" s="3">
-        <v>7938000</v>
+        <v>7909600</v>
       </c>
       <c r="H72" s="3">
-        <v>7651900</v>
+        <v>7624500</v>
       </c>
       <c r="I72" s="3">
-        <v>7725700</v>
+        <v>7698100</v>
       </c>
       <c r="J72" s="3">
-        <v>7545700</v>
+        <v>7518800</v>
       </c>
       <c r="K72" s="3">
         <v>7104900</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10865100</v>
+        <v>10826300</v>
       </c>
       <c r="E76" s="3">
-        <v>10003600</v>
+        <v>9967900</v>
       </c>
       <c r="F76" s="3">
-        <v>9588900</v>
+        <v>9554700</v>
       </c>
       <c r="G76" s="3">
-        <v>9012000</v>
+        <v>8979900</v>
       </c>
       <c r="H76" s="3">
-        <v>8694700</v>
+        <v>8663700</v>
       </c>
       <c r="I76" s="3">
-        <v>8782600</v>
+        <v>8751200</v>
       </c>
       <c r="J76" s="3">
-        <v>8636800</v>
+        <v>8605900</v>
       </c>
       <c r="K76" s="3">
         <v>8152000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-328100</v>
+        <v>-327000</v>
       </c>
       <c r="E81" s="3">
-        <v>624200</v>
+        <v>622000</v>
       </c>
       <c r="F81" s="3">
-        <v>777200</v>
+        <v>774500</v>
       </c>
       <c r="G81" s="3">
-        <v>468400</v>
+        <v>466800</v>
       </c>
       <c r="H81" s="3">
-        <v>156900</v>
+        <v>156400</v>
       </c>
       <c r="I81" s="3">
-        <v>374000</v>
+        <v>372700</v>
       </c>
       <c r="J81" s="3">
-        <v>631500</v>
+        <v>629300</v>
       </c>
       <c r="K81" s="3">
         <v>792700</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>262800</v>
+        <v>261900</v>
       </c>
       <c r="E89" s="3">
-        <v>412500</v>
+        <v>411000</v>
       </c>
       <c r="F89" s="3">
-        <v>354400</v>
+        <v>353100</v>
       </c>
       <c r="G89" s="3">
-        <v>320800</v>
+        <v>319600</v>
       </c>
       <c r="H89" s="3">
-        <v>376100</v>
+        <v>374700</v>
       </c>
       <c r="I89" s="3">
-        <v>327200</v>
+        <v>326100</v>
       </c>
       <c r="J89" s="3">
-        <v>308500</v>
+        <v>307400</v>
       </c>
       <c r="K89" s="3">
         <v>292600</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-117600</v>
+        <v>-117200</v>
       </c>
       <c r="E91" s="3">
-        <v>-123200</v>
+        <v>-122700</v>
       </c>
       <c r="F91" s="3">
-        <v>-163000</v>
+        <v>-162400</v>
       </c>
       <c r="G91" s="3">
-        <v>-191400</v>
+        <v>-190800</v>
       </c>
       <c r="H91" s="3">
-        <v>-109100</v>
+        <v>-108700</v>
       </c>
       <c r="I91" s="3">
-        <v>-53300</v>
+        <v>-53100</v>
       </c>
       <c r="J91" s="3">
-        <v>-46200</v>
+        <v>-46100</v>
       </c>
       <c r="K91" s="3">
         <v>-90600</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-746300</v>
+        <v>-743600</v>
       </c>
       <c r="E94" s="3">
-        <v>-764600</v>
+        <v>-761900</v>
       </c>
       <c r="F94" s="3">
-        <v>-127500</v>
+        <v>-127100</v>
       </c>
       <c r="G94" s="3">
         <v>5900</v>
       </c>
       <c r="H94" s="3">
-        <v>-191400</v>
+        <v>-190800</v>
       </c>
       <c r="I94" s="3">
-        <v>118800</v>
+        <v>118400</v>
       </c>
       <c r="J94" s="3">
-        <v>29600</v>
+        <v>29500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-192800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-193500</v>
       </c>
-      <c r="E96" s="3">
-        <v>-194100</v>
-      </c>
       <c r="F96" s="3">
-        <v>-186000</v>
+        <v>-185400</v>
       </c>
       <c r="G96" s="3">
-        <v>-181800</v>
+        <v>-181100</v>
       </c>
       <c r="H96" s="3">
-        <v>-179600</v>
+        <v>-178900</v>
       </c>
       <c r="I96" s="3">
-        <v>-171300</v>
+        <v>-170700</v>
       </c>
       <c r="J96" s="3">
-        <v>-161700</v>
+        <v>-161100</v>
       </c>
       <c r="K96" s="3">
         <v>-137000</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1873800</v>
+        <v>1867100</v>
       </c>
       <c r="E100" s="3">
-        <v>548900</v>
+        <v>547000</v>
       </c>
       <c r="F100" s="3">
-        <v>-222400</v>
+        <v>-221600</v>
       </c>
       <c r="G100" s="3">
-        <v>-240800</v>
+        <v>-239900</v>
       </c>
       <c r="H100" s="3">
-        <v>-83700</v>
+        <v>-83400</v>
       </c>
       <c r="I100" s="3">
-        <v>-445000</v>
+        <v>-443400</v>
       </c>
       <c r="J100" s="3">
-        <v>-344000</v>
+        <v>-342700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3747,19 +3747,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1390300</v>
+        <v>1385400</v>
       </c>
       <c r="E102" s="3">
-        <v>196900</v>
+        <v>196100</v>
       </c>
       <c r="F102" s="3">
         <v>4500</v>
       </c>
       <c r="G102" s="3">
-        <v>85900</v>
+        <v>85600</v>
       </c>
       <c r="H102" s="3">
-        <v>100900</v>
+        <v>100500</v>
       </c>
       <c r="I102" s="3">
         <v>1000</v>

--- a/AAII_Financials/Yearly/HYSNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HYSNY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>476300</v>
+        <v>475700</v>
       </c>
       <c r="E8" s="3">
-        <v>511900</v>
+        <v>511300</v>
       </c>
       <c r="F8" s="3">
-        <v>499400</v>
+        <v>498700</v>
       </c>
       <c r="G8" s="3">
-        <v>455500</v>
+        <v>454900</v>
       </c>
       <c r="H8" s="3">
-        <v>453800</v>
+        <v>453200</v>
       </c>
       <c r="I8" s="3">
-        <v>440300</v>
+        <v>439800</v>
       </c>
       <c r="J8" s="3">
-        <v>413900</v>
+        <v>413300</v>
       </c>
       <c r="K8" s="3">
         <v>394300</v>
@@ -756,10 +756,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>62900</v>
+        <v>62800</v>
       </c>
       <c r="E9" s="3">
-        <v>68800</v>
+        <v>68700</v>
       </c>
       <c r="F9" s="3">
         <v>67100</v>
@@ -774,7 +774,7 @@
         <v>53100</v>
       </c>
       <c r="J9" s="3">
-        <v>51900</v>
+        <v>51800</v>
       </c>
       <c r="K9" s="3">
         <v>52100</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>413400</v>
+        <v>412800</v>
       </c>
       <c r="E10" s="3">
-        <v>443100</v>
+        <v>442600</v>
       </c>
       <c r="F10" s="3">
-        <v>432200</v>
+        <v>431700</v>
       </c>
       <c r="G10" s="3">
-        <v>397800</v>
+        <v>397300</v>
       </c>
       <c r="H10" s="3">
-        <v>398800</v>
+        <v>398300</v>
       </c>
       <c r="I10" s="3">
-        <v>387200</v>
+        <v>386700</v>
       </c>
       <c r="J10" s="3">
-        <v>362000</v>
+        <v>361600</v>
       </c>
       <c r="K10" s="3">
         <v>342200</v>
@@ -1004,22 +1004,22 @@
         <v>61700</v>
       </c>
       <c r="E17" s="3">
-        <v>82300</v>
+        <v>82200</v>
       </c>
       <c r="F17" s="3">
-        <v>88300</v>
+        <v>88200</v>
       </c>
       <c r="G17" s="3">
-        <v>47000</v>
+        <v>46900</v>
       </c>
       <c r="H17" s="3">
-        <v>76600</v>
+        <v>76500</v>
       </c>
       <c r="I17" s="3">
-        <v>76300</v>
+        <v>76200</v>
       </c>
       <c r="J17" s="3">
-        <v>70900</v>
+        <v>70800</v>
       </c>
       <c r="K17" s="3">
         <v>-519900</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>414500</v>
+        <v>414000</v>
       </c>
       <c r="E18" s="3">
-        <v>429700</v>
+        <v>429100</v>
       </c>
       <c r="F18" s="3">
-        <v>411000</v>
+        <v>410500</v>
       </c>
       <c r="G18" s="3">
-        <v>408500</v>
+        <v>408000</v>
       </c>
       <c r="H18" s="3">
-        <v>377200</v>
+        <v>376700</v>
       </c>
       <c r="I18" s="3">
-        <v>364100</v>
+        <v>363600</v>
       </c>
       <c r="J18" s="3">
-        <v>343000</v>
+        <v>342600</v>
       </c>
       <c r="K18" s="3">
         <v>914200</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-605900</v>
+        <v>-605200</v>
       </c>
       <c r="E20" s="3">
-        <v>322100</v>
+        <v>321700</v>
       </c>
       <c r="F20" s="3">
-        <v>488300</v>
+        <v>487700</v>
       </c>
       <c r="G20" s="3">
-        <v>136200</v>
+        <v>136000</v>
       </c>
       <c r="H20" s="3">
-        <v>-123200</v>
+        <v>-123100</v>
       </c>
       <c r="I20" s="3">
-        <v>120000</v>
+        <v>119900</v>
       </c>
       <c r="J20" s="3">
-        <v>410500</v>
+        <v>410000</v>
       </c>
       <c r="K20" s="3">
         <v>40000</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-188300</v>
+        <v>-188100</v>
       </c>
       <c r="E21" s="3">
-        <v>754600</v>
+        <v>753600</v>
       </c>
       <c r="F21" s="3">
-        <v>901500</v>
+        <v>900400</v>
       </c>
       <c r="G21" s="3">
-        <v>547500</v>
+        <v>546800</v>
       </c>
       <c r="H21" s="3">
-        <v>256700</v>
+        <v>256400</v>
       </c>
       <c r="I21" s="3">
-        <v>486800</v>
+        <v>486200</v>
       </c>
       <c r="J21" s="3">
-        <v>755700</v>
+        <v>754800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1161,7 +1161,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>64700</v>
+        <v>64600</v>
       </c>
       <c r="E22" s="3">
         <v>38100</v>
@@ -1173,7 +1173,7 @@
         <v>18700</v>
       </c>
       <c r="H22" s="3">
-        <v>21600</v>
+        <v>21500</v>
       </c>
       <c r="I22" s="3">
         <v>25400</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-256100</v>
+        <v>-255800</v>
       </c>
       <c r="E23" s="3">
-        <v>713600</v>
+        <v>712700</v>
       </c>
       <c r="F23" s="3">
-        <v>872900</v>
+        <v>871800</v>
       </c>
       <c r="G23" s="3">
-        <v>525900</v>
+        <v>525300</v>
       </c>
       <c r="H23" s="3">
-        <v>232300</v>
+        <v>232100</v>
       </c>
       <c r="I23" s="3">
-        <v>458700</v>
+        <v>458100</v>
       </c>
       <c r="J23" s="3">
-        <v>723500</v>
+        <v>722600</v>
       </c>
       <c r="K23" s="3">
         <v>922900</v>
@@ -1236,7 +1236,7 @@
         <v>45300</v>
       </c>
       <c r="E24" s="3">
-        <v>60700</v>
+        <v>60600</v>
       </c>
       <c r="F24" s="3">
         <v>61700</v>
@@ -1251,7 +1251,7 @@
         <v>56200</v>
       </c>
       <c r="J24" s="3">
-        <v>49600</v>
+        <v>49500</v>
       </c>
       <c r="K24" s="3">
         <v>47900</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-301400</v>
+        <v>-301000</v>
       </c>
       <c r="E26" s="3">
-        <v>652900</v>
+        <v>652100</v>
       </c>
       <c r="F26" s="3">
-        <v>811200</v>
+        <v>810200</v>
       </c>
       <c r="G26" s="3">
-        <v>463800</v>
+        <v>463200</v>
       </c>
       <c r="H26" s="3">
-        <v>172900</v>
+        <v>172700</v>
       </c>
       <c r="I26" s="3">
-        <v>402400</v>
+        <v>401900</v>
       </c>
       <c r="J26" s="3">
-        <v>673900</v>
+        <v>673100</v>
       </c>
       <c r="K26" s="3">
         <v>875000</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-327000</v>
+        <v>-326600</v>
       </c>
       <c r="E27" s="3">
-        <v>622000</v>
+        <v>621200</v>
       </c>
       <c r="F27" s="3">
-        <v>774500</v>
+        <v>773500</v>
       </c>
       <c r="G27" s="3">
-        <v>466800</v>
+        <v>466200</v>
       </c>
       <c r="H27" s="3">
-        <v>156400</v>
+        <v>156200</v>
       </c>
       <c r="I27" s="3">
-        <v>372700</v>
+        <v>372200</v>
       </c>
       <c r="J27" s="3">
-        <v>629300</v>
+        <v>628500</v>
       </c>
       <c r="K27" s="3">
         <v>792700</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>605900</v>
+        <v>605200</v>
       </c>
       <c r="E32" s="3">
-        <v>-322100</v>
+        <v>-321700</v>
       </c>
       <c r="F32" s="3">
-        <v>-488300</v>
+        <v>-487700</v>
       </c>
       <c r="G32" s="3">
-        <v>-136200</v>
+        <v>-136000</v>
       </c>
       <c r="H32" s="3">
-        <v>123200</v>
+        <v>123100</v>
       </c>
       <c r="I32" s="3">
-        <v>-120000</v>
+        <v>-119900</v>
       </c>
       <c r="J32" s="3">
-        <v>-410500</v>
+        <v>-410000</v>
       </c>
       <c r="K32" s="3">
         <v>-40000</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-327000</v>
+        <v>-326600</v>
       </c>
       <c r="E33" s="3">
-        <v>622000</v>
+        <v>621200</v>
       </c>
       <c r="F33" s="3">
-        <v>774500</v>
+        <v>773500</v>
       </c>
       <c r="G33" s="3">
-        <v>466800</v>
+        <v>466200</v>
       </c>
       <c r="H33" s="3">
-        <v>156400</v>
+        <v>156200</v>
       </c>
       <c r="I33" s="3">
-        <v>372700</v>
+        <v>372200</v>
       </c>
       <c r="J33" s="3">
-        <v>629300</v>
+        <v>628500</v>
       </c>
       <c r="K33" s="3">
         <v>792700</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-327000</v>
+        <v>-326600</v>
       </c>
       <c r="E35" s="3">
-        <v>622000</v>
+        <v>621200</v>
       </c>
       <c r="F35" s="3">
-        <v>774500</v>
+        <v>773500</v>
       </c>
       <c r="G35" s="3">
-        <v>466800</v>
+        <v>466200</v>
       </c>
       <c r="H35" s="3">
-        <v>156400</v>
+        <v>156200</v>
       </c>
       <c r="I35" s="3">
-        <v>372700</v>
+        <v>372200</v>
       </c>
       <c r="J35" s="3">
-        <v>629300</v>
+        <v>628500</v>
       </c>
       <c r="K35" s="3">
         <v>792700</v>
@@ -1738,16 +1738,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1847100</v>
+        <v>1844800</v>
       </c>
       <c r="E41" s="3">
-        <v>461700</v>
+        <v>461200</v>
       </c>
       <c r="F41" s="3">
-        <v>265600</v>
+        <v>265300</v>
       </c>
       <c r="G41" s="3">
-        <v>20200</v>
+        <v>20100</v>
       </c>
       <c r="H41" s="3">
         <v>10100</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1353800</v>
+        <v>1352100</v>
       </c>
       <c r="E42" s="3">
-        <v>736200</v>
+        <v>735300</v>
       </c>
       <c r="F42" s="3">
-        <v>125200</v>
+        <v>125000</v>
       </c>
       <c r="G42" s="3">
-        <v>387000</v>
+        <v>386600</v>
       </c>
       <c r="H42" s="3">
-        <v>382400</v>
+        <v>381900</v>
       </c>
       <c r="I42" s="3">
-        <v>405500</v>
+        <v>405000</v>
       </c>
       <c r="J42" s="3">
-        <v>528100</v>
+        <v>527500</v>
       </c>
       <c r="K42" s="3">
         <v>604900</v>
@@ -1816,13 +1816,13 @@
         <v>40300</v>
       </c>
       <c r="F43" s="3">
-        <v>26100</v>
+        <v>26000</v>
       </c>
       <c r="G43" s="3">
         <v>29000</v>
       </c>
       <c r="H43" s="3">
-        <v>155800</v>
+        <v>155600</v>
       </c>
       <c r="I43" s="3">
         <v>25800</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3260900</v>
+        <v>3256800</v>
       </c>
       <c r="E46" s="3">
-        <v>1238300</v>
+        <v>1236700</v>
       </c>
       <c r="F46" s="3">
-        <v>416800</v>
+        <v>416300</v>
       </c>
       <c r="G46" s="3">
-        <v>436200</v>
+        <v>435700</v>
       </c>
       <c r="H46" s="3">
-        <v>548400</v>
+        <v>547700</v>
       </c>
       <c r="I46" s="3">
-        <v>439200</v>
+        <v>438600</v>
       </c>
       <c r="J46" s="3">
-        <v>574500</v>
+        <v>573700</v>
       </c>
       <c r="K46" s="3">
         <v>646400</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>986100</v>
+        <v>984900</v>
       </c>
       <c r="E47" s="3">
-        <v>885200</v>
+        <v>884100</v>
       </c>
       <c r="F47" s="3">
-        <v>681900</v>
+        <v>681100</v>
       </c>
       <c r="G47" s="3">
-        <v>703200</v>
+        <v>702300</v>
       </c>
       <c r="H47" s="3">
-        <v>691000</v>
+        <v>690200</v>
       </c>
       <c r="I47" s="3">
-        <v>622900</v>
+        <v>622100</v>
       </c>
       <c r="J47" s="3">
-        <v>655100</v>
+        <v>654300</v>
       </c>
       <c r="K47" s="3">
         <v>652100</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9733900</v>
+        <v>9721800</v>
       </c>
       <c r="E48" s="3">
-        <v>10255700</v>
+        <v>10243000</v>
       </c>
       <c r="F48" s="3">
-        <v>10037100</v>
+        <v>10024600</v>
       </c>
       <c r="G48" s="3">
-        <v>9399400</v>
+        <v>9387700</v>
       </c>
       <c r="H48" s="3">
-        <v>9031200</v>
+        <v>9020000</v>
       </c>
       <c r="I48" s="3">
-        <v>9052000</v>
+        <v>9040700</v>
       </c>
       <c r="J48" s="3">
-        <v>8914700</v>
+        <v>8903500</v>
       </c>
       <c r="K48" s="3">
         <v>8486700</v>
@@ -2134,7 +2134,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>108300</v>
+        <v>108200</v>
       </c>
       <c r="E52" s="3">
         <v>78000</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14089200</v>
+        <v>14071700</v>
       </c>
       <c r="E54" s="3">
-        <v>12457400</v>
+        <v>12441900</v>
       </c>
       <c r="F54" s="3">
-        <v>11173700</v>
+        <v>11159800</v>
       </c>
       <c r="G54" s="3">
-        <v>10541700</v>
+        <v>10528600</v>
       </c>
       <c r="H54" s="3">
-        <v>10272300</v>
+        <v>10259500</v>
       </c>
       <c r="I54" s="3">
-        <v>10114000</v>
+        <v>10101400</v>
       </c>
       <c r="J54" s="3">
-        <v>10144200</v>
+        <v>10131500</v>
       </c>
       <c r="K54" s="3">
         <v>9795600</v>
@@ -2274,13 +2274,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>35600</v>
+        <v>35500</v>
       </c>
       <c r="E57" s="3">
-        <v>41000</v>
+        <v>40900</v>
       </c>
       <c r="F57" s="3">
-        <v>33000</v>
+        <v>32900</v>
       </c>
       <c r="G57" s="3">
         <v>27600</v>
@@ -2313,22 +2313,22 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>72500</v>
+        <v>72400</v>
       </c>
       <c r="F58" s="3">
         <v>38500</v>
       </c>
       <c r="G58" s="3">
-        <v>19300</v>
+        <v>19200</v>
       </c>
       <c r="H58" s="3">
-        <v>151500</v>
+        <v>151300</v>
       </c>
       <c r="I58" s="3">
         <v>32100</v>
       </c>
       <c r="J58" s="3">
-        <v>204000</v>
+        <v>203700</v>
       </c>
       <c r="K58" s="3">
         <v>135800</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>163700</v>
+        <v>163500</v>
       </c>
       <c r="E59" s="3">
-        <v>201200</v>
+        <v>200900</v>
       </c>
       <c r="F59" s="3">
-        <v>164100</v>
+        <v>163900</v>
       </c>
       <c r="G59" s="3">
-        <v>179200</v>
+        <v>179000</v>
       </c>
       <c r="H59" s="3">
-        <v>200800</v>
+        <v>200500</v>
       </c>
       <c r="I59" s="3">
-        <v>127200</v>
+        <v>127100</v>
       </c>
       <c r="J59" s="3">
-        <v>134400</v>
+        <v>134200</v>
       </c>
       <c r="K59" s="3">
         <v>129200</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>199200</v>
+        <v>199000</v>
       </c>
       <c r="E60" s="3">
-        <v>314600</v>
+        <v>314200</v>
       </c>
       <c r="F60" s="3">
-        <v>235600</v>
+        <v>235300</v>
       </c>
       <c r="G60" s="3">
-        <v>226100</v>
+        <v>225800</v>
       </c>
       <c r="H60" s="3">
-        <v>371400</v>
+        <v>370900</v>
       </c>
       <c r="I60" s="3">
-        <v>187800</v>
+        <v>187600</v>
       </c>
       <c r="J60" s="3">
-        <v>360600</v>
+        <v>360100</v>
       </c>
       <c r="K60" s="3">
         <v>285900</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2435200</v>
+        <v>2432100</v>
       </c>
       <c r="E61" s="3">
-        <v>1535800</v>
+        <v>1533900</v>
       </c>
       <c r="F61" s="3">
-        <v>773000</v>
+        <v>772100</v>
       </c>
       <c r="G61" s="3">
-        <v>774700</v>
+        <v>773700</v>
       </c>
       <c r="H61" s="3">
-        <v>656400</v>
+        <v>655500</v>
       </c>
       <c r="I61" s="3">
-        <v>591700</v>
+        <v>590900</v>
       </c>
       <c r="J61" s="3">
-        <v>623600</v>
+        <v>622800</v>
       </c>
       <c r="K61" s="3">
         <v>830200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>229000</v>
+        <v>228700</v>
       </c>
       <c r="E62" s="3">
-        <v>212600</v>
+        <v>212300</v>
       </c>
       <c r="F62" s="3">
-        <v>198800</v>
+        <v>198600</v>
       </c>
       <c r="G62" s="3">
-        <v>169800</v>
+        <v>169600</v>
       </c>
       <c r="H62" s="3">
-        <v>170700</v>
+        <v>170500</v>
       </c>
       <c r="I62" s="3">
-        <v>173000</v>
+        <v>172800</v>
       </c>
       <c r="J62" s="3">
-        <v>157500</v>
+        <v>157300</v>
       </c>
       <c r="K62" s="3">
         <v>160000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3262900</v>
+        <v>3258800</v>
       </c>
       <c r="E66" s="3">
-        <v>2489500</v>
+        <v>2486400</v>
       </c>
       <c r="F66" s="3">
-        <v>1619000</v>
+        <v>1617000</v>
       </c>
       <c r="G66" s="3">
-        <v>1561900</v>
+        <v>1559900</v>
       </c>
       <c r="H66" s="3">
-        <v>1608600</v>
+        <v>1606600</v>
       </c>
       <c r="I66" s="3">
-        <v>1362800</v>
+        <v>1361100</v>
       </c>
       <c r="J66" s="3">
-        <v>1538300</v>
+        <v>1536300</v>
       </c>
       <c r="K66" s="3">
         <v>1643600</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8376700</v>
+        <v>8366200</v>
       </c>
       <c r="E72" s="3">
-        <v>8915200</v>
+        <v>8904100</v>
       </c>
       <c r="F72" s="3">
-        <v>8497800</v>
+        <v>8487200</v>
       </c>
       <c r="G72" s="3">
-        <v>7909600</v>
+        <v>7899800</v>
       </c>
       <c r="H72" s="3">
-        <v>7624500</v>
+        <v>7615000</v>
       </c>
       <c r="I72" s="3">
-        <v>7698100</v>
+        <v>7688500</v>
       </c>
       <c r="J72" s="3">
-        <v>7518800</v>
+        <v>7509400</v>
       </c>
       <c r="K72" s="3">
         <v>7104900</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10826300</v>
+        <v>10812800</v>
       </c>
       <c r="E76" s="3">
-        <v>9967900</v>
+        <v>9955500</v>
       </c>
       <c r="F76" s="3">
-        <v>9554700</v>
+        <v>9542800</v>
       </c>
       <c r="G76" s="3">
-        <v>8979900</v>
+        <v>8968700</v>
       </c>
       <c r="H76" s="3">
-        <v>8663700</v>
+        <v>8652900</v>
       </c>
       <c r="I76" s="3">
-        <v>8751200</v>
+        <v>8740300</v>
       </c>
       <c r="J76" s="3">
-        <v>8605900</v>
+        <v>8595200</v>
       </c>
       <c r="K76" s="3">
         <v>8152000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-327000</v>
+        <v>-326600</v>
       </c>
       <c r="E81" s="3">
-        <v>622000</v>
+        <v>621200</v>
       </c>
       <c r="F81" s="3">
-        <v>774500</v>
+        <v>773500</v>
       </c>
       <c r="G81" s="3">
-        <v>466800</v>
+        <v>466200</v>
       </c>
       <c r="H81" s="3">
-        <v>156400</v>
+        <v>156200</v>
       </c>
       <c r="I81" s="3">
-        <v>372700</v>
+        <v>372200</v>
       </c>
       <c r="J81" s="3">
-        <v>629300</v>
+        <v>628500</v>
       </c>
       <c r="K81" s="3">
         <v>792700</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>261900</v>
+        <v>261500</v>
       </c>
       <c r="E89" s="3">
-        <v>411000</v>
+        <v>410500</v>
       </c>
       <c r="F89" s="3">
-        <v>353100</v>
+        <v>352700</v>
       </c>
       <c r="G89" s="3">
-        <v>319600</v>
+        <v>319200</v>
       </c>
       <c r="H89" s="3">
-        <v>374700</v>
+        <v>374200</v>
       </c>
       <c r="I89" s="3">
-        <v>326100</v>
+        <v>325700</v>
       </c>
       <c r="J89" s="3">
-        <v>307400</v>
+        <v>307100</v>
       </c>
       <c r="K89" s="3">
         <v>292600</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-117200</v>
+        <v>-117100</v>
       </c>
       <c r="E91" s="3">
-        <v>-122700</v>
+        <v>-122600</v>
       </c>
       <c r="F91" s="3">
-        <v>-162400</v>
+        <v>-162200</v>
       </c>
       <c r="G91" s="3">
-        <v>-190800</v>
+        <v>-190500</v>
       </c>
       <c r="H91" s="3">
-        <v>-108700</v>
+        <v>-108600</v>
       </c>
       <c r="I91" s="3">
         <v>-53100</v>
       </c>
       <c r="J91" s="3">
-        <v>-46100</v>
+        <v>-46000</v>
       </c>
       <c r="K91" s="3">
         <v>-90600</v>
@@ -3479,22 +3479,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-743600</v>
+        <v>-742700</v>
       </c>
       <c r="E94" s="3">
-        <v>-761900</v>
+        <v>-760900</v>
       </c>
       <c r="F94" s="3">
-        <v>-127100</v>
+        <v>-126900</v>
       </c>
       <c r="G94" s="3">
         <v>5900</v>
       </c>
       <c r="H94" s="3">
-        <v>-190800</v>
+        <v>-190500</v>
       </c>
       <c r="I94" s="3">
-        <v>118400</v>
+        <v>118200</v>
       </c>
       <c r="J94" s="3">
         <v>29500</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-192800</v>
+        <v>-192600</v>
       </c>
       <c r="E96" s="3">
-        <v>-193500</v>
+        <v>-193200</v>
       </c>
       <c r="F96" s="3">
-        <v>-185400</v>
+        <v>-185100</v>
       </c>
       <c r="G96" s="3">
-        <v>-181100</v>
+        <v>-180900</v>
       </c>
       <c r="H96" s="3">
-        <v>-178900</v>
+        <v>-178700</v>
       </c>
       <c r="I96" s="3">
-        <v>-170700</v>
+        <v>-170500</v>
       </c>
       <c r="J96" s="3">
-        <v>-161100</v>
+        <v>-160900</v>
       </c>
       <c r="K96" s="3">
         <v>-137000</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1867100</v>
+        <v>1864800</v>
       </c>
       <c r="E100" s="3">
-        <v>547000</v>
+        <v>546300</v>
       </c>
       <c r="F100" s="3">
-        <v>-221600</v>
+        <v>-221300</v>
       </c>
       <c r="G100" s="3">
-        <v>-239900</v>
+        <v>-239600</v>
       </c>
       <c r="H100" s="3">
-        <v>-83400</v>
+        <v>-83300</v>
       </c>
       <c r="I100" s="3">
-        <v>-443400</v>
+        <v>-442800</v>
       </c>
       <c r="J100" s="3">
-        <v>-342700</v>
+        <v>-342300</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3747,19 +3747,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1385400</v>
+        <v>1383600</v>
       </c>
       <c r="E102" s="3">
-        <v>196100</v>
+        <v>195900</v>
       </c>
       <c r="F102" s="3">
         <v>4500</v>
       </c>
       <c r="G102" s="3">
-        <v>85600</v>
+        <v>85500</v>
       </c>
       <c r="H102" s="3">
-        <v>100500</v>
+        <v>100400</v>
       </c>
       <c r="I102" s="3">
         <v>1000</v>

--- a/AAII_Financials/Yearly/HYSNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HYSNY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>HYSNY</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>475700</v>
+        <v>473900</v>
       </c>
       <c r="E8" s="3">
-        <v>511300</v>
+        <v>509400</v>
       </c>
       <c r="F8" s="3">
-        <v>498700</v>
+        <v>496900</v>
       </c>
       <c r="G8" s="3">
-        <v>454900</v>
+        <v>453200</v>
       </c>
       <c r="H8" s="3">
-        <v>453200</v>
+        <v>451600</v>
       </c>
       <c r="I8" s="3">
-        <v>439800</v>
+        <v>438100</v>
       </c>
       <c r="J8" s="3">
-        <v>413300</v>
+        <v>411800</v>
       </c>
       <c r="K8" s="3">
         <v>394300</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>62800</v>
+        <v>62600</v>
       </c>
       <c r="E9" s="3">
-        <v>68700</v>
+        <v>68500</v>
       </c>
       <c r="F9" s="3">
-        <v>67100</v>
+        <v>66800</v>
       </c>
       <c r="G9" s="3">
-        <v>57600</v>
+        <v>57400</v>
       </c>
       <c r="H9" s="3">
-        <v>54900</v>
+        <v>54700</v>
       </c>
       <c r="I9" s="3">
-        <v>53100</v>
+        <v>52900</v>
       </c>
       <c r="J9" s="3">
-        <v>51800</v>
+        <v>51600</v>
       </c>
       <c r="K9" s="3">
         <v>52100</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>412800</v>
+        <v>411300</v>
       </c>
       <c r="E10" s="3">
-        <v>442600</v>
+        <v>441000</v>
       </c>
       <c r="F10" s="3">
-        <v>431700</v>
+        <v>430100</v>
       </c>
       <c r="G10" s="3">
-        <v>397300</v>
+        <v>395900</v>
       </c>
       <c r="H10" s="3">
-        <v>398300</v>
+        <v>396900</v>
       </c>
       <c r="I10" s="3">
-        <v>386700</v>
+        <v>385300</v>
       </c>
       <c r="J10" s="3">
-        <v>361600</v>
+        <v>360200</v>
       </c>
       <c r="K10" s="3">
         <v>342200</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>61700</v>
+        <v>61400</v>
       </c>
       <c r="E17" s="3">
-        <v>82200</v>
+        <v>81900</v>
       </c>
       <c r="F17" s="3">
-        <v>88200</v>
+        <v>87900</v>
       </c>
       <c r="G17" s="3">
-        <v>46900</v>
+        <v>46800</v>
       </c>
       <c r="H17" s="3">
-        <v>76500</v>
+        <v>76300</v>
       </c>
       <c r="I17" s="3">
-        <v>76200</v>
+        <v>75900</v>
       </c>
       <c r="J17" s="3">
-        <v>70800</v>
+        <v>70500</v>
       </c>
       <c r="K17" s="3">
         <v>-519900</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>414000</v>
+        <v>412500</v>
       </c>
       <c r="E18" s="3">
-        <v>429100</v>
+        <v>427500</v>
       </c>
       <c r="F18" s="3">
-        <v>410500</v>
+        <v>409000</v>
       </c>
       <c r="G18" s="3">
-        <v>408000</v>
+        <v>406500</v>
       </c>
       <c r="H18" s="3">
-        <v>376700</v>
+        <v>375300</v>
       </c>
       <c r="I18" s="3">
-        <v>363600</v>
+        <v>362300</v>
       </c>
       <c r="J18" s="3">
-        <v>342600</v>
+        <v>341300</v>
       </c>
       <c r="K18" s="3">
         <v>914200</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-605200</v>
+        <v>-602900</v>
       </c>
       <c r="E20" s="3">
-        <v>321700</v>
+        <v>320500</v>
       </c>
       <c r="F20" s="3">
-        <v>487700</v>
+        <v>485900</v>
       </c>
       <c r="G20" s="3">
-        <v>136000</v>
+        <v>135500</v>
       </c>
       <c r="H20" s="3">
-        <v>-123100</v>
+        <v>-122600</v>
       </c>
       <c r="I20" s="3">
-        <v>119900</v>
+        <v>119400</v>
       </c>
       <c r="J20" s="3">
-        <v>410000</v>
+        <v>408500</v>
       </c>
       <c r="K20" s="3">
         <v>40000</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-188100</v>
+        <v>-187400</v>
       </c>
       <c r="E21" s="3">
-        <v>753600</v>
+        <v>750900</v>
       </c>
       <c r="F21" s="3">
-        <v>900400</v>
+        <v>897100</v>
       </c>
       <c r="G21" s="3">
-        <v>546800</v>
+        <v>544800</v>
       </c>
       <c r="H21" s="3">
-        <v>256400</v>
+        <v>255500</v>
       </c>
       <c r="I21" s="3">
-        <v>486200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>754800</v>
+        <v>484400</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1161,13 +1161,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>64600</v>
+        <v>64400</v>
       </c>
       <c r="E22" s="3">
-        <v>38100</v>
+        <v>37900</v>
       </c>
       <c r="F22" s="3">
-        <v>26400</v>
+        <v>26300</v>
       </c>
       <c r="G22" s="3">
         <v>18700</v>
@@ -1176,10 +1176,10 @@
         <v>21500</v>
       </c>
       <c r="I22" s="3">
-        <v>25400</v>
+        <v>25300</v>
       </c>
       <c r="J22" s="3">
-        <v>30000</v>
+        <v>29900</v>
       </c>
       <c r="K22" s="3">
         <v>31400</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-255800</v>
+        <v>-254800</v>
       </c>
       <c r="E23" s="3">
-        <v>712700</v>
+        <v>710100</v>
       </c>
       <c r="F23" s="3">
-        <v>871800</v>
+        <v>868600</v>
       </c>
       <c r="G23" s="3">
-        <v>525300</v>
+        <v>523400</v>
       </c>
       <c r="H23" s="3">
-        <v>232100</v>
+        <v>231200</v>
       </c>
       <c r="I23" s="3">
-        <v>458100</v>
+        <v>456400</v>
       </c>
       <c r="J23" s="3">
-        <v>722600</v>
+        <v>719900</v>
       </c>
       <c r="K23" s="3">
         <v>922900</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>45300</v>
+        <v>45100</v>
       </c>
       <c r="E24" s="3">
-        <v>60600</v>
+        <v>60400</v>
       </c>
       <c r="F24" s="3">
-        <v>61700</v>
+        <v>61400</v>
       </c>
       <c r="G24" s="3">
-        <v>62100</v>
+        <v>61800</v>
       </c>
       <c r="H24" s="3">
-        <v>59400</v>
+        <v>59100</v>
       </c>
       <c r="I24" s="3">
-        <v>56200</v>
+        <v>56000</v>
       </c>
       <c r="J24" s="3">
-        <v>49500</v>
+        <v>49300</v>
       </c>
       <c r="K24" s="3">
         <v>47900</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-301000</v>
+        <v>-299900</v>
       </c>
       <c r="E26" s="3">
-        <v>652100</v>
+        <v>649700</v>
       </c>
       <c r="F26" s="3">
-        <v>810200</v>
+        <v>807200</v>
       </c>
       <c r="G26" s="3">
-        <v>463200</v>
+        <v>461500</v>
       </c>
       <c r="H26" s="3">
-        <v>172700</v>
+        <v>172100</v>
       </c>
       <c r="I26" s="3">
-        <v>401900</v>
+        <v>400500</v>
       </c>
       <c r="J26" s="3">
-        <v>673100</v>
+        <v>670600</v>
       </c>
       <c r="K26" s="3">
         <v>875000</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-326600</v>
+        <v>-325400</v>
       </c>
       <c r="E27" s="3">
-        <v>621200</v>
+        <v>618900</v>
       </c>
       <c r="F27" s="3">
-        <v>773500</v>
+        <v>770700</v>
       </c>
       <c r="G27" s="3">
-        <v>466200</v>
+        <v>464500</v>
       </c>
       <c r="H27" s="3">
-        <v>156200</v>
+        <v>155600</v>
       </c>
       <c r="I27" s="3">
-        <v>372200</v>
+        <v>370800</v>
       </c>
       <c r="J27" s="3">
-        <v>628500</v>
+        <v>626200</v>
       </c>
       <c r="K27" s="3">
         <v>792700</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>605200</v>
+        <v>602900</v>
       </c>
       <c r="E32" s="3">
-        <v>-321700</v>
+        <v>-320500</v>
       </c>
       <c r="F32" s="3">
-        <v>-487700</v>
+        <v>-485900</v>
       </c>
       <c r="G32" s="3">
-        <v>-136000</v>
+        <v>-135500</v>
       </c>
       <c r="H32" s="3">
-        <v>123100</v>
+        <v>122600</v>
       </c>
       <c r="I32" s="3">
-        <v>-119900</v>
+        <v>-119400</v>
       </c>
       <c r="J32" s="3">
-        <v>-410000</v>
+        <v>-408500</v>
       </c>
       <c r="K32" s="3">
         <v>-40000</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-326600</v>
+        <v>-325400</v>
       </c>
       <c r="E33" s="3">
-        <v>621200</v>
+        <v>618900</v>
       </c>
       <c r="F33" s="3">
-        <v>773500</v>
+        <v>770700</v>
       </c>
       <c r="G33" s="3">
-        <v>466200</v>
+        <v>464500</v>
       </c>
       <c r="H33" s="3">
-        <v>156200</v>
+        <v>155600</v>
       </c>
       <c r="I33" s="3">
-        <v>372200</v>
+        <v>370800</v>
       </c>
       <c r="J33" s="3">
-        <v>628500</v>
+        <v>626200</v>
       </c>
       <c r="K33" s="3">
         <v>792700</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-326600</v>
+        <v>-325400</v>
       </c>
       <c r="E35" s="3">
-        <v>621200</v>
+        <v>618900</v>
       </c>
       <c r="F35" s="3">
-        <v>773500</v>
+        <v>770700</v>
       </c>
       <c r="G35" s="3">
-        <v>466200</v>
+        <v>464500</v>
       </c>
       <c r="H35" s="3">
-        <v>156200</v>
+        <v>155600</v>
       </c>
       <c r="I35" s="3">
-        <v>372200</v>
+        <v>370800</v>
       </c>
       <c r="J35" s="3">
-        <v>628500</v>
+        <v>626200</v>
       </c>
       <c r="K35" s="3">
         <v>792700</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1844800</v>
+        <v>835200</v>
       </c>
       <c r="E41" s="3">
-        <v>461200</v>
+        <v>1838100</v>
       </c>
       <c r="F41" s="3">
-        <v>265300</v>
+        <v>459500</v>
       </c>
       <c r="G41" s="3">
+        <v>264300</v>
+      </c>
+      <c r="H41" s="3">
         <v>20100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7800</v>
-      </c>
-      <c r="J41" s="3">
-        <v>13600</v>
       </c>
       <c r="K41" s="3">
         <v>10400</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1352100</v>
+        <v>260200</v>
       </c>
       <c r="E42" s="3">
-        <v>735300</v>
+        <v>1347100</v>
       </c>
       <c r="F42" s="3">
-        <v>125000</v>
+        <v>732600</v>
       </c>
       <c r="G42" s="3">
-        <v>386600</v>
+        <v>124500</v>
       </c>
       <c r="H42" s="3">
-        <v>381900</v>
+        <v>385100</v>
       </c>
       <c r="I42" s="3">
-        <v>405000</v>
+        <v>380500</v>
       </c>
       <c r="J42" s="3">
-        <v>527500</v>
+        <v>403500</v>
       </c>
       <c r="K42" s="3">
         <v>604900</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>59900</v>
+        <v>118300</v>
       </c>
       <c r="E43" s="3">
-        <v>40300</v>
+        <v>59700</v>
       </c>
       <c r="F43" s="3">
-        <v>26000</v>
+        <v>40100</v>
       </c>
       <c r="G43" s="3">
-        <v>29000</v>
+        <v>25900</v>
       </c>
       <c r="H43" s="3">
-        <v>155600</v>
+        <v>28900</v>
       </c>
       <c r="I43" s="3">
-        <v>25800</v>
+        <v>155100</v>
       </c>
       <c r="J43" s="3">
-        <v>32700</v>
+        <v>25700</v>
       </c>
       <c r="K43" s="3">
         <v>31000</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3256800</v>
+        <v>1213700</v>
       </c>
       <c r="E46" s="3">
-        <v>1236700</v>
+        <v>3244900</v>
       </c>
       <c r="F46" s="3">
-        <v>416300</v>
+        <v>1232200</v>
       </c>
       <c r="G46" s="3">
-        <v>435700</v>
+        <v>414800</v>
       </c>
       <c r="H46" s="3">
-        <v>547700</v>
+        <v>434100</v>
       </c>
       <c r="I46" s="3">
-        <v>438600</v>
+        <v>545700</v>
       </c>
       <c r="J46" s="3">
-        <v>573700</v>
+        <v>437000</v>
       </c>
       <c r="K46" s="3">
         <v>646400</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>984900</v>
+        <v>1331400</v>
       </c>
       <c r="E47" s="3">
-        <v>884100</v>
+        <v>981300</v>
       </c>
       <c r="F47" s="3">
-        <v>681100</v>
+        <v>880900</v>
       </c>
       <c r="G47" s="3">
-        <v>702300</v>
+        <v>678600</v>
       </c>
       <c r="H47" s="3">
-        <v>690200</v>
+        <v>699800</v>
       </c>
       <c r="I47" s="3">
-        <v>622100</v>
+        <v>687600</v>
       </c>
       <c r="J47" s="3">
-        <v>654300</v>
+        <v>619800</v>
       </c>
       <c r="K47" s="3">
         <v>652100</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9721800</v>
+        <v>12209300</v>
       </c>
       <c r="E48" s="3">
-        <v>10243000</v>
+        <v>9686100</v>
       </c>
       <c r="F48" s="3">
-        <v>10024600</v>
+        <v>10205400</v>
       </c>
       <c r="G48" s="3">
-        <v>9387700</v>
+        <v>9987900</v>
       </c>
       <c r="H48" s="3">
-        <v>9020000</v>
+        <v>9353300</v>
       </c>
       <c r="I48" s="3">
-        <v>9040700</v>
+        <v>8986900</v>
       </c>
       <c r="J48" s="3">
-        <v>8903500</v>
+        <v>9007600</v>
       </c>
       <c r="K48" s="3">
         <v>8486700</v>
@@ -2028,8 +2028,8 @@
       <c r="D49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="3">
-        <v>100</v>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F49" s="3">
         <v>100</v>
@@ -2040,8 +2040,8 @@
       <c r="H49" s="3">
         <v>100</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
+      <c r="I49" s="3">
+        <v>100</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>108200</v>
+        <v>238900</v>
       </c>
       <c r="E52" s="3">
-        <v>78000</v>
+        <v>107800</v>
       </c>
       <c r="F52" s="3">
-        <v>37700</v>
+        <v>77700</v>
       </c>
       <c r="G52" s="3">
+        <v>37600</v>
+      </c>
+      <c r="H52" s="3">
         <v>2800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1500</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="J52" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>10400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14071700</v>
+        <v>14993200</v>
       </c>
       <c r="E54" s="3">
-        <v>12441900</v>
+        <v>14020100</v>
       </c>
       <c r="F54" s="3">
-        <v>11159800</v>
+        <v>12396300</v>
       </c>
       <c r="G54" s="3">
-        <v>10528600</v>
+        <v>11118900</v>
       </c>
       <c r="H54" s="3">
-        <v>10259500</v>
+        <v>10490000</v>
       </c>
       <c r="I54" s="3">
-        <v>10101400</v>
+        <v>10221900</v>
       </c>
       <c r="J54" s="3">
-        <v>10131500</v>
+        <v>10064400</v>
       </c>
       <c r="K54" s="3">
         <v>9795600</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>35500</v>
+        <v>104700</v>
       </c>
       <c r="E57" s="3">
-        <v>40900</v>
+        <v>35400</v>
       </c>
       <c r="F57" s="3">
-        <v>32900</v>
+        <v>40700</v>
       </c>
       <c r="G57" s="3">
-        <v>27600</v>
+        <v>32800</v>
       </c>
       <c r="H57" s="3">
-        <v>19100</v>
+        <v>27500</v>
       </c>
       <c r="I57" s="3">
-        <v>28500</v>
+        <v>19000</v>
       </c>
       <c r="J57" s="3">
-        <v>22200</v>
+        <v>28400</v>
       </c>
       <c r="K57" s="3">
         <v>20900</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>67800</v>
       </c>
       <c r="E58" s="3">
-        <v>72400</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>38500</v>
+        <v>72200</v>
       </c>
       <c r="G58" s="3">
+        <v>38300</v>
+      </c>
+      <c r="H58" s="3">
         <v>19200</v>
       </c>
-      <c r="H58" s="3">
-        <v>151300</v>
-      </c>
       <c r="I58" s="3">
-        <v>32100</v>
+        <v>150700</v>
       </c>
       <c r="J58" s="3">
-        <v>203700</v>
+        <v>31900</v>
       </c>
       <c r="K58" s="3">
         <v>135800</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>163500</v>
+        <v>74900</v>
       </c>
       <c r="E59" s="3">
-        <v>200900</v>
+        <v>162900</v>
       </c>
       <c r="F59" s="3">
-        <v>163900</v>
+        <v>200200</v>
       </c>
       <c r="G59" s="3">
-        <v>179000</v>
+        <v>163300</v>
       </c>
       <c r="H59" s="3">
-        <v>200500</v>
+        <v>178300</v>
       </c>
       <c r="I59" s="3">
-        <v>127100</v>
+        <v>199800</v>
       </c>
       <c r="J59" s="3">
-        <v>134200</v>
+        <v>126600</v>
       </c>
       <c r="K59" s="3">
         <v>129200</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>199000</v>
+        <v>247400</v>
       </c>
       <c r="E60" s="3">
-        <v>314200</v>
+        <v>198300</v>
       </c>
       <c r="F60" s="3">
-        <v>235300</v>
+        <v>313100</v>
       </c>
       <c r="G60" s="3">
-        <v>225800</v>
+        <v>234400</v>
       </c>
       <c r="H60" s="3">
-        <v>370900</v>
+        <v>225000</v>
       </c>
       <c r="I60" s="3">
-        <v>187600</v>
+        <v>369600</v>
       </c>
       <c r="J60" s="3">
-        <v>360100</v>
+        <v>186900</v>
       </c>
       <c r="K60" s="3">
         <v>285900</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2432100</v>
+        <v>2315400</v>
       </c>
       <c r="E61" s="3">
-        <v>1533900</v>
+        <v>2423200</v>
       </c>
       <c r="F61" s="3">
-        <v>772100</v>
+        <v>1528300</v>
       </c>
       <c r="G61" s="3">
-        <v>773700</v>
+        <v>769300</v>
       </c>
       <c r="H61" s="3">
-        <v>655500</v>
+        <v>770900</v>
       </c>
       <c r="I61" s="3">
-        <v>590900</v>
+        <v>653100</v>
       </c>
       <c r="J61" s="3">
-        <v>622800</v>
+        <v>588800</v>
       </c>
       <c r="K61" s="3">
         <v>830200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>228700</v>
+        <v>1203900</v>
       </c>
       <c r="E62" s="3">
-        <v>212300</v>
+        <v>227900</v>
       </c>
       <c r="F62" s="3">
-        <v>198600</v>
+        <v>211500</v>
       </c>
       <c r="G62" s="3">
-        <v>169600</v>
+        <v>197900</v>
       </c>
       <c r="H62" s="3">
-        <v>170500</v>
+        <v>169000</v>
       </c>
       <c r="I62" s="3">
-        <v>172800</v>
+        <v>169900</v>
       </c>
       <c r="J62" s="3">
-        <v>157300</v>
+        <v>172200</v>
       </c>
       <c r="K62" s="3">
         <v>160000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3258800</v>
+        <v>4195700</v>
       </c>
       <c r="E66" s="3">
-        <v>2486400</v>
+        <v>3246900</v>
       </c>
       <c r="F66" s="3">
-        <v>1617000</v>
+        <v>2477300</v>
       </c>
       <c r="G66" s="3">
-        <v>1559900</v>
+        <v>1611100</v>
       </c>
       <c r="H66" s="3">
-        <v>1606600</v>
+        <v>1554200</v>
       </c>
       <c r="I66" s="3">
-        <v>1361100</v>
+        <v>1600700</v>
       </c>
       <c r="J66" s="3">
-        <v>1536300</v>
+        <v>1356100</v>
       </c>
       <c r="K66" s="3">
         <v>1643600</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8366200</v>
+        <v>8449600</v>
       </c>
       <c r="E72" s="3">
-        <v>8904100</v>
+        <v>8335500</v>
       </c>
       <c r="F72" s="3">
-        <v>8487200</v>
+        <v>8871400</v>
       </c>
       <c r="G72" s="3">
-        <v>7899800</v>
+        <v>8456100</v>
       </c>
       <c r="H72" s="3">
-        <v>7615000</v>
+        <v>7870800</v>
       </c>
       <c r="I72" s="3">
-        <v>7688500</v>
+        <v>7587100</v>
       </c>
       <c r="J72" s="3">
-        <v>7509400</v>
+        <v>7660300</v>
       </c>
       <c r="K72" s="3">
         <v>7104900</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10812800</v>
+        <v>10797500</v>
       </c>
       <c r="E76" s="3">
-        <v>9955500</v>
+        <v>10773200</v>
       </c>
       <c r="F76" s="3">
-        <v>9542800</v>
+        <v>9919000</v>
       </c>
       <c r="G76" s="3">
-        <v>8968700</v>
+        <v>9507800</v>
       </c>
       <c r="H76" s="3">
-        <v>8652900</v>
+        <v>8935800</v>
       </c>
       <c r="I76" s="3">
-        <v>8740300</v>
+        <v>8621200</v>
       </c>
       <c r="J76" s="3">
-        <v>8595200</v>
+        <v>8708300</v>
       </c>
       <c r="K76" s="3">
         <v>8152000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-326600</v>
+        <v>-325400</v>
       </c>
       <c r="E81" s="3">
-        <v>621200</v>
+        <v>618900</v>
       </c>
       <c r="F81" s="3">
-        <v>773500</v>
+        <v>770700</v>
       </c>
       <c r="G81" s="3">
-        <v>466200</v>
+        <v>464500</v>
       </c>
       <c r="H81" s="3">
-        <v>156200</v>
+        <v>155600</v>
       </c>
       <c r="I81" s="3">
-        <v>372200</v>
+        <v>370800</v>
       </c>
       <c r="J81" s="3">
-        <v>628500</v>
+        <v>626200</v>
       </c>
       <c r="K81" s="3">
         <v>792700</v>
@@ -3120,8 +3120,8 @@
       <c r="I83" s="3">
         <v>2700</v>
       </c>
-      <c r="J83" s="3">
-        <v>2200</v>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>261500</v>
+        <v>260600</v>
       </c>
       <c r="E89" s="3">
-        <v>410500</v>
+        <v>409000</v>
       </c>
       <c r="F89" s="3">
-        <v>352700</v>
+        <v>351400</v>
       </c>
       <c r="G89" s="3">
-        <v>319200</v>
+        <v>318100</v>
       </c>
       <c r="H89" s="3">
-        <v>374200</v>
+        <v>372900</v>
       </c>
       <c r="I89" s="3">
-        <v>325700</v>
+        <v>324500</v>
       </c>
       <c r="J89" s="3">
-        <v>307100</v>
+        <v>305900</v>
       </c>
       <c r="K89" s="3">
         <v>292600</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-117100</v>
+        <v>-116600</v>
       </c>
       <c r="E91" s="3">
-        <v>-122600</v>
+        <v>-122100</v>
       </c>
       <c r="F91" s="3">
-        <v>-162200</v>
+        <v>-161600</v>
       </c>
       <c r="G91" s="3">
-        <v>-190500</v>
+        <v>-189800</v>
       </c>
       <c r="H91" s="3">
-        <v>-108600</v>
+        <v>-108200</v>
       </c>
       <c r="I91" s="3">
-        <v>-53100</v>
+        <v>-52900</v>
       </c>
       <c r="J91" s="3">
-        <v>-46000</v>
+        <v>-45900</v>
       </c>
       <c r="K91" s="3">
         <v>-90600</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-742700</v>
+        <v>-740000</v>
       </c>
       <c r="E94" s="3">
-        <v>-760900</v>
+        <v>-758100</v>
       </c>
       <c r="F94" s="3">
-        <v>-126900</v>
+        <v>-126500</v>
       </c>
       <c r="G94" s="3">
         <v>5900</v>
       </c>
       <c r="H94" s="3">
-        <v>-190500</v>
+        <v>-189800</v>
       </c>
       <c r="I94" s="3">
-        <v>118200</v>
-      </c>
-      <c r="J94" s="3">
-        <v>29500</v>
+        <v>117800</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-192600</v>
+        <v>-191900</v>
       </c>
       <c r="E96" s="3">
-        <v>-193200</v>
+        <v>-192500</v>
       </c>
       <c r="F96" s="3">
-        <v>-185100</v>
+        <v>-184500</v>
       </c>
       <c r="G96" s="3">
-        <v>-180900</v>
+        <v>-180200</v>
       </c>
       <c r="H96" s="3">
-        <v>-178700</v>
+        <v>-178100</v>
       </c>
       <c r="I96" s="3">
-        <v>-170500</v>
+        <v>-169900</v>
       </c>
       <c r="J96" s="3">
-        <v>-160900</v>
+        <v>-160300</v>
       </c>
       <c r="K96" s="3">
         <v>-137000</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1864800</v>
+        <v>1858000</v>
       </c>
       <c r="E100" s="3">
-        <v>546300</v>
+        <v>544300</v>
       </c>
       <c r="F100" s="3">
-        <v>-221300</v>
+        <v>-220500</v>
       </c>
       <c r="G100" s="3">
-        <v>-239600</v>
+        <v>-238700</v>
       </c>
       <c r="H100" s="3">
-        <v>-83300</v>
+        <v>-83000</v>
       </c>
       <c r="I100" s="3">
-        <v>-442800</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-342300</v>
+        <v>-441200</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3728,8 +3728,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1383600</v>
+        <v>1378600</v>
       </c>
       <c r="E102" s="3">
-        <v>195900</v>
+        <v>195200</v>
       </c>
       <c r="F102" s="3">
         <v>4500</v>
       </c>
       <c r="G102" s="3">
-        <v>85500</v>
+        <v>85200</v>
       </c>
       <c r="H102" s="3">
-        <v>100400</v>
+        <v>100000</v>
       </c>
       <c r="I102" s="3">
         <v>1000</v>
       </c>
       <c r="J102" s="3">
-        <v>-5800</v>
+        <v>-5700</v>
       </c>
       <c r="K102" s="3">
         <v>-44000</v>

--- a/AAII_Financials/Yearly/HYSNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HYSNY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>HYSNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>473900</v>
+        <v>459600</v>
       </c>
       <c r="E8" s="3">
-        <v>509400</v>
+        <v>472600</v>
       </c>
       <c r="F8" s="3">
-        <v>496900</v>
+        <v>508000</v>
       </c>
       <c r="G8" s="3">
-        <v>453200</v>
+        <v>495500</v>
       </c>
       <c r="H8" s="3">
-        <v>451600</v>
+        <v>452000</v>
       </c>
       <c r="I8" s="3">
-        <v>438100</v>
+        <v>450300</v>
       </c>
       <c r="J8" s="3">
+        <v>436900</v>
+      </c>
+      <c r="K8" s="3">
         <v>411800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>394300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>320200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>246000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>62600</v>
+        <v>63600</v>
       </c>
       <c r="E9" s="3">
-        <v>68500</v>
+        <v>62400</v>
       </c>
       <c r="F9" s="3">
-        <v>66800</v>
+        <v>68300</v>
       </c>
       <c r="G9" s="3">
-        <v>57400</v>
+        <v>66600</v>
       </c>
       <c r="H9" s="3">
-        <v>54700</v>
+        <v>57200</v>
       </c>
       <c r="I9" s="3">
-        <v>52900</v>
+        <v>54500</v>
       </c>
       <c r="J9" s="3">
+        <v>52700</v>
+      </c>
+      <c r="K9" s="3">
         <v>51600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>52100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>54500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>33500</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>411300</v>
+        <v>396100</v>
       </c>
       <c r="E10" s="3">
-        <v>441000</v>
+        <v>410200</v>
       </c>
       <c r="F10" s="3">
-        <v>430100</v>
+        <v>439800</v>
       </c>
       <c r="G10" s="3">
-        <v>395900</v>
+        <v>428900</v>
       </c>
       <c r="H10" s="3">
-        <v>396900</v>
+        <v>394800</v>
       </c>
       <c r="I10" s="3">
-        <v>385300</v>
+        <v>395800</v>
       </c>
       <c r="J10" s="3">
+        <v>384200</v>
+      </c>
+      <c r="K10" s="3">
         <v>360200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>342200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>265700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>212500</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,9 +925,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,9 +964,12 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -981,9 +1003,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>61400</v>
+        <v>87800</v>
       </c>
       <c r="E17" s="3">
-        <v>81900</v>
+        <v>61300</v>
       </c>
       <c r="F17" s="3">
-        <v>87900</v>
+        <v>81700</v>
       </c>
       <c r="G17" s="3">
-        <v>46800</v>
+        <v>87600</v>
       </c>
       <c r="H17" s="3">
-        <v>76300</v>
+        <v>46600</v>
       </c>
       <c r="I17" s="3">
-        <v>75900</v>
+        <v>76100</v>
       </c>
       <c r="J17" s="3">
+        <v>75700</v>
+      </c>
+      <c r="K17" s="3">
         <v>70500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-519900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-1052700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-932500</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>412500</v>
+        <v>371900</v>
       </c>
       <c r="E18" s="3">
-        <v>427500</v>
+        <v>411300</v>
       </c>
       <c r="F18" s="3">
-        <v>409000</v>
+        <v>426400</v>
       </c>
       <c r="G18" s="3">
-        <v>406500</v>
+        <v>407900</v>
       </c>
       <c r="H18" s="3">
-        <v>375300</v>
+        <v>405400</v>
       </c>
       <c r="I18" s="3">
-        <v>362300</v>
+        <v>374300</v>
       </c>
       <c r="J18" s="3">
+        <v>361300</v>
+      </c>
+      <c r="K18" s="3">
         <v>341300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>914200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1372900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1178500</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-602900</v>
+        <v>-39500</v>
       </c>
       <c r="E20" s="3">
-        <v>320500</v>
+        <v>-601300</v>
       </c>
       <c r="F20" s="3">
-        <v>485900</v>
+        <v>319600</v>
       </c>
       <c r="G20" s="3">
-        <v>135500</v>
+        <v>484600</v>
       </c>
       <c r="H20" s="3">
-        <v>-122600</v>
+        <v>135200</v>
       </c>
       <c r="I20" s="3">
-        <v>119400</v>
+        <v>-122300</v>
       </c>
       <c r="J20" s="3">
+        <v>119100</v>
+      </c>
+      <c r="K20" s="3">
         <v>408500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>40000</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-187400</v>
+        <v>336100</v>
       </c>
       <c r="E21" s="3">
-        <v>750900</v>
+        <v>-186900</v>
       </c>
       <c r="F21" s="3">
-        <v>897100</v>
+        <v>748800</v>
       </c>
       <c r="G21" s="3">
-        <v>544800</v>
+        <v>894700</v>
       </c>
       <c r="H21" s="3">
-        <v>255500</v>
+        <v>543300</v>
       </c>
       <c r="I21" s="3">
-        <v>484400</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>254800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>483100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>1374300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1179500</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>64400</v>
+        <v>44300</v>
       </c>
       <c r="E22" s="3">
-        <v>37900</v>
+        <v>64200</v>
       </c>
       <c r="F22" s="3">
-        <v>26300</v>
+        <v>37800</v>
       </c>
       <c r="G22" s="3">
-        <v>18700</v>
+        <v>26200</v>
       </c>
       <c r="H22" s="3">
-        <v>21500</v>
+        <v>18600</v>
       </c>
       <c r="I22" s="3">
-        <v>25300</v>
+        <v>21400</v>
       </c>
       <c r="J22" s="3">
+        <v>25200</v>
+      </c>
+      <c r="K22" s="3">
         <v>29900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>31400</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-254800</v>
+        <v>288000</v>
       </c>
       <c r="E23" s="3">
-        <v>710100</v>
+        <v>-254100</v>
       </c>
       <c r="F23" s="3">
-        <v>868600</v>
+        <v>708200</v>
       </c>
       <c r="G23" s="3">
-        <v>523400</v>
+        <v>866300</v>
       </c>
       <c r="H23" s="3">
-        <v>231200</v>
+        <v>521900</v>
       </c>
       <c r="I23" s="3">
-        <v>456400</v>
+        <v>230600</v>
       </c>
       <c r="J23" s="3">
+        <v>455200</v>
+      </c>
+      <c r="K23" s="3">
         <v>719900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>922900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1372900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1178500</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>45100</v>
+        <v>45600</v>
       </c>
       <c r="E24" s="3">
-        <v>60400</v>
+        <v>45000</v>
       </c>
       <c r="F24" s="3">
-        <v>61400</v>
+        <v>60300</v>
       </c>
       <c r="G24" s="3">
-        <v>61800</v>
+        <v>61300</v>
       </c>
       <c r="H24" s="3">
-        <v>59100</v>
+        <v>61700</v>
       </c>
       <c r="I24" s="3">
-        <v>56000</v>
+        <v>59000</v>
       </c>
       <c r="J24" s="3">
+        <v>55800</v>
+      </c>
+      <c r="K24" s="3">
         <v>49300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>47900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>37200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>27800</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-299900</v>
+        <v>242400</v>
       </c>
       <c r="E26" s="3">
-        <v>649700</v>
+        <v>-299100</v>
       </c>
       <c r="F26" s="3">
-        <v>807200</v>
+        <v>647900</v>
       </c>
       <c r="G26" s="3">
-        <v>461500</v>
+        <v>805000</v>
       </c>
       <c r="H26" s="3">
-        <v>172100</v>
+        <v>460300</v>
       </c>
       <c r="I26" s="3">
-        <v>400500</v>
+        <v>171600</v>
       </c>
       <c r="J26" s="3">
+        <v>399400</v>
+      </c>
+      <c r="K26" s="3">
         <v>670600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>875000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1335700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1150700</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-325400</v>
+        <v>176200</v>
       </c>
       <c r="E27" s="3">
-        <v>618900</v>
+        <v>-324500</v>
       </c>
       <c r="F27" s="3">
-        <v>770700</v>
+        <v>617200</v>
       </c>
       <c r="G27" s="3">
-        <v>464500</v>
+        <v>768500</v>
       </c>
       <c r="H27" s="3">
-        <v>155600</v>
+        <v>463200</v>
       </c>
       <c r="I27" s="3">
-        <v>370800</v>
+        <v>155200</v>
       </c>
       <c r="J27" s="3">
+        <v>369800</v>
+      </c>
+      <c r="K27" s="3">
         <v>626200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>792700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1282100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1093800</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>602900</v>
+        <v>39500</v>
       </c>
       <c r="E32" s="3">
-        <v>-320500</v>
+        <v>601300</v>
       </c>
       <c r="F32" s="3">
-        <v>-485900</v>
+        <v>-319600</v>
       </c>
       <c r="G32" s="3">
-        <v>-135500</v>
+        <v>-484600</v>
       </c>
       <c r="H32" s="3">
-        <v>122600</v>
+        <v>-135200</v>
       </c>
       <c r="I32" s="3">
-        <v>-119400</v>
+        <v>122300</v>
       </c>
       <c r="J32" s="3">
+        <v>-119100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-408500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-40000</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-325400</v>
+        <v>176200</v>
       </c>
       <c r="E33" s="3">
-        <v>618900</v>
+        <v>-324500</v>
       </c>
       <c r="F33" s="3">
-        <v>770700</v>
+        <v>617200</v>
       </c>
       <c r="G33" s="3">
-        <v>464500</v>
+        <v>768500</v>
       </c>
       <c r="H33" s="3">
-        <v>155600</v>
+        <v>463200</v>
       </c>
       <c r="I33" s="3">
-        <v>370800</v>
+        <v>155200</v>
       </c>
       <c r="J33" s="3">
+        <v>369800</v>
+      </c>
+      <c r="K33" s="3">
         <v>626200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>792700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1282100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1093800</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-325400</v>
+        <v>176200</v>
       </c>
       <c r="E35" s="3">
-        <v>618900</v>
+        <v>-324500</v>
       </c>
       <c r="F35" s="3">
-        <v>770700</v>
+        <v>617200</v>
       </c>
       <c r="G35" s="3">
-        <v>464500</v>
+        <v>768500</v>
       </c>
       <c r="H35" s="3">
-        <v>155600</v>
+        <v>463200</v>
       </c>
       <c r="I35" s="3">
-        <v>370800</v>
+        <v>155200</v>
       </c>
       <c r="J35" s="3">
+        <v>369800</v>
+      </c>
+      <c r="K35" s="3">
         <v>626200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>792700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1282100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1093800</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,25 +1817,26 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>835200</v>
+        <v>832900</v>
       </c>
       <c r="E41" s="3">
-        <v>1838100</v>
+        <v>1833000</v>
       </c>
       <c r="F41" s="3">
-        <v>459500</v>
+        <v>458200</v>
       </c>
       <c r="G41" s="3">
-        <v>264300</v>
+        <v>263600</v>
       </c>
       <c r="H41" s="3">
-        <v>20100</v>
+        <v>20000</v>
       </c>
       <c r="I41" s="3">
         <v>10100</v>
@@ -1759,89 +1845,98 @@
         <v>7800</v>
       </c>
       <c r="K41" s="3">
+        <v>7800</v>
+      </c>
+      <c r="L41" s="3">
         <v>10400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>19700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7900</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>260200</v>
+        <v>259500</v>
       </c>
       <c r="E42" s="3">
-        <v>1347100</v>
+        <v>1343500</v>
       </c>
       <c r="F42" s="3">
-        <v>732600</v>
+        <v>730600</v>
       </c>
       <c r="G42" s="3">
-        <v>124500</v>
+        <v>124200</v>
       </c>
       <c r="H42" s="3">
-        <v>385100</v>
+        <v>384100</v>
       </c>
       <c r="I42" s="3">
-        <v>380500</v>
+        <v>379500</v>
       </c>
       <c r="J42" s="3">
+        <v>402400</v>
+      </c>
+      <c r="K42" s="3">
         <v>403500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>604900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>355600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>436000</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>118300</v>
+        <v>118000</v>
       </c>
       <c r="E43" s="3">
-        <v>59700</v>
+        <v>59500</v>
       </c>
       <c r="F43" s="3">
-        <v>40100</v>
+        <v>40000</v>
       </c>
       <c r="G43" s="3">
         <v>25900</v>
       </c>
       <c r="H43" s="3">
-        <v>28900</v>
+        <v>28800</v>
       </c>
       <c r="I43" s="3">
-        <v>155100</v>
+        <v>154700</v>
       </c>
       <c r="J43" s="3">
+        <v>25600</v>
+      </c>
+      <c r="K43" s="3">
         <v>25700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>31000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>20600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>17200</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1875,9 +1970,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1911,117 +2009,129 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1213700</v>
+        <v>1210300</v>
       </c>
       <c r="E46" s="3">
-        <v>3244900</v>
+        <v>3236000</v>
       </c>
       <c r="F46" s="3">
-        <v>1232200</v>
+        <v>1228800</v>
       </c>
       <c r="G46" s="3">
-        <v>414800</v>
+        <v>413600</v>
       </c>
       <c r="H46" s="3">
-        <v>434100</v>
+        <v>432900</v>
       </c>
       <c r="I46" s="3">
-        <v>545700</v>
+        <v>544200</v>
       </c>
       <c r="J46" s="3">
+        <v>435800</v>
+      </c>
+      <c r="K46" s="3">
         <v>437000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>646400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>395900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>461100</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1331400</v>
+        <v>1327800</v>
       </c>
       <c r="E47" s="3">
-        <v>981300</v>
+        <v>978600</v>
       </c>
       <c r="F47" s="3">
-        <v>880900</v>
+        <v>878500</v>
       </c>
       <c r="G47" s="3">
-        <v>678600</v>
+        <v>676700</v>
       </c>
       <c r="H47" s="3">
-        <v>699800</v>
+        <v>697800</v>
       </c>
       <c r="I47" s="3">
-        <v>687600</v>
+        <v>685700</v>
       </c>
       <c r="J47" s="3">
+        <v>618100</v>
+      </c>
+      <c r="K47" s="3">
         <v>619800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>652100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>611400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>674200</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12209300</v>
+        <v>12175800</v>
       </c>
       <c r="E48" s="3">
-        <v>9686100</v>
+        <v>9659600</v>
       </c>
       <c r="F48" s="3">
-        <v>10205400</v>
+        <v>10177400</v>
       </c>
       <c r="G48" s="3">
-        <v>9987900</v>
+        <v>9960500</v>
       </c>
       <c r="H48" s="3">
-        <v>9353300</v>
+        <v>9327600</v>
       </c>
       <c r="I48" s="3">
-        <v>8986900</v>
+        <v>8962300</v>
       </c>
       <c r="J48" s="3">
+        <v>8982900</v>
+      </c>
+      <c r="K48" s="3">
         <v>9007600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8486700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7804900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6463900</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2055,9 +2165,12 @@
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,23 +2243,26 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>238900</v>
+        <v>238200</v>
       </c>
       <c r="E52" s="3">
-        <v>107800</v>
+        <v>107500</v>
       </c>
       <c r="F52" s="3">
-        <v>77700</v>
+        <v>77500</v>
       </c>
       <c r="G52" s="3">
-        <v>37600</v>
+        <v>37500</v>
       </c>
       <c r="H52" s="3">
         <v>2800</v>
@@ -2154,18 +2273,21 @@
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="3">
         <v>10400</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14993200</v>
+        <v>14952100</v>
       </c>
       <c r="E54" s="3">
-        <v>14020100</v>
+        <v>13981700</v>
       </c>
       <c r="F54" s="3">
-        <v>12396300</v>
+        <v>12362300</v>
       </c>
       <c r="G54" s="3">
-        <v>11118900</v>
+        <v>11088400</v>
       </c>
       <c r="H54" s="3">
-        <v>10490000</v>
+        <v>10461300</v>
       </c>
       <c r="I54" s="3">
-        <v>10221900</v>
+        <v>10193900</v>
       </c>
       <c r="J54" s="3">
+        <v>10036800</v>
+      </c>
+      <c r="K54" s="3">
         <v>10064400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9795600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8812200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7599100</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>104700</v>
+        <v>24600</v>
       </c>
       <c r="E57" s="3">
-        <v>35400</v>
+        <v>35300</v>
       </c>
       <c r="F57" s="3">
-        <v>40700</v>
+        <v>40600</v>
       </c>
       <c r="G57" s="3">
-        <v>32800</v>
+        <v>32700</v>
       </c>
       <c r="H57" s="3">
-        <v>27500</v>
+        <v>27400</v>
       </c>
       <c r="I57" s="3">
         <v>19000</v>
       </c>
       <c r="J57" s="3">
+        <v>28300</v>
+      </c>
+      <c r="K57" s="3">
         <v>28400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>60400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>68100</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>67800</v>
+        <v>67600</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>72200</v>
+        <v>72000</v>
       </c>
       <c r="G58" s="3">
-        <v>38300</v>
+        <v>38200</v>
       </c>
       <c r="H58" s="3">
-        <v>19200</v>
+        <v>19100</v>
       </c>
       <c r="I58" s="3">
-        <v>150700</v>
+        <v>150300</v>
       </c>
       <c r="J58" s="3">
+        <v>31800</v>
+      </c>
+      <c r="K58" s="3">
         <v>31900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>135800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>90000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>192900</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>74900</v>
+        <v>154500</v>
       </c>
       <c r="E59" s="3">
-        <v>162900</v>
+        <v>162400</v>
       </c>
       <c r="F59" s="3">
-        <v>200200</v>
+        <v>199600</v>
       </c>
       <c r="G59" s="3">
-        <v>163300</v>
+        <v>162800</v>
       </c>
       <c r="H59" s="3">
-        <v>178300</v>
+        <v>177800</v>
       </c>
       <c r="I59" s="3">
-        <v>199800</v>
+        <v>199200</v>
       </c>
       <c r="J59" s="3">
+        <v>126200</v>
+      </c>
+      <c r="K59" s="3">
         <v>126600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>129200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>77100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>75400</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>247400</v>
+        <v>246800</v>
       </c>
       <c r="E60" s="3">
-        <v>198300</v>
+        <v>197700</v>
       </c>
       <c r="F60" s="3">
-        <v>313100</v>
+        <v>312200</v>
       </c>
       <c r="G60" s="3">
-        <v>234400</v>
+        <v>233800</v>
       </c>
       <c r="H60" s="3">
-        <v>225000</v>
+        <v>224300</v>
       </c>
       <c r="I60" s="3">
-        <v>369600</v>
+        <v>368500</v>
       </c>
       <c r="J60" s="3">
+        <v>186400</v>
+      </c>
+      <c r="K60" s="3">
         <v>186900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>285900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>227600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>336400</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2315400</v>
+        <v>2309100</v>
       </c>
       <c r="E61" s="3">
-        <v>2423200</v>
+        <v>2416600</v>
       </c>
       <c r="F61" s="3">
-        <v>1528300</v>
+        <v>1524100</v>
       </c>
       <c r="G61" s="3">
-        <v>769300</v>
+        <v>767100</v>
       </c>
       <c r="H61" s="3">
-        <v>770900</v>
+        <v>768800</v>
       </c>
       <c r="I61" s="3">
-        <v>653100</v>
+        <v>651300</v>
       </c>
       <c r="J61" s="3">
+        <v>587100</v>
+      </c>
+      <c r="K61" s="3">
         <v>588800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>830200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>675100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>660000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1203900</v>
+        <v>1200700</v>
       </c>
       <c r="E62" s="3">
-        <v>227900</v>
+        <v>227300</v>
       </c>
       <c r="F62" s="3">
-        <v>211500</v>
+        <v>211000</v>
       </c>
       <c r="G62" s="3">
-        <v>197900</v>
+        <v>197300</v>
       </c>
       <c r="H62" s="3">
-        <v>169000</v>
+        <v>168500</v>
       </c>
       <c r="I62" s="3">
-        <v>169900</v>
+        <v>169400</v>
       </c>
       <c r="J62" s="3">
+        <v>171700</v>
+      </c>
+      <c r="K62" s="3">
         <v>172200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>160000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>124500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>107500</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4195700</v>
+        <v>4184300</v>
       </c>
       <c r="E66" s="3">
-        <v>3246900</v>
+        <v>3238000</v>
       </c>
       <c r="F66" s="3">
-        <v>2477300</v>
+        <v>2470500</v>
       </c>
       <c r="G66" s="3">
-        <v>1611100</v>
+        <v>1606600</v>
       </c>
       <c r="H66" s="3">
-        <v>1554200</v>
+        <v>1550000</v>
       </c>
       <c r="I66" s="3">
-        <v>1600700</v>
+        <v>1596300</v>
       </c>
       <c r="J66" s="3">
+        <v>1352400</v>
+      </c>
+      <c r="K66" s="3">
         <v>1356100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1643600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1326500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1358700</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8449600</v>
+        <v>8280400</v>
       </c>
       <c r="E72" s="3">
-        <v>8335500</v>
+        <v>8312700</v>
       </c>
       <c r="F72" s="3">
-        <v>8871400</v>
+        <v>8847100</v>
       </c>
       <c r="G72" s="3">
-        <v>8456100</v>
+        <v>8433000</v>
       </c>
       <c r="H72" s="3">
-        <v>7870800</v>
+        <v>7849300</v>
       </c>
       <c r="I72" s="3">
-        <v>7587100</v>
+        <v>7566300</v>
       </c>
       <c r="J72" s="3">
+        <v>7639300</v>
+      </c>
+      <c r="K72" s="3">
         <v>7660300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7104900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6448300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5123700</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10797500</v>
+        <v>10767900</v>
       </c>
       <c r="E76" s="3">
-        <v>10773200</v>
+        <v>10743700</v>
       </c>
       <c r="F76" s="3">
-        <v>9919000</v>
+        <v>9891800</v>
       </c>
       <c r="G76" s="3">
-        <v>9507800</v>
+        <v>9481800</v>
       </c>
       <c r="H76" s="3">
-        <v>8935800</v>
+        <v>8911300</v>
       </c>
       <c r="I76" s="3">
-        <v>8621200</v>
+        <v>8597600</v>
       </c>
       <c r="J76" s="3">
+        <v>8684400</v>
+      </c>
+      <c r="K76" s="3">
         <v>8708300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8152000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7485700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6240400</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-325400</v>
+        <v>176200</v>
       </c>
       <c r="E81" s="3">
-        <v>618900</v>
+        <v>-324500</v>
       </c>
       <c r="F81" s="3">
-        <v>770700</v>
+        <v>617200</v>
       </c>
       <c r="G81" s="3">
-        <v>464500</v>
+        <v>768500</v>
       </c>
       <c r="H81" s="3">
-        <v>155600</v>
+        <v>463200</v>
       </c>
       <c r="I81" s="3">
-        <v>370800</v>
+        <v>155200</v>
       </c>
       <c r="J81" s="3">
+        <v>369800</v>
+      </c>
+      <c r="K81" s="3">
         <v>626200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>792700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1282100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1093800</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E83" s="3">
         <v>3100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>2800</v>
       </c>
       <c r="H83" s="3">
         <v>2800</v>
       </c>
       <c r="I83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J83" s="3">
         <v>2700</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>1400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1000</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>260600</v>
+        <v>315400</v>
       </c>
       <c r="E89" s="3">
-        <v>409000</v>
+        <v>259900</v>
       </c>
       <c r="F89" s="3">
-        <v>351400</v>
+        <v>407900</v>
       </c>
       <c r="G89" s="3">
-        <v>318100</v>
+        <v>350400</v>
       </c>
       <c r="H89" s="3">
-        <v>372900</v>
+        <v>317200</v>
       </c>
       <c r="I89" s="3">
-        <v>324500</v>
+        <v>371900</v>
       </c>
       <c r="J89" s="3">
+        <v>323600</v>
+      </c>
+      <c r="K89" s="3">
         <v>305900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>292600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>221600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>180100</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-116600</v>
+        <v>-2845100</v>
       </c>
       <c r="E91" s="3">
-        <v>-122100</v>
+        <v>-116300</v>
       </c>
       <c r="F91" s="3">
-        <v>-161600</v>
+        <v>-121800</v>
       </c>
       <c r="G91" s="3">
-        <v>-189800</v>
+        <v>-161100</v>
       </c>
       <c r="H91" s="3">
-        <v>-108200</v>
+        <v>-189300</v>
       </c>
       <c r="I91" s="3">
-        <v>-52900</v>
+        <v>-107900</v>
       </c>
       <c r="J91" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-45900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-90600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-209400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-195600</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-740000</v>
+        <v>-1916800</v>
       </c>
       <c r="E94" s="3">
-        <v>-758100</v>
+        <v>-738000</v>
       </c>
       <c r="F94" s="3">
-        <v>-126500</v>
+        <v>-756100</v>
       </c>
       <c r="G94" s="3">
+        <v>-126100</v>
+      </c>
+      <c r="H94" s="3">
         <v>5900</v>
       </c>
-      <c r="H94" s="3">
-        <v>-189800</v>
-      </c>
       <c r="I94" s="3">
-        <v>117800</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+        <v>-189300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>117500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>46000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-326000</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-191900</v>
+        <v>-190700</v>
       </c>
       <c r="E96" s="3">
-        <v>-192500</v>
+        <v>-191300</v>
       </c>
       <c r="F96" s="3">
-        <v>-184500</v>
+        <v>-192000</v>
       </c>
       <c r="G96" s="3">
-        <v>-180200</v>
+        <v>-184000</v>
       </c>
       <c r="H96" s="3">
-        <v>-178100</v>
+        <v>-179700</v>
       </c>
       <c r="I96" s="3">
-        <v>-169900</v>
+        <v>-177600</v>
       </c>
       <c r="J96" s="3">
+        <v>-169400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-160300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-137000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-99000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-77600</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,45 +3910,51 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1858000</v>
+        <v>601300</v>
       </c>
       <c r="E100" s="3">
-        <v>544300</v>
+        <v>1852900</v>
       </c>
       <c r="F100" s="3">
-        <v>-220500</v>
+        <v>542800</v>
       </c>
       <c r="G100" s="3">
-        <v>-238700</v>
+        <v>-219900</v>
       </c>
       <c r="H100" s="3">
-        <v>-83000</v>
+        <v>-238100</v>
       </c>
       <c r="I100" s="3">
-        <v>-441200</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+        <v>-82800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-440000</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>-227800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>158000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3728,55 +3976,61 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1378600</v>
+        <v>-1000100</v>
       </c>
       <c r="E102" s="3">
-        <v>195200</v>
+        <v>1374800</v>
       </c>
       <c r="F102" s="3">
+        <v>194700</v>
+      </c>
+      <c r="G102" s="3">
         <v>4500</v>
       </c>
-      <c r="G102" s="3">
-        <v>85200</v>
-      </c>
       <c r="H102" s="3">
-        <v>100000</v>
+        <v>85000</v>
       </c>
       <c r="I102" s="3">
+        <v>99700</v>
+      </c>
+      <c r="J102" s="3">
         <v>1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-44000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>39800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>12000</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HYSNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HYSNY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>459600</v>
+        <v>459800</v>
       </c>
       <c r="E8" s="3">
-        <v>472600</v>
+        <v>472800</v>
       </c>
       <c r="F8" s="3">
-        <v>508000</v>
+        <v>508300</v>
       </c>
       <c r="G8" s="3">
-        <v>495500</v>
+        <v>495800</v>
       </c>
       <c r="H8" s="3">
-        <v>452000</v>
+        <v>452200</v>
       </c>
       <c r="I8" s="3">
-        <v>450300</v>
+        <v>450500</v>
       </c>
       <c r="J8" s="3">
-        <v>436900</v>
+        <v>437200</v>
       </c>
       <c r="K8" s="3">
         <v>411800</v>
@@ -765,13 +765,13 @@
         <v>63600</v>
       </c>
       <c r="E9" s="3">
-        <v>62400</v>
+        <v>62500</v>
       </c>
       <c r="F9" s="3">
         <v>68300</v>
       </c>
       <c r="G9" s="3">
-        <v>66600</v>
+        <v>66700</v>
       </c>
       <c r="H9" s="3">
         <v>57200</v>
@@ -780,7 +780,7 @@
         <v>54500</v>
       </c>
       <c r="J9" s="3">
-        <v>52700</v>
+        <v>52800</v>
       </c>
       <c r="K9" s="3">
         <v>51600</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>396100</v>
+        <v>396200</v>
       </c>
       <c r="E10" s="3">
-        <v>410200</v>
+        <v>410400</v>
       </c>
       <c r="F10" s="3">
-        <v>439800</v>
+        <v>440000</v>
       </c>
       <c r="G10" s="3">
-        <v>428900</v>
+        <v>429100</v>
       </c>
       <c r="H10" s="3">
-        <v>394800</v>
+        <v>395000</v>
       </c>
       <c r="I10" s="3">
-        <v>395800</v>
+        <v>396000</v>
       </c>
       <c r="J10" s="3">
-        <v>384200</v>
+        <v>384400</v>
       </c>
       <c r="K10" s="3">
         <v>360200</v>
@@ -1036,7 +1036,7 @@
         <v>81700</v>
       </c>
       <c r="G17" s="3">
-        <v>87600</v>
+        <v>87700</v>
       </c>
       <c r="H17" s="3">
         <v>46600</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>371900</v>
+        <v>372000</v>
       </c>
       <c r="E18" s="3">
-        <v>411300</v>
+        <v>411500</v>
       </c>
       <c r="F18" s="3">
-        <v>426400</v>
+        <v>426600</v>
       </c>
       <c r="G18" s="3">
-        <v>407900</v>
+        <v>408100</v>
       </c>
       <c r="H18" s="3">
-        <v>405400</v>
+        <v>405500</v>
       </c>
       <c r="I18" s="3">
-        <v>374300</v>
+        <v>374400</v>
       </c>
       <c r="J18" s="3">
-        <v>361300</v>
+        <v>361400</v>
       </c>
       <c r="K18" s="3">
         <v>341300</v>
@@ -1125,22 +1125,22 @@
         <v>-39500</v>
       </c>
       <c r="E20" s="3">
-        <v>-601300</v>
+        <v>-601600</v>
       </c>
       <c r="F20" s="3">
-        <v>319600</v>
+        <v>319800</v>
       </c>
       <c r="G20" s="3">
-        <v>484600</v>
+        <v>484800</v>
       </c>
       <c r="H20" s="3">
         <v>135200</v>
       </c>
       <c r="I20" s="3">
-        <v>-122300</v>
+        <v>-122400</v>
       </c>
       <c r="J20" s="3">
-        <v>119100</v>
+        <v>119200</v>
       </c>
       <c r="K20" s="3">
         <v>408500</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>336100</v>
+        <v>336200</v>
       </c>
       <c r="E21" s="3">
-        <v>-186900</v>
+        <v>-187000</v>
       </c>
       <c r="F21" s="3">
-        <v>748800</v>
+        <v>749200</v>
       </c>
       <c r="G21" s="3">
-        <v>894700</v>
+        <v>895100</v>
       </c>
       <c r="H21" s="3">
-        <v>543300</v>
+        <v>543600</v>
       </c>
       <c r="I21" s="3">
-        <v>254800</v>
+        <v>254900</v>
       </c>
       <c r="J21" s="3">
-        <v>483100</v>
+        <v>483300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1200,16 +1200,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>44300</v>
+        <v>44400</v>
       </c>
       <c r="E22" s="3">
         <v>64200</v>
       </c>
       <c r="F22" s="3">
-        <v>37800</v>
+        <v>37900</v>
       </c>
       <c r="G22" s="3">
-        <v>26200</v>
+        <v>26300</v>
       </c>
       <c r="H22" s="3">
         <v>18600</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>288000</v>
+        <v>288200</v>
       </c>
       <c r="E23" s="3">
-        <v>-254100</v>
+        <v>-254300</v>
       </c>
       <c r="F23" s="3">
-        <v>708200</v>
+        <v>708500</v>
       </c>
       <c r="G23" s="3">
-        <v>866300</v>
+        <v>866700</v>
       </c>
       <c r="H23" s="3">
-        <v>521900</v>
+        <v>522200</v>
       </c>
       <c r="I23" s="3">
-        <v>230600</v>
+        <v>230700</v>
       </c>
       <c r="J23" s="3">
-        <v>455200</v>
+        <v>455400</v>
       </c>
       <c r="K23" s="3">
         <v>719900</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>242400</v>
+        <v>242500</v>
       </c>
       <c r="E26" s="3">
-        <v>-299100</v>
+        <v>-299300</v>
       </c>
       <c r="F26" s="3">
-        <v>647900</v>
+        <v>648200</v>
       </c>
       <c r="G26" s="3">
-        <v>805000</v>
+        <v>805400</v>
       </c>
       <c r="H26" s="3">
-        <v>460300</v>
+        <v>460500</v>
       </c>
       <c r="I26" s="3">
-        <v>171600</v>
+        <v>171700</v>
       </c>
       <c r="J26" s="3">
-        <v>399400</v>
+        <v>399600</v>
       </c>
       <c r="K26" s="3">
         <v>670600</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>176200</v>
+        <v>176300</v>
       </c>
       <c r="E27" s="3">
-        <v>-324500</v>
+        <v>-324600</v>
       </c>
       <c r="F27" s="3">
-        <v>617200</v>
+        <v>617500</v>
       </c>
       <c r="G27" s="3">
-        <v>768500</v>
+        <v>768900</v>
       </c>
       <c r="H27" s="3">
-        <v>463200</v>
+        <v>463400</v>
       </c>
       <c r="I27" s="3">
         <v>155200</v>
       </c>
       <c r="J27" s="3">
-        <v>369800</v>
+        <v>370000</v>
       </c>
       <c r="K27" s="3">
         <v>626200</v>
@@ -1593,22 +1593,22 @@
         <v>39500</v>
       </c>
       <c r="E32" s="3">
-        <v>601300</v>
+        <v>601600</v>
       </c>
       <c r="F32" s="3">
-        <v>-319600</v>
+        <v>-319800</v>
       </c>
       <c r="G32" s="3">
-        <v>-484600</v>
+        <v>-484800</v>
       </c>
       <c r="H32" s="3">
         <v>-135200</v>
       </c>
       <c r="I32" s="3">
-        <v>122300</v>
+        <v>122400</v>
       </c>
       <c r="J32" s="3">
-        <v>-119100</v>
+        <v>-119200</v>
       </c>
       <c r="K32" s="3">
         <v>-408500</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>176200</v>
+        <v>176300</v>
       </c>
       <c r="E33" s="3">
-        <v>-324500</v>
+        <v>-324600</v>
       </c>
       <c r="F33" s="3">
-        <v>617200</v>
+        <v>617500</v>
       </c>
       <c r="G33" s="3">
-        <v>768500</v>
+        <v>768900</v>
       </c>
       <c r="H33" s="3">
-        <v>463200</v>
+        <v>463400</v>
       </c>
       <c r="I33" s="3">
         <v>155200</v>
       </c>
       <c r="J33" s="3">
-        <v>369800</v>
+        <v>370000</v>
       </c>
       <c r="K33" s="3">
         <v>626200</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>176200</v>
+        <v>176300</v>
       </c>
       <c r="E35" s="3">
-        <v>-324500</v>
+        <v>-324600</v>
       </c>
       <c r="F35" s="3">
-        <v>617200</v>
+        <v>617500</v>
       </c>
       <c r="G35" s="3">
-        <v>768500</v>
+        <v>768900</v>
       </c>
       <c r="H35" s="3">
-        <v>463200</v>
+        <v>463400</v>
       </c>
       <c r="I35" s="3">
         <v>155200</v>
       </c>
       <c r="J35" s="3">
-        <v>369800</v>
+        <v>370000</v>
       </c>
       <c r="K35" s="3">
         <v>626200</v>
@@ -1824,16 +1824,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>832900</v>
+        <v>833300</v>
       </c>
       <c r="E41" s="3">
-        <v>1833000</v>
+        <v>1833900</v>
       </c>
       <c r="F41" s="3">
-        <v>458200</v>
+        <v>458400</v>
       </c>
       <c r="G41" s="3">
-        <v>263600</v>
+        <v>263700</v>
       </c>
       <c r="H41" s="3">
         <v>20000</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>259500</v>
+        <v>259600</v>
       </c>
       <c r="E42" s="3">
-        <v>1343500</v>
+        <v>1344100</v>
       </c>
       <c r="F42" s="3">
-        <v>730600</v>
+        <v>730900</v>
       </c>
       <c r="G42" s="3">
-        <v>124200</v>
+        <v>124300</v>
       </c>
       <c r="H42" s="3">
-        <v>384100</v>
+        <v>384300</v>
       </c>
       <c r="I42" s="3">
-        <v>379500</v>
+        <v>379700</v>
       </c>
       <c r="J42" s="3">
-        <v>402400</v>
+        <v>402600</v>
       </c>
       <c r="K42" s="3">
         <v>403500</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1210300</v>
+        <v>1210900</v>
       </c>
       <c r="E46" s="3">
-        <v>3236000</v>
+        <v>3237500</v>
       </c>
       <c r="F46" s="3">
-        <v>1228800</v>
+        <v>1229400</v>
       </c>
       <c r="G46" s="3">
-        <v>413600</v>
+        <v>413800</v>
       </c>
       <c r="H46" s="3">
-        <v>432900</v>
+        <v>433100</v>
       </c>
       <c r="I46" s="3">
-        <v>544200</v>
+        <v>544500</v>
       </c>
       <c r="J46" s="3">
-        <v>435800</v>
+        <v>436000</v>
       </c>
       <c r="K46" s="3">
         <v>437000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1327800</v>
+        <v>1328400</v>
       </c>
       <c r="E47" s="3">
-        <v>978600</v>
+        <v>979100</v>
       </c>
       <c r="F47" s="3">
-        <v>878500</v>
+        <v>878900</v>
       </c>
       <c r="G47" s="3">
-        <v>676700</v>
+        <v>677000</v>
       </c>
       <c r="H47" s="3">
-        <v>697800</v>
+        <v>698200</v>
       </c>
       <c r="I47" s="3">
-        <v>685700</v>
+        <v>686100</v>
       </c>
       <c r="J47" s="3">
-        <v>618100</v>
+        <v>618400</v>
       </c>
       <c r="K47" s="3">
         <v>619800</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12175800</v>
+        <v>12181500</v>
       </c>
       <c r="E48" s="3">
-        <v>9659600</v>
+        <v>9664200</v>
       </c>
       <c r="F48" s="3">
-        <v>10177400</v>
+        <v>10182200</v>
       </c>
       <c r="G48" s="3">
-        <v>9960500</v>
+        <v>9965200</v>
       </c>
       <c r="H48" s="3">
-        <v>9327600</v>
+        <v>9332000</v>
       </c>
       <c r="I48" s="3">
-        <v>8962300</v>
+        <v>8966500</v>
       </c>
       <c r="J48" s="3">
-        <v>8982900</v>
+        <v>8987100</v>
       </c>
       <c r="K48" s="3">
         <v>9007600</v>
@@ -2253,10 +2253,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>238200</v>
+        <v>238300</v>
       </c>
       <c r="E52" s="3">
-        <v>107500</v>
+        <v>107600</v>
       </c>
       <c r="F52" s="3">
         <v>77500</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14952100</v>
+        <v>14959200</v>
       </c>
       <c r="E54" s="3">
-        <v>13981700</v>
+        <v>13988300</v>
       </c>
       <c r="F54" s="3">
-        <v>12362300</v>
+        <v>12368100</v>
       </c>
       <c r="G54" s="3">
-        <v>11088400</v>
+        <v>11093600</v>
       </c>
       <c r="H54" s="3">
-        <v>10461300</v>
+        <v>10466200</v>
       </c>
       <c r="I54" s="3">
-        <v>10193900</v>
+        <v>10198700</v>
       </c>
       <c r="J54" s="3">
-        <v>10036800</v>
+        <v>10041500</v>
       </c>
       <c r="K54" s="3">
         <v>10064400</v>
@@ -2410,10 +2410,10 @@
         <v>35300</v>
       </c>
       <c r="F57" s="3">
-        <v>40600</v>
+        <v>40700</v>
       </c>
       <c r="G57" s="3">
-        <v>32700</v>
+        <v>32800</v>
       </c>
       <c r="H57" s="3">
         <v>27400</v>
@@ -2443,7 +2443,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>67600</v>
+        <v>67700</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2458,10 +2458,10 @@
         <v>19100</v>
       </c>
       <c r="I58" s="3">
-        <v>150300</v>
+        <v>150400</v>
       </c>
       <c r="J58" s="3">
-        <v>31800</v>
+        <v>31900</v>
       </c>
       <c r="K58" s="3">
         <v>31900</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>154500</v>
+        <v>154600</v>
       </c>
       <c r="E59" s="3">
-        <v>162400</v>
+        <v>162500</v>
       </c>
       <c r="F59" s="3">
-        <v>199600</v>
+        <v>199700</v>
       </c>
       <c r="G59" s="3">
-        <v>162800</v>
+        <v>162900</v>
       </c>
       <c r="H59" s="3">
-        <v>177800</v>
+        <v>177900</v>
       </c>
       <c r="I59" s="3">
-        <v>199200</v>
+        <v>199300</v>
       </c>
       <c r="J59" s="3">
-        <v>126200</v>
+        <v>126300</v>
       </c>
       <c r="K59" s="3">
         <v>126600</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>246800</v>
+        <v>246900</v>
       </c>
       <c r="E60" s="3">
-        <v>197700</v>
+        <v>197800</v>
       </c>
       <c r="F60" s="3">
-        <v>312200</v>
+        <v>312400</v>
       </c>
       <c r="G60" s="3">
-        <v>233800</v>
+        <v>233900</v>
       </c>
       <c r="H60" s="3">
-        <v>224300</v>
+        <v>224400</v>
       </c>
       <c r="I60" s="3">
-        <v>368500</v>
+        <v>368700</v>
       </c>
       <c r="J60" s="3">
-        <v>186400</v>
+        <v>186500</v>
       </c>
       <c r="K60" s="3">
         <v>186900</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2309100</v>
+        <v>2310200</v>
       </c>
       <c r="E61" s="3">
-        <v>2416600</v>
+        <v>2417700</v>
       </c>
       <c r="F61" s="3">
-        <v>1524100</v>
+        <v>1524800</v>
       </c>
       <c r="G61" s="3">
-        <v>767100</v>
+        <v>767500</v>
       </c>
       <c r="H61" s="3">
-        <v>768800</v>
+        <v>769200</v>
       </c>
       <c r="I61" s="3">
-        <v>651300</v>
+        <v>651700</v>
       </c>
       <c r="J61" s="3">
-        <v>587100</v>
+        <v>587400</v>
       </c>
       <c r="K61" s="3">
         <v>588800</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1200700</v>
+        <v>1201200</v>
       </c>
       <c r="E62" s="3">
-        <v>227300</v>
+        <v>227400</v>
       </c>
       <c r="F62" s="3">
-        <v>211000</v>
+        <v>211100</v>
       </c>
       <c r="G62" s="3">
-        <v>197300</v>
+        <v>197400</v>
       </c>
       <c r="H62" s="3">
-        <v>168500</v>
+        <v>168600</v>
       </c>
       <c r="I62" s="3">
-        <v>169400</v>
+        <v>169500</v>
       </c>
       <c r="J62" s="3">
-        <v>171700</v>
+        <v>171800</v>
       </c>
       <c r="K62" s="3">
         <v>172200</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4184300</v>
+        <v>4186200</v>
       </c>
       <c r="E66" s="3">
-        <v>3238000</v>
+        <v>3239500</v>
       </c>
       <c r="F66" s="3">
-        <v>2470500</v>
+        <v>2471600</v>
       </c>
       <c r="G66" s="3">
-        <v>1606600</v>
+        <v>1607400</v>
       </c>
       <c r="H66" s="3">
-        <v>1550000</v>
+        <v>1550700</v>
       </c>
       <c r="I66" s="3">
-        <v>1596300</v>
+        <v>1597100</v>
       </c>
       <c r="J66" s="3">
-        <v>1352400</v>
+        <v>1353000</v>
       </c>
       <c r="K66" s="3">
         <v>1356100</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8280400</v>
+        <v>8284300</v>
       </c>
       <c r="E72" s="3">
-        <v>8312700</v>
+        <v>8316600</v>
       </c>
       <c r="F72" s="3">
-        <v>8847100</v>
+        <v>8851300</v>
       </c>
       <c r="G72" s="3">
-        <v>8433000</v>
+        <v>8436900</v>
       </c>
       <c r="H72" s="3">
-        <v>7849300</v>
+        <v>7853000</v>
       </c>
       <c r="I72" s="3">
-        <v>7566300</v>
+        <v>7569900</v>
       </c>
       <c r="J72" s="3">
-        <v>7639300</v>
+        <v>7642900</v>
       </c>
       <c r="K72" s="3">
         <v>7660300</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10767900</v>
+        <v>10773000</v>
       </c>
       <c r="E76" s="3">
-        <v>10743700</v>
+        <v>10748800</v>
       </c>
       <c r="F76" s="3">
-        <v>9891800</v>
+        <v>9896500</v>
       </c>
       <c r="G76" s="3">
-        <v>9481800</v>
+        <v>9486200</v>
       </c>
       <c r="H76" s="3">
-        <v>8911300</v>
+        <v>8915500</v>
       </c>
       <c r="I76" s="3">
-        <v>8597600</v>
+        <v>8601600</v>
       </c>
       <c r="J76" s="3">
-        <v>8684400</v>
+        <v>8688500</v>
       </c>
       <c r="K76" s="3">
         <v>8708300</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>176200</v>
+        <v>176300</v>
       </c>
       <c r="E81" s="3">
-        <v>-324500</v>
+        <v>-324600</v>
       </c>
       <c r="F81" s="3">
-        <v>617200</v>
+        <v>617500</v>
       </c>
       <c r="G81" s="3">
-        <v>768500</v>
+        <v>768900</v>
       </c>
       <c r="H81" s="3">
-        <v>463200</v>
+        <v>463400</v>
       </c>
       <c r="I81" s="3">
         <v>155200</v>
       </c>
       <c r="J81" s="3">
-        <v>369800</v>
+        <v>370000</v>
       </c>
       <c r="K81" s="3">
         <v>626200</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>315400</v>
+        <v>315600</v>
       </c>
       <c r="E89" s="3">
-        <v>259900</v>
+        <v>260000</v>
       </c>
       <c r="F89" s="3">
-        <v>407900</v>
+        <v>408100</v>
       </c>
       <c r="G89" s="3">
-        <v>350400</v>
+        <v>350600</v>
       </c>
       <c r="H89" s="3">
-        <v>317200</v>
+        <v>317400</v>
       </c>
       <c r="I89" s="3">
-        <v>371900</v>
+        <v>372000</v>
       </c>
       <c r="J89" s="3">
-        <v>323600</v>
+        <v>323700</v>
       </c>
       <c r="K89" s="3">
         <v>305900</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2845100</v>
+        <v>-2846500</v>
       </c>
       <c r="E91" s="3">
-        <v>-116300</v>
+        <v>-116400</v>
       </c>
       <c r="F91" s="3">
         <v>-121800</v>
       </c>
       <c r="G91" s="3">
-        <v>-161100</v>
+        <v>-161200</v>
       </c>
       <c r="H91" s="3">
-        <v>-189300</v>
+        <v>-189400</v>
       </c>
       <c r="I91" s="3">
-        <v>-107900</v>
+        <v>-108000</v>
       </c>
       <c r="J91" s="3">
-        <v>-52700</v>
+        <v>-52800</v>
       </c>
       <c r="K91" s="3">
         <v>-45900</v>
@@ -3708,22 +3708,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1916800</v>
+        <v>-1917700</v>
       </c>
       <c r="E94" s="3">
-        <v>-738000</v>
+        <v>-738300</v>
       </c>
       <c r="F94" s="3">
-        <v>-756100</v>
+        <v>-756400</v>
       </c>
       <c r="G94" s="3">
-        <v>-126100</v>
+        <v>-126200</v>
       </c>
       <c r="H94" s="3">
         <v>5900</v>
       </c>
       <c r="I94" s="3">
-        <v>-189300</v>
+        <v>-189400</v>
       </c>
       <c r="J94" s="3">
         <v>117500</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-190700</v>
+        <v>-190800</v>
       </c>
       <c r="E96" s="3">
-        <v>-191300</v>
+        <v>-191400</v>
       </c>
       <c r="F96" s="3">
-        <v>-192000</v>
+        <v>-192100</v>
       </c>
       <c r="G96" s="3">
         <v>-184000</v>
       </c>
       <c r="H96" s="3">
-        <v>-179700</v>
+        <v>-179800</v>
       </c>
       <c r="I96" s="3">
-        <v>-177600</v>
+        <v>-177700</v>
       </c>
       <c r="J96" s="3">
-        <v>-169400</v>
+        <v>-169500</v>
       </c>
       <c r="K96" s="3">
         <v>-160300</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>601300</v>
+        <v>601600</v>
       </c>
       <c r="E100" s="3">
-        <v>1852900</v>
+        <v>1853800</v>
       </c>
       <c r="F100" s="3">
-        <v>542800</v>
+        <v>543100</v>
       </c>
       <c r="G100" s="3">
-        <v>-219900</v>
+        <v>-220000</v>
       </c>
       <c r="H100" s="3">
-        <v>-238100</v>
+        <v>-238200</v>
       </c>
       <c r="I100" s="3">
         <v>-82800</v>
       </c>
       <c r="J100" s="3">
-        <v>-440000</v>
+        <v>-440200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3998,10 +3998,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1000100</v>
+        <v>-1000600</v>
       </c>
       <c r="E102" s="3">
-        <v>1374800</v>
+        <v>1375400</v>
       </c>
       <c r="F102" s="3">
         <v>194700</v>
@@ -4013,7 +4013,7 @@
         <v>85000</v>
       </c>
       <c r="I102" s="3">
-        <v>99700</v>
+        <v>99800</v>
       </c>
       <c r="J102" s="3">
         <v>1000</v>

--- a/AAII_Financials/Yearly/HYSNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HYSNY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>459800</v>
+        <v>459900</v>
       </c>
       <c r="E8" s="3">
-        <v>472800</v>
+        <v>473000</v>
       </c>
       <c r="F8" s="3">
-        <v>508300</v>
+        <v>508400</v>
       </c>
       <c r="G8" s="3">
-        <v>495800</v>
+        <v>495900</v>
       </c>
       <c r="H8" s="3">
-        <v>452200</v>
+        <v>452300</v>
       </c>
       <c r="I8" s="3">
-        <v>450500</v>
+        <v>450600</v>
       </c>
       <c r="J8" s="3">
-        <v>437200</v>
+        <v>437300</v>
       </c>
       <c r="K8" s="3">
         <v>411800</v>
@@ -777,7 +777,7 @@
         <v>57200</v>
       </c>
       <c r="I9" s="3">
-        <v>54500</v>
+        <v>54600</v>
       </c>
       <c r="J9" s="3">
         <v>52800</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>396200</v>
+        <v>396300</v>
       </c>
       <c r="E10" s="3">
-        <v>410400</v>
+        <v>410500</v>
       </c>
       <c r="F10" s="3">
-        <v>440000</v>
+        <v>440100</v>
       </c>
       <c r="G10" s="3">
-        <v>429100</v>
+        <v>429200</v>
       </c>
       <c r="H10" s="3">
-        <v>395000</v>
+        <v>395100</v>
       </c>
       <c r="I10" s="3">
-        <v>396000</v>
+        <v>396100</v>
       </c>
       <c r="J10" s="3">
-        <v>384400</v>
+        <v>384500</v>
       </c>
       <c r="K10" s="3">
         <v>360200</v>
@@ -1039,7 +1039,7 @@
         <v>87700</v>
       </c>
       <c r="H17" s="3">
-        <v>46600</v>
+        <v>46700</v>
       </c>
       <c r="I17" s="3">
         <v>76100</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>372000</v>
+        <v>372100</v>
       </c>
       <c r="E18" s="3">
-        <v>411500</v>
+        <v>411600</v>
       </c>
       <c r="F18" s="3">
-        <v>426600</v>
+        <v>426700</v>
       </c>
       <c r="G18" s="3">
-        <v>408100</v>
+        <v>408200</v>
       </c>
       <c r="H18" s="3">
-        <v>405500</v>
+        <v>405600</v>
       </c>
       <c r="I18" s="3">
-        <v>374400</v>
+        <v>374500</v>
       </c>
       <c r="J18" s="3">
-        <v>361400</v>
+        <v>361500</v>
       </c>
       <c r="K18" s="3">
         <v>341300</v>
@@ -1125,16 +1125,16 @@
         <v>-39500</v>
       </c>
       <c r="E20" s="3">
-        <v>-601600</v>
+        <v>-601700</v>
       </c>
       <c r="F20" s="3">
         <v>319800</v>
       </c>
       <c r="G20" s="3">
-        <v>484800</v>
+        <v>484900</v>
       </c>
       <c r="H20" s="3">
-        <v>135200</v>
+        <v>135300</v>
       </c>
       <c r="I20" s="3">
         <v>-122400</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>336200</v>
+        <v>336300</v>
       </c>
       <c r="E21" s="3">
         <v>-187000</v>
       </c>
       <c r="F21" s="3">
-        <v>749200</v>
+        <v>749300</v>
       </c>
       <c r="G21" s="3">
-        <v>895100</v>
+        <v>895300</v>
       </c>
       <c r="H21" s="3">
-        <v>543600</v>
+        <v>543700</v>
       </c>
       <c r="I21" s="3">
-        <v>254900</v>
+        <v>255000</v>
       </c>
       <c r="J21" s="3">
-        <v>483300</v>
+        <v>483400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1245,19 +1245,19 @@
         <v>-254300</v>
       </c>
       <c r="F23" s="3">
-        <v>708500</v>
+        <v>708700</v>
       </c>
       <c r="G23" s="3">
-        <v>866700</v>
+        <v>866900</v>
       </c>
       <c r="H23" s="3">
-        <v>522200</v>
+        <v>522300</v>
       </c>
       <c r="I23" s="3">
         <v>230700</v>
       </c>
       <c r="J23" s="3">
-        <v>455400</v>
+        <v>455500</v>
       </c>
       <c r="K23" s="3">
         <v>719900</v>
@@ -1356,19 +1356,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>242500</v>
+        <v>242600</v>
       </c>
       <c r="E26" s="3">
         <v>-299300</v>
       </c>
       <c r="F26" s="3">
-        <v>648200</v>
+        <v>648400</v>
       </c>
       <c r="G26" s="3">
-        <v>805400</v>
+        <v>805500</v>
       </c>
       <c r="H26" s="3">
-        <v>460500</v>
+        <v>460600</v>
       </c>
       <c r="I26" s="3">
         <v>171700</v>
@@ -1398,22 +1398,22 @@
         <v>176300</v>
       </c>
       <c r="E27" s="3">
-        <v>-324600</v>
+        <v>-324700</v>
       </c>
       <c r="F27" s="3">
-        <v>617500</v>
+        <v>617600</v>
       </c>
       <c r="G27" s="3">
-        <v>768900</v>
+        <v>769100</v>
       </c>
       <c r="H27" s="3">
-        <v>463400</v>
+        <v>463500</v>
       </c>
       <c r="I27" s="3">
-        <v>155200</v>
+        <v>155300</v>
       </c>
       <c r="J27" s="3">
-        <v>370000</v>
+        <v>370100</v>
       </c>
       <c r="K27" s="3">
         <v>626200</v>
@@ -1593,16 +1593,16 @@
         <v>39500</v>
       </c>
       <c r="E32" s="3">
-        <v>601600</v>
+        <v>601700</v>
       </c>
       <c r="F32" s="3">
         <v>-319800</v>
       </c>
       <c r="G32" s="3">
-        <v>-484800</v>
+        <v>-484900</v>
       </c>
       <c r="H32" s="3">
-        <v>-135200</v>
+        <v>-135300</v>
       </c>
       <c r="I32" s="3">
         <v>122400</v>
@@ -1632,22 +1632,22 @@
         <v>176300</v>
       </c>
       <c r="E33" s="3">
-        <v>-324600</v>
+        <v>-324700</v>
       </c>
       <c r="F33" s="3">
-        <v>617500</v>
+        <v>617600</v>
       </c>
       <c r="G33" s="3">
-        <v>768900</v>
+        <v>769100</v>
       </c>
       <c r="H33" s="3">
-        <v>463400</v>
+        <v>463500</v>
       </c>
       <c r="I33" s="3">
-        <v>155200</v>
+        <v>155300</v>
       </c>
       <c r="J33" s="3">
-        <v>370000</v>
+        <v>370100</v>
       </c>
       <c r="K33" s="3">
         <v>626200</v>
@@ -1710,22 +1710,22 @@
         <v>176300</v>
       </c>
       <c r="E35" s="3">
-        <v>-324600</v>
+        <v>-324700</v>
       </c>
       <c r="F35" s="3">
-        <v>617500</v>
+        <v>617600</v>
       </c>
       <c r="G35" s="3">
-        <v>768900</v>
+        <v>769100</v>
       </c>
       <c r="H35" s="3">
-        <v>463400</v>
+        <v>463500</v>
       </c>
       <c r="I35" s="3">
-        <v>155200</v>
+        <v>155300</v>
       </c>
       <c r="J35" s="3">
-        <v>370000</v>
+        <v>370100</v>
       </c>
       <c r="K35" s="3">
         <v>626200</v>
@@ -1824,16 +1824,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>833300</v>
+        <v>833500</v>
       </c>
       <c r="E41" s="3">
-        <v>1833900</v>
+        <v>1834300</v>
       </c>
       <c r="F41" s="3">
-        <v>458400</v>
+        <v>458500</v>
       </c>
       <c r="G41" s="3">
-        <v>263700</v>
+        <v>263800</v>
       </c>
       <c r="H41" s="3">
         <v>20000</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>259600</v>
+        <v>259700</v>
       </c>
       <c r="E42" s="3">
-        <v>1344100</v>
+        <v>1344400</v>
       </c>
       <c r="F42" s="3">
-        <v>730900</v>
+        <v>731100</v>
       </c>
       <c r="G42" s="3">
         <v>124300</v>
       </c>
       <c r="H42" s="3">
-        <v>384300</v>
+        <v>384400</v>
       </c>
       <c r="I42" s="3">
-        <v>379700</v>
+        <v>379800</v>
       </c>
       <c r="J42" s="3">
-        <v>402600</v>
+        <v>402700</v>
       </c>
       <c r="K42" s="3">
         <v>403500</v>
@@ -1917,7 +1917,7 @@
         <v>28800</v>
       </c>
       <c r="I43" s="3">
-        <v>154700</v>
+        <v>154800</v>
       </c>
       <c r="J43" s="3">
         <v>25600</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1210900</v>
+        <v>1211200</v>
       </c>
       <c r="E46" s="3">
-        <v>3237500</v>
+        <v>3238200</v>
       </c>
       <c r="F46" s="3">
-        <v>1229400</v>
+        <v>1229700</v>
       </c>
       <c r="G46" s="3">
-        <v>413800</v>
+        <v>413900</v>
       </c>
       <c r="H46" s="3">
-        <v>433100</v>
+        <v>433200</v>
       </c>
       <c r="I46" s="3">
-        <v>544500</v>
+        <v>544600</v>
       </c>
       <c r="J46" s="3">
-        <v>436000</v>
+        <v>436100</v>
       </c>
       <c r="K46" s="3">
         <v>437000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1328400</v>
+        <v>1328700</v>
       </c>
       <c r="E47" s="3">
-        <v>979100</v>
+        <v>979300</v>
       </c>
       <c r="F47" s="3">
-        <v>878900</v>
+        <v>879100</v>
       </c>
       <c r="G47" s="3">
-        <v>677000</v>
+        <v>677200</v>
       </c>
       <c r="H47" s="3">
-        <v>698200</v>
+        <v>698300</v>
       </c>
       <c r="I47" s="3">
-        <v>686100</v>
+        <v>686200</v>
       </c>
       <c r="J47" s="3">
-        <v>618400</v>
+        <v>618500</v>
       </c>
       <c r="K47" s="3">
         <v>619800</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12181500</v>
+        <v>12184400</v>
       </c>
       <c r="E48" s="3">
-        <v>9664200</v>
+        <v>9666400</v>
       </c>
       <c r="F48" s="3">
-        <v>10182200</v>
+        <v>10184600</v>
       </c>
       <c r="G48" s="3">
-        <v>9965200</v>
+        <v>9967500</v>
       </c>
       <c r="H48" s="3">
-        <v>9332000</v>
+        <v>9334200</v>
       </c>
       <c r="I48" s="3">
-        <v>8966500</v>
+        <v>8968600</v>
       </c>
       <c r="J48" s="3">
-        <v>8987100</v>
+        <v>8989300</v>
       </c>
       <c r="K48" s="3">
         <v>9007600</v>
@@ -2253,7 +2253,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>238300</v>
+        <v>238400</v>
       </c>
       <c r="E52" s="3">
         <v>107600</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14959200</v>
+        <v>14962700</v>
       </c>
       <c r="E54" s="3">
-        <v>13988300</v>
+        <v>13991600</v>
       </c>
       <c r="F54" s="3">
-        <v>12368100</v>
+        <v>12371000</v>
       </c>
       <c r="G54" s="3">
-        <v>11093600</v>
+        <v>11096200</v>
       </c>
       <c r="H54" s="3">
-        <v>10466200</v>
+        <v>10468700</v>
       </c>
       <c r="I54" s="3">
-        <v>10198700</v>
+        <v>10201100</v>
       </c>
       <c r="J54" s="3">
-        <v>10041500</v>
+        <v>10043900</v>
       </c>
       <c r="K54" s="3">
         <v>10064400</v>
@@ -2488,16 +2488,16 @@
         <v>162500</v>
       </c>
       <c r="F59" s="3">
-        <v>199700</v>
+        <v>199800</v>
       </c>
       <c r="G59" s="3">
         <v>162900</v>
       </c>
       <c r="H59" s="3">
-        <v>177900</v>
+        <v>178000</v>
       </c>
       <c r="I59" s="3">
-        <v>199300</v>
+        <v>199400</v>
       </c>
       <c r="J59" s="3">
         <v>126300</v>
@@ -2527,16 +2527,16 @@
         <v>197800</v>
       </c>
       <c r="F60" s="3">
-        <v>312400</v>
+        <v>312500</v>
       </c>
       <c r="G60" s="3">
         <v>233900</v>
       </c>
       <c r="H60" s="3">
-        <v>224400</v>
+        <v>224500</v>
       </c>
       <c r="I60" s="3">
-        <v>368700</v>
+        <v>368800</v>
       </c>
       <c r="J60" s="3">
         <v>186500</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2310200</v>
+        <v>2310700</v>
       </c>
       <c r="E61" s="3">
-        <v>2417700</v>
+        <v>2418300</v>
       </c>
       <c r="F61" s="3">
-        <v>1524800</v>
+        <v>1525200</v>
       </c>
       <c r="G61" s="3">
-        <v>767500</v>
+        <v>767700</v>
       </c>
       <c r="H61" s="3">
-        <v>769200</v>
+        <v>769300</v>
       </c>
       <c r="I61" s="3">
-        <v>651700</v>
+        <v>651800</v>
       </c>
       <c r="J61" s="3">
-        <v>587400</v>
+        <v>587600</v>
       </c>
       <c r="K61" s="3">
         <v>588800</v>
@@ -2599,7 +2599,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1201200</v>
+        <v>1201500</v>
       </c>
       <c r="E62" s="3">
         <v>227400</v>
@@ -2608,10 +2608,10 @@
         <v>211100</v>
       </c>
       <c r="G62" s="3">
-        <v>197400</v>
+        <v>197500</v>
       </c>
       <c r="H62" s="3">
-        <v>168600</v>
+        <v>168700</v>
       </c>
       <c r="I62" s="3">
         <v>169500</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4186200</v>
+        <v>4187200</v>
       </c>
       <c r="E66" s="3">
-        <v>3239500</v>
+        <v>3240300</v>
       </c>
       <c r="F66" s="3">
-        <v>2471600</v>
+        <v>2472200</v>
       </c>
       <c r="G66" s="3">
-        <v>1607400</v>
+        <v>1607800</v>
       </c>
       <c r="H66" s="3">
-        <v>1550700</v>
+        <v>1551000</v>
       </c>
       <c r="I66" s="3">
-        <v>1597100</v>
+        <v>1597500</v>
       </c>
       <c r="J66" s="3">
-        <v>1353000</v>
+        <v>1353300</v>
       </c>
       <c r="K66" s="3">
         <v>1356100</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8284300</v>
+        <v>8286200</v>
       </c>
       <c r="E72" s="3">
-        <v>8316600</v>
+        <v>8318600</v>
       </c>
       <c r="F72" s="3">
-        <v>8851300</v>
+        <v>8853400</v>
       </c>
       <c r="G72" s="3">
-        <v>8436900</v>
+        <v>8438900</v>
       </c>
       <c r="H72" s="3">
-        <v>7853000</v>
+        <v>7854800</v>
       </c>
       <c r="I72" s="3">
-        <v>7569900</v>
+        <v>7571700</v>
       </c>
       <c r="J72" s="3">
-        <v>7642900</v>
+        <v>7644700</v>
       </c>
       <c r="K72" s="3">
         <v>7660300</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10773000</v>
+        <v>10775500</v>
       </c>
       <c r="E76" s="3">
-        <v>10748800</v>
+        <v>10751300</v>
       </c>
       <c r="F76" s="3">
-        <v>9896500</v>
+        <v>9898800</v>
       </c>
       <c r="G76" s="3">
-        <v>9486200</v>
+        <v>9488500</v>
       </c>
       <c r="H76" s="3">
-        <v>8915500</v>
+        <v>8917600</v>
       </c>
       <c r="I76" s="3">
-        <v>8601600</v>
+        <v>8603600</v>
       </c>
       <c r="J76" s="3">
-        <v>8688500</v>
+        <v>8690600</v>
       </c>
       <c r="K76" s="3">
         <v>8708300</v>
@@ -3248,22 +3248,22 @@
         <v>176300</v>
       </c>
       <c r="E81" s="3">
-        <v>-324600</v>
+        <v>-324700</v>
       </c>
       <c r="F81" s="3">
-        <v>617500</v>
+        <v>617600</v>
       </c>
       <c r="G81" s="3">
-        <v>768900</v>
+        <v>769100</v>
       </c>
       <c r="H81" s="3">
-        <v>463400</v>
+        <v>463500</v>
       </c>
       <c r="I81" s="3">
-        <v>155200</v>
+        <v>155300</v>
       </c>
       <c r="J81" s="3">
-        <v>370000</v>
+        <v>370100</v>
       </c>
       <c r="K81" s="3">
         <v>626200</v>
@@ -3538,22 +3538,22 @@
         <v>315600</v>
       </c>
       <c r="E89" s="3">
-        <v>260000</v>
+        <v>260100</v>
       </c>
       <c r="F89" s="3">
-        <v>408100</v>
+        <v>408200</v>
       </c>
       <c r="G89" s="3">
-        <v>350600</v>
+        <v>350700</v>
       </c>
       <c r="H89" s="3">
         <v>317400</v>
       </c>
       <c r="I89" s="3">
-        <v>372000</v>
+        <v>372100</v>
       </c>
       <c r="J89" s="3">
-        <v>323700</v>
+        <v>323800</v>
       </c>
       <c r="K89" s="3">
         <v>305900</v>
@@ -3591,16 +3591,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2846500</v>
+        <v>-2847100</v>
       </c>
       <c r="E91" s="3">
         <v>-116400</v>
       </c>
       <c r="F91" s="3">
-        <v>-121800</v>
+        <v>-121900</v>
       </c>
       <c r="G91" s="3">
-        <v>-161200</v>
+        <v>-161300</v>
       </c>
       <c r="H91" s="3">
         <v>-189400</v>
@@ -3708,13 +3708,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1917700</v>
+        <v>-1918200</v>
       </c>
       <c r="E94" s="3">
-        <v>-738300</v>
+        <v>-738500</v>
       </c>
       <c r="F94" s="3">
-        <v>-756400</v>
+        <v>-756600</v>
       </c>
       <c r="G94" s="3">
         <v>-126200</v>
@@ -3767,16 +3767,16 @@
         <v>-190800</v>
       </c>
       <c r="E96" s="3">
-        <v>-191400</v>
+        <v>-191500</v>
       </c>
       <c r="F96" s="3">
         <v>-192100</v>
       </c>
       <c r="G96" s="3">
-        <v>-184000</v>
+        <v>-184100</v>
       </c>
       <c r="H96" s="3">
-        <v>-179800</v>
+        <v>-179900</v>
       </c>
       <c r="I96" s="3">
         <v>-177700</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>601600</v>
+        <v>601700</v>
       </c>
       <c r="E100" s="3">
-        <v>1853800</v>
+        <v>1854200</v>
       </c>
       <c r="F100" s="3">
-        <v>543100</v>
+        <v>543200</v>
       </c>
       <c r="G100" s="3">
         <v>-220000</v>
       </c>
       <c r="H100" s="3">
-        <v>-238200</v>
+        <v>-238300</v>
       </c>
       <c r="I100" s="3">
-        <v>-82800</v>
+        <v>-82900</v>
       </c>
       <c r="J100" s="3">
-        <v>-440200</v>
+        <v>-440300</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3998,13 +3998,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1000600</v>
+        <v>-1000800</v>
       </c>
       <c r="E102" s="3">
-        <v>1375400</v>
+        <v>1375800</v>
       </c>
       <c r="F102" s="3">
-        <v>194700</v>
+        <v>194800</v>
       </c>
       <c r="G102" s="3">
         <v>4500</v>

--- a/AAII_Financials/Yearly/HYSNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HYSNY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>HYSNY</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>459900</v>
+        <v>459700</v>
       </c>
       <c r="E8" s="3">
-        <v>473000</v>
+        <v>472700</v>
       </c>
       <c r="F8" s="3">
-        <v>508400</v>
+        <v>508100</v>
       </c>
       <c r="G8" s="3">
-        <v>495900</v>
+        <v>495600</v>
       </c>
       <c r="H8" s="3">
-        <v>452300</v>
+        <v>452000</v>
       </c>
       <c r="I8" s="3">
-        <v>450600</v>
+        <v>450400</v>
       </c>
       <c r="J8" s="3">
-        <v>437300</v>
+        <v>437000</v>
       </c>
       <c r="K8" s="3">
         <v>411800</v>
@@ -765,22 +765,22 @@
         <v>63600</v>
       </c>
       <c r="E9" s="3">
-        <v>62500</v>
+        <v>62400</v>
       </c>
       <c r="F9" s="3">
         <v>68300</v>
       </c>
       <c r="G9" s="3">
-        <v>66700</v>
+        <v>66600</v>
       </c>
       <c r="H9" s="3">
         <v>57200</v>
       </c>
       <c r="I9" s="3">
-        <v>54600</v>
+        <v>54500</v>
       </c>
       <c r="J9" s="3">
-        <v>52800</v>
+        <v>52700</v>
       </c>
       <c r="K9" s="3">
         <v>51600</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>396300</v>
+        <v>396100</v>
       </c>
       <c r="E10" s="3">
-        <v>410500</v>
+        <v>410200</v>
       </c>
       <c r="F10" s="3">
-        <v>440100</v>
+        <v>439800</v>
       </c>
       <c r="G10" s="3">
-        <v>429200</v>
+        <v>429000</v>
       </c>
       <c r="H10" s="3">
-        <v>395100</v>
+        <v>394800</v>
       </c>
       <c r="I10" s="3">
-        <v>396100</v>
+        <v>395800</v>
       </c>
       <c r="J10" s="3">
-        <v>384500</v>
+        <v>384200</v>
       </c>
       <c r="K10" s="3">
         <v>360200</v>
@@ -1039,7 +1039,7 @@
         <v>87700</v>
       </c>
       <c r="H17" s="3">
-        <v>46700</v>
+        <v>46600</v>
       </c>
       <c r="I17" s="3">
         <v>76100</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>372100</v>
+        <v>371900</v>
       </c>
       <c r="E18" s="3">
-        <v>411600</v>
+        <v>411400</v>
       </c>
       <c r="F18" s="3">
-        <v>426700</v>
+        <v>426400</v>
       </c>
       <c r="G18" s="3">
-        <v>408200</v>
+        <v>407900</v>
       </c>
       <c r="H18" s="3">
-        <v>405600</v>
+        <v>405400</v>
       </c>
       <c r="I18" s="3">
-        <v>374500</v>
+        <v>374300</v>
       </c>
       <c r="J18" s="3">
-        <v>361500</v>
+        <v>361300</v>
       </c>
       <c r="K18" s="3">
         <v>341300</v>
@@ -1125,22 +1125,22 @@
         <v>-39500</v>
       </c>
       <c r="E20" s="3">
-        <v>-601700</v>
+        <v>-601300</v>
       </c>
       <c r="F20" s="3">
-        <v>319800</v>
+        <v>319600</v>
       </c>
       <c r="G20" s="3">
-        <v>484900</v>
+        <v>484600</v>
       </c>
       <c r="H20" s="3">
-        <v>135300</v>
+        <v>135200</v>
       </c>
       <c r="I20" s="3">
-        <v>-122400</v>
+        <v>-122300</v>
       </c>
       <c r="J20" s="3">
-        <v>119200</v>
+        <v>119100</v>
       </c>
       <c r="K20" s="3">
         <v>408500</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>336300</v>
+        <v>335400</v>
       </c>
       <c r="E21" s="3">
-        <v>-187000</v>
+        <v>-187200</v>
       </c>
       <c r="F21" s="3">
-        <v>749300</v>
+        <v>748200</v>
       </c>
       <c r="G21" s="3">
-        <v>895300</v>
+        <v>895400</v>
       </c>
       <c r="H21" s="3">
-        <v>543700</v>
+        <v>543400</v>
       </c>
       <c r="I21" s="3">
-        <v>255000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>483400</v>
+        <v>254700</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1200,16 +1200,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>44400</v>
+        <v>44300</v>
       </c>
       <c r="E22" s="3">
         <v>64200</v>
       </c>
       <c r="F22" s="3">
-        <v>37900</v>
+        <v>37800</v>
       </c>
       <c r="G22" s="3">
-        <v>26300</v>
+        <v>26200</v>
       </c>
       <c r="H22" s="3">
         <v>18600</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>288200</v>
+        <v>288100</v>
       </c>
       <c r="E23" s="3">
-        <v>-254300</v>
+        <v>-254200</v>
       </c>
       <c r="F23" s="3">
-        <v>708700</v>
+        <v>708200</v>
       </c>
       <c r="G23" s="3">
-        <v>866900</v>
+        <v>866300</v>
       </c>
       <c r="H23" s="3">
-        <v>522300</v>
+        <v>522000</v>
       </c>
       <c r="I23" s="3">
-        <v>230700</v>
+        <v>230600</v>
       </c>
       <c r="J23" s="3">
-        <v>455500</v>
+        <v>455200</v>
       </c>
       <c r="K23" s="3">
         <v>719900</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>242600</v>
+        <v>242400</v>
       </c>
       <c r="E26" s="3">
-        <v>-299300</v>
+        <v>-299100</v>
       </c>
       <c r="F26" s="3">
-        <v>648400</v>
+        <v>648000</v>
       </c>
       <c r="G26" s="3">
-        <v>805500</v>
+        <v>805000</v>
       </c>
       <c r="H26" s="3">
-        <v>460600</v>
+        <v>460300</v>
       </c>
       <c r="I26" s="3">
-        <v>171700</v>
+        <v>171600</v>
       </c>
       <c r="J26" s="3">
-        <v>399600</v>
+        <v>399400</v>
       </c>
       <c r="K26" s="3">
         <v>670600</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>176300</v>
+        <v>176200</v>
       </c>
       <c r="E27" s="3">
-        <v>-324700</v>
+        <v>-324500</v>
       </c>
       <c r="F27" s="3">
-        <v>617600</v>
+        <v>617300</v>
       </c>
       <c r="G27" s="3">
-        <v>769100</v>
+        <v>768600</v>
       </c>
       <c r="H27" s="3">
-        <v>463500</v>
+        <v>463200</v>
       </c>
       <c r="I27" s="3">
-        <v>155300</v>
+        <v>155200</v>
       </c>
       <c r="J27" s="3">
-        <v>370100</v>
+        <v>369800</v>
       </c>
       <c r="K27" s="3">
         <v>626200</v>
@@ -1593,22 +1593,22 @@
         <v>39500</v>
       </c>
       <c r="E32" s="3">
-        <v>601700</v>
+        <v>601300</v>
       </c>
       <c r="F32" s="3">
-        <v>-319800</v>
+        <v>-319600</v>
       </c>
       <c r="G32" s="3">
-        <v>-484900</v>
+        <v>-484600</v>
       </c>
       <c r="H32" s="3">
-        <v>-135300</v>
+        <v>-135200</v>
       </c>
       <c r="I32" s="3">
-        <v>122400</v>
+        <v>122300</v>
       </c>
       <c r="J32" s="3">
-        <v>-119200</v>
+        <v>-119100</v>
       </c>
       <c r="K32" s="3">
         <v>-408500</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>176300</v>
+        <v>176200</v>
       </c>
       <c r="E33" s="3">
-        <v>-324700</v>
+        <v>-324500</v>
       </c>
       <c r="F33" s="3">
-        <v>617600</v>
+        <v>617300</v>
       </c>
       <c r="G33" s="3">
-        <v>769100</v>
+        <v>768600</v>
       </c>
       <c r="H33" s="3">
-        <v>463500</v>
+        <v>463200</v>
       </c>
       <c r="I33" s="3">
-        <v>155300</v>
+        <v>155200</v>
       </c>
       <c r="J33" s="3">
-        <v>370100</v>
+        <v>369800</v>
       </c>
       <c r="K33" s="3">
         <v>626200</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>176300</v>
+        <v>176200</v>
       </c>
       <c r="E35" s="3">
-        <v>-324700</v>
+        <v>-324500</v>
       </c>
       <c r="F35" s="3">
-        <v>617600</v>
+        <v>617300</v>
       </c>
       <c r="G35" s="3">
-        <v>769100</v>
+        <v>768600</v>
       </c>
       <c r="H35" s="3">
-        <v>463500</v>
+        <v>463200</v>
       </c>
       <c r="I35" s="3">
-        <v>155300</v>
+        <v>155200</v>
       </c>
       <c r="J35" s="3">
-        <v>370100</v>
+        <v>369800</v>
       </c>
       <c r="K35" s="3">
         <v>626200</v>
@@ -1824,16 +1824,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>833500</v>
+        <v>832900</v>
       </c>
       <c r="E41" s="3">
-        <v>1834300</v>
+        <v>1833200</v>
       </c>
       <c r="F41" s="3">
-        <v>458500</v>
+        <v>458300</v>
       </c>
       <c r="G41" s="3">
-        <v>263800</v>
+        <v>263600</v>
       </c>
       <c r="H41" s="3">
         <v>20000</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>259700</v>
+        <v>259500</v>
       </c>
       <c r="E42" s="3">
-        <v>1344400</v>
+        <v>1343600</v>
       </c>
       <c r="F42" s="3">
-        <v>731100</v>
+        <v>730600</v>
       </c>
       <c r="G42" s="3">
-        <v>124300</v>
+        <v>124200</v>
       </c>
       <c r="H42" s="3">
-        <v>384400</v>
+        <v>384100</v>
       </c>
       <c r="I42" s="3">
-        <v>379800</v>
+        <v>379500</v>
       </c>
       <c r="J42" s="3">
-        <v>402700</v>
+        <v>402500</v>
       </c>
       <c r="K42" s="3">
         <v>403500</v>
@@ -1917,7 +1917,7 @@
         <v>28800</v>
       </c>
       <c r="I43" s="3">
-        <v>154800</v>
+        <v>154700</v>
       </c>
       <c r="J43" s="3">
         <v>25600</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1211200</v>
+        <v>1210400</v>
       </c>
       <c r="E46" s="3">
-        <v>3238200</v>
+        <v>3236200</v>
       </c>
       <c r="F46" s="3">
-        <v>1229700</v>
+        <v>1228900</v>
       </c>
       <c r="G46" s="3">
-        <v>413900</v>
+        <v>413700</v>
       </c>
       <c r="H46" s="3">
-        <v>433200</v>
+        <v>432900</v>
       </c>
       <c r="I46" s="3">
-        <v>544600</v>
+        <v>544300</v>
       </c>
       <c r="J46" s="3">
-        <v>436100</v>
+        <v>435800</v>
       </c>
       <c r="K46" s="3">
         <v>437000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1328700</v>
+        <v>1327900</v>
       </c>
       <c r="E47" s="3">
-        <v>979300</v>
+        <v>978700</v>
       </c>
       <c r="F47" s="3">
-        <v>879100</v>
+        <v>878600</v>
       </c>
       <c r="G47" s="3">
-        <v>677200</v>
+        <v>676700</v>
       </c>
       <c r="H47" s="3">
-        <v>698300</v>
+        <v>697900</v>
       </c>
       <c r="I47" s="3">
-        <v>686200</v>
+        <v>685800</v>
       </c>
       <c r="J47" s="3">
-        <v>618500</v>
+        <v>618100</v>
       </c>
       <c r="K47" s="3">
         <v>619800</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12184400</v>
+        <v>12176800</v>
       </c>
       <c r="E48" s="3">
-        <v>9666400</v>
+        <v>9660400</v>
       </c>
       <c r="F48" s="3">
-        <v>10184600</v>
+        <v>10178200</v>
       </c>
       <c r="G48" s="3">
-        <v>9967500</v>
+        <v>9961300</v>
       </c>
       <c r="H48" s="3">
-        <v>9334200</v>
+        <v>9328400</v>
       </c>
       <c r="I48" s="3">
-        <v>8968600</v>
+        <v>8963000</v>
       </c>
       <c r="J48" s="3">
-        <v>8989300</v>
+        <v>8983600</v>
       </c>
       <c r="K48" s="3">
         <v>9007600</v>
@@ -2253,10 +2253,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>238400</v>
+        <v>238200</v>
       </c>
       <c r="E52" s="3">
-        <v>107600</v>
+        <v>107500</v>
       </c>
       <c r="F52" s="3">
         <v>77500</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14962700</v>
+        <v>14953300</v>
       </c>
       <c r="E54" s="3">
-        <v>13991600</v>
+        <v>13982800</v>
       </c>
       <c r="F54" s="3">
-        <v>12371000</v>
+        <v>12363300</v>
       </c>
       <c r="G54" s="3">
-        <v>11096200</v>
+        <v>11089300</v>
       </c>
       <c r="H54" s="3">
-        <v>10468700</v>
+        <v>10462100</v>
       </c>
       <c r="I54" s="3">
-        <v>10201100</v>
+        <v>10194700</v>
       </c>
       <c r="J54" s="3">
-        <v>10043900</v>
+        <v>10037600</v>
       </c>
       <c r="K54" s="3">
         <v>10064400</v>
@@ -2410,10 +2410,10 @@
         <v>35300</v>
       </c>
       <c r="F57" s="3">
-        <v>40700</v>
+        <v>40600</v>
       </c>
       <c r="G57" s="3">
-        <v>32800</v>
+        <v>32700</v>
       </c>
       <c r="H57" s="3">
         <v>27400</v>
@@ -2443,7 +2443,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>67700</v>
+        <v>67600</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2458,7 +2458,7 @@
         <v>19100</v>
       </c>
       <c r="I58" s="3">
-        <v>150400</v>
+        <v>150300</v>
       </c>
       <c r="J58" s="3">
         <v>31900</v>
@@ -2482,22 +2482,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>154600</v>
+        <v>154500</v>
       </c>
       <c r="E59" s="3">
-        <v>162500</v>
+        <v>162400</v>
       </c>
       <c r="F59" s="3">
-        <v>199800</v>
+        <v>199600</v>
       </c>
       <c r="G59" s="3">
-        <v>162900</v>
+        <v>162800</v>
       </c>
       <c r="H59" s="3">
-        <v>178000</v>
+        <v>177900</v>
       </c>
       <c r="I59" s="3">
-        <v>199400</v>
+        <v>199300</v>
       </c>
       <c r="J59" s="3">
         <v>126300</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>246900</v>
+        <v>246800</v>
       </c>
       <c r="E60" s="3">
-        <v>197800</v>
+        <v>197700</v>
       </c>
       <c r="F60" s="3">
-        <v>312500</v>
+        <v>312300</v>
       </c>
       <c r="G60" s="3">
-        <v>233900</v>
+        <v>233800</v>
       </c>
       <c r="H60" s="3">
-        <v>224500</v>
+        <v>224400</v>
       </c>
       <c r="I60" s="3">
-        <v>368800</v>
+        <v>368600</v>
       </c>
       <c r="J60" s="3">
-        <v>186500</v>
+        <v>186400</v>
       </c>
       <c r="K60" s="3">
         <v>186900</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2310700</v>
+        <v>2309300</v>
       </c>
       <c r="E61" s="3">
-        <v>2418300</v>
+        <v>2416800</v>
       </c>
       <c r="F61" s="3">
-        <v>1525200</v>
+        <v>1524200</v>
       </c>
       <c r="G61" s="3">
-        <v>767700</v>
+        <v>767200</v>
       </c>
       <c r="H61" s="3">
-        <v>769300</v>
+        <v>768900</v>
       </c>
       <c r="I61" s="3">
-        <v>651800</v>
+        <v>651400</v>
       </c>
       <c r="J61" s="3">
-        <v>587600</v>
+        <v>587200</v>
       </c>
       <c r="K61" s="3">
         <v>588800</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1201500</v>
+        <v>1200700</v>
       </c>
       <c r="E62" s="3">
-        <v>227400</v>
+        <v>227300</v>
       </c>
       <c r="F62" s="3">
-        <v>211100</v>
+        <v>211000</v>
       </c>
       <c r="G62" s="3">
-        <v>197500</v>
+        <v>197300</v>
       </c>
       <c r="H62" s="3">
-        <v>168700</v>
+        <v>168600</v>
       </c>
       <c r="I62" s="3">
-        <v>169500</v>
+        <v>169400</v>
       </c>
       <c r="J62" s="3">
-        <v>171800</v>
+        <v>171700</v>
       </c>
       <c r="K62" s="3">
         <v>172200</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4187200</v>
+        <v>4184600</v>
       </c>
       <c r="E66" s="3">
-        <v>3240300</v>
+        <v>3238300</v>
       </c>
       <c r="F66" s="3">
-        <v>2472200</v>
+        <v>2470700</v>
       </c>
       <c r="G66" s="3">
-        <v>1607800</v>
+        <v>1606800</v>
       </c>
       <c r="H66" s="3">
-        <v>1551000</v>
+        <v>1550100</v>
       </c>
       <c r="I66" s="3">
-        <v>1597500</v>
+        <v>1596400</v>
       </c>
       <c r="J66" s="3">
-        <v>1353300</v>
+        <v>1352500</v>
       </c>
       <c r="K66" s="3">
         <v>1356100</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8286200</v>
+        <v>8281000</v>
       </c>
       <c r="E72" s="3">
-        <v>8318600</v>
+        <v>8313400</v>
       </c>
       <c r="F72" s="3">
-        <v>8853400</v>
+        <v>8847800</v>
       </c>
       <c r="G72" s="3">
-        <v>8438900</v>
+        <v>8433600</v>
       </c>
       <c r="H72" s="3">
-        <v>7854800</v>
+        <v>7849900</v>
       </c>
       <c r="I72" s="3">
-        <v>7571700</v>
+        <v>7566900</v>
       </c>
       <c r="J72" s="3">
-        <v>7644700</v>
+        <v>7639900</v>
       </c>
       <c r="K72" s="3">
         <v>7660300</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10775500</v>
+        <v>10768700</v>
       </c>
       <c r="E76" s="3">
-        <v>10751300</v>
+        <v>10744500</v>
       </c>
       <c r="F76" s="3">
-        <v>9898800</v>
+        <v>9892600</v>
       </c>
       <c r="G76" s="3">
-        <v>9488500</v>
+        <v>9482500</v>
       </c>
       <c r="H76" s="3">
-        <v>8917600</v>
+        <v>8912000</v>
       </c>
       <c r="I76" s="3">
-        <v>8603600</v>
+        <v>8598200</v>
       </c>
       <c r="J76" s="3">
-        <v>8690600</v>
+        <v>8685100</v>
       </c>
       <c r="K76" s="3">
         <v>8708300</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>176300</v>
+        <v>176200</v>
       </c>
       <c r="E81" s="3">
-        <v>-324700</v>
+        <v>-324500</v>
       </c>
       <c r="F81" s="3">
-        <v>617600</v>
+        <v>617300</v>
       </c>
       <c r="G81" s="3">
-        <v>769100</v>
+        <v>768600</v>
       </c>
       <c r="H81" s="3">
-        <v>463500</v>
+        <v>463200</v>
       </c>
       <c r="I81" s="3">
-        <v>155300</v>
+        <v>155200</v>
       </c>
       <c r="J81" s="3">
-        <v>370100</v>
+        <v>369800</v>
       </c>
       <c r="K81" s="3">
         <v>626200</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3700</v>
+        <v>3100</v>
       </c>
       <c r="E83" s="3">
-        <v>3100</v>
+        <v>2800</v>
       </c>
       <c r="F83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G83" s="3">
         <v>2800</v>
-      </c>
-      <c r="G83" s="3">
-        <v>2200</v>
       </c>
       <c r="H83" s="3">
         <v>2800</v>
       </c>
       <c r="I83" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J83" s="3">
         <v>2700</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>315600</v>
+        <v>259900</v>
       </c>
       <c r="E89" s="3">
-        <v>260100</v>
+        <v>407900</v>
       </c>
       <c r="F89" s="3">
-        <v>408200</v>
+        <v>350500</v>
       </c>
       <c r="G89" s="3">
-        <v>350700</v>
+        <v>317200</v>
       </c>
       <c r="H89" s="3">
-        <v>317400</v>
+        <v>371900</v>
       </c>
       <c r="I89" s="3">
-        <v>372100</v>
+        <v>323600</v>
       </c>
       <c r="J89" s="3">
-        <v>323800</v>
+        <v>305100</v>
       </c>
       <c r="K89" s="3">
         <v>305900</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2847100</v>
+        <v>-116300</v>
       </c>
       <c r="E91" s="3">
-        <v>-116400</v>
+        <v>-121800</v>
       </c>
       <c r="F91" s="3">
-        <v>-121900</v>
+        <v>-161200</v>
       </c>
       <c r="G91" s="3">
-        <v>-161300</v>
+        <v>-189300</v>
       </c>
       <c r="H91" s="3">
-        <v>-189400</v>
+        <v>-107900</v>
       </c>
       <c r="I91" s="3">
-        <v>-108000</v>
+        <v>-52700</v>
       </c>
       <c r="J91" s="3">
-        <v>-52800</v>
+        <v>-45700</v>
       </c>
       <c r="K91" s="3">
         <v>-45900</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1918200</v>
+        <v>-738000</v>
       </c>
       <c r="E94" s="3">
-        <v>-738500</v>
+        <v>-756100</v>
       </c>
       <c r="F94" s="3">
-        <v>-756600</v>
+        <v>-126100</v>
       </c>
       <c r="G94" s="3">
-        <v>-126200</v>
+        <v>5900</v>
       </c>
       <c r="H94" s="3">
-        <v>5900</v>
+        <v>-189300</v>
       </c>
       <c r="I94" s="3">
-        <v>-189400</v>
-      </c>
-      <c r="J94" s="3">
         <v>117500</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-190800</v>
+        <v>-191400</v>
       </c>
       <c r="E96" s="3">
-        <v>-191500</v>
+        <v>-192000</v>
       </c>
       <c r="F96" s="3">
-        <v>-192100</v>
+        <v>-184000</v>
       </c>
       <c r="G96" s="3">
-        <v>-184100</v>
+        <v>-179800</v>
       </c>
       <c r="H96" s="3">
-        <v>-179900</v>
+        <v>-177600</v>
       </c>
       <c r="I96" s="3">
-        <v>-177700</v>
+        <v>-169400</v>
       </c>
       <c r="J96" s="3">
-        <v>-169500</v>
+        <v>-159900</v>
       </c>
       <c r="K96" s="3">
         <v>-160300</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>601700</v>
+        <v>1853000</v>
       </c>
       <c r="E100" s="3">
-        <v>1854200</v>
+        <v>542900</v>
       </c>
       <c r="F100" s="3">
-        <v>543200</v>
+        <v>-219900</v>
       </c>
       <c r="G100" s="3">
-        <v>-220000</v>
+        <v>-238100</v>
       </c>
       <c r="H100" s="3">
-        <v>-238300</v>
+        <v>-82800</v>
       </c>
       <c r="I100" s="3">
-        <v>-82900</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-440300</v>
+        <v>-440000</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3976,8 +3976,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1000800</v>
+        <v>1374900</v>
       </c>
       <c r="E102" s="3">
-        <v>1375800</v>
+        <v>194700</v>
       </c>
       <c r="F102" s="3">
-        <v>194800</v>
+        <v>4500</v>
       </c>
       <c r="G102" s="3">
-        <v>4500</v>
+        <v>85000</v>
       </c>
       <c r="H102" s="3">
-        <v>85000</v>
+        <v>99800</v>
       </c>
       <c r="I102" s="3">
-        <v>99800</v>
+        <v>1000</v>
       </c>
       <c r="J102" s="3">
-        <v>1000</v>
+        <v>-5700</v>
       </c>
       <c r="K102" s="3">
         <v>-5700</v>

--- a/AAII_Financials/Yearly/HYSNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HYSNY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>HYSNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>459700</v>
+        <v>442100</v>
       </c>
       <c r="E8" s="3">
-        <v>472700</v>
+        <v>461000</v>
       </c>
       <c r="F8" s="3">
-        <v>508100</v>
+        <v>474000</v>
       </c>
       <c r="G8" s="3">
-        <v>495600</v>
+        <v>509500</v>
       </c>
       <c r="H8" s="3">
-        <v>452000</v>
+        <v>497000</v>
       </c>
       <c r="I8" s="3">
-        <v>450400</v>
+        <v>453300</v>
       </c>
       <c r="J8" s="3">
+        <v>451700</v>
+      </c>
+      <c r="K8" s="3">
         <v>437000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>411800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>394300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>320200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>246000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>63600</v>
+        <v>72400</v>
       </c>
       <c r="E9" s="3">
-        <v>62400</v>
+        <v>63800</v>
       </c>
       <c r="F9" s="3">
-        <v>68300</v>
+        <v>62600</v>
       </c>
       <c r="G9" s="3">
-        <v>66600</v>
+        <v>68500</v>
       </c>
       <c r="H9" s="3">
-        <v>57200</v>
+        <v>66800</v>
       </c>
       <c r="I9" s="3">
+        <v>57400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>54700</v>
+      </c>
+      <c r="K9" s="3">
+        <v>52700</v>
+      </c>
+      <c r="L9" s="3">
+        <v>51600</v>
+      </c>
+      <c r="M9" s="3">
+        <v>52100</v>
+      </c>
+      <c r="N9" s="3">
         <v>54500</v>
       </c>
-      <c r="J9" s="3">
-        <v>52700</v>
-      </c>
-      <c r="K9" s="3">
-        <v>51600</v>
-      </c>
-      <c r="L9" s="3">
-        <v>52100</v>
-      </c>
-      <c r="M9" s="3">
-        <v>54500</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>33500</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>396100</v>
+        <v>369600</v>
       </c>
       <c r="E10" s="3">
-        <v>410200</v>
+        <v>397200</v>
       </c>
       <c r="F10" s="3">
-        <v>439800</v>
+        <v>411400</v>
       </c>
       <c r="G10" s="3">
-        <v>429000</v>
+        <v>441100</v>
       </c>
       <c r="H10" s="3">
-        <v>394800</v>
+        <v>430200</v>
       </c>
       <c r="I10" s="3">
-        <v>395800</v>
+        <v>396000</v>
       </c>
       <c r="J10" s="3">
+        <v>397000</v>
+      </c>
+      <c r="K10" s="3">
         <v>384200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>360200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>342200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>265700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>212500</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,9 +944,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,9 +986,12 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,9 +1028,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>87800</v>
+        <v>83400</v>
       </c>
       <c r="E17" s="3">
-        <v>61300</v>
+        <v>88000</v>
       </c>
       <c r="F17" s="3">
-        <v>81700</v>
+        <v>61500</v>
       </c>
       <c r="G17" s="3">
-        <v>87700</v>
+        <v>81900</v>
       </c>
       <c r="H17" s="3">
-        <v>46600</v>
+        <v>87900</v>
       </c>
       <c r="I17" s="3">
-        <v>76100</v>
+        <v>46800</v>
       </c>
       <c r="J17" s="3">
+        <v>76300</v>
+      </c>
+      <c r="K17" s="3">
         <v>75700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>70500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-519900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-1052700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>-932500</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>371900</v>
+        <v>358700</v>
       </c>
       <c r="E18" s="3">
-        <v>411400</v>
+        <v>373000</v>
       </c>
       <c r="F18" s="3">
-        <v>426400</v>
+        <v>412600</v>
       </c>
       <c r="G18" s="3">
-        <v>407900</v>
+        <v>427600</v>
       </c>
       <c r="H18" s="3">
-        <v>405400</v>
+        <v>409100</v>
       </c>
       <c r="I18" s="3">
-        <v>374300</v>
+        <v>406600</v>
       </c>
       <c r="J18" s="3">
+        <v>375400</v>
+      </c>
+      <c r="K18" s="3">
         <v>361300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>341300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>914200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1372900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1178500</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,70 +1148,74 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-39500</v>
+        <v>-384100</v>
       </c>
       <c r="E20" s="3">
-        <v>-601300</v>
+        <v>-39600</v>
       </c>
       <c r="F20" s="3">
-        <v>319600</v>
+        <v>-603100</v>
       </c>
       <c r="G20" s="3">
-        <v>484600</v>
+        <v>320600</v>
       </c>
       <c r="H20" s="3">
-        <v>135200</v>
+        <v>486000</v>
       </c>
       <c r="I20" s="3">
-        <v>-122300</v>
+        <v>135600</v>
       </c>
       <c r="J20" s="3">
+        <v>-122700</v>
+      </c>
+      <c r="K20" s="3">
         <v>119100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>408500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>40000</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>335400</v>
+        <v>-21300</v>
       </c>
       <c r="E21" s="3">
-        <v>-187200</v>
+        <v>337100</v>
       </c>
       <c r="F21" s="3">
-        <v>748200</v>
+        <v>-187400</v>
       </c>
       <c r="G21" s="3">
-        <v>895400</v>
+        <v>751000</v>
       </c>
       <c r="H21" s="3">
-        <v>543400</v>
+        <v>897300</v>
       </c>
       <c r="I21" s="3">
-        <v>254700</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>544900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>255500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1187,132 +1223,144 @@
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>1374300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1179500</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>44300</v>
+        <v>52100</v>
       </c>
       <c r="E22" s="3">
-        <v>64200</v>
+        <v>44500</v>
       </c>
       <c r="F22" s="3">
-        <v>37800</v>
+        <v>64400</v>
       </c>
       <c r="G22" s="3">
-        <v>26200</v>
+        <v>37900</v>
       </c>
       <c r="H22" s="3">
-        <v>18600</v>
+        <v>26300</v>
       </c>
       <c r="I22" s="3">
-        <v>21400</v>
+        <v>18700</v>
       </c>
       <c r="J22" s="3">
+        <v>21500</v>
+      </c>
+      <c r="K22" s="3">
         <v>25200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>29900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>31400</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>288100</v>
+        <v>-77600</v>
       </c>
       <c r="E23" s="3">
-        <v>-254200</v>
+        <v>288900</v>
       </c>
       <c r="F23" s="3">
-        <v>708200</v>
+        <v>-254900</v>
       </c>
       <c r="G23" s="3">
-        <v>866300</v>
+        <v>710300</v>
       </c>
       <c r="H23" s="3">
-        <v>522000</v>
+        <v>868800</v>
       </c>
       <c r="I23" s="3">
-        <v>230600</v>
+        <v>523500</v>
       </c>
       <c r="J23" s="3">
+        <v>231300</v>
+      </c>
+      <c r="K23" s="3">
         <v>455200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>719900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>922900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1372900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1178500</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>45600</v>
+        <v>43700</v>
       </c>
       <c r="E24" s="3">
-        <v>45000</v>
+        <v>45700</v>
       </c>
       <c r="F24" s="3">
-        <v>60300</v>
+        <v>45100</v>
       </c>
       <c r="G24" s="3">
-        <v>61300</v>
+        <v>60400</v>
       </c>
       <c r="H24" s="3">
-        <v>61700</v>
+        <v>61500</v>
       </c>
       <c r="I24" s="3">
-        <v>59000</v>
+        <v>61800</v>
       </c>
       <c r="J24" s="3">
+        <v>59200</v>
+      </c>
+      <c r="K24" s="3">
         <v>55800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>49300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>47900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>37200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>27800</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>242400</v>
+        <v>-121300</v>
       </c>
       <c r="E26" s="3">
-        <v>-299100</v>
+        <v>243100</v>
       </c>
       <c r="F26" s="3">
-        <v>648000</v>
+        <v>-300000</v>
       </c>
       <c r="G26" s="3">
-        <v>805000</v>
+        <v>649800</v>
       </c>
       <c r="H26" s="3">
-        <v>460300</v>
+        <v>807400</v>
       </c>
       <c r="I26" s="3">
-        <v>171600</v>
+        <v>461600</v>
       </c>
       <c r="J26" s="3">
+        <v>172100</v>
+      </c>
+      <c r="K26" s="3">
         <v>399400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>670600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>875000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1335700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1150700</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>176200</v>
+        <v>-147800</v>
       </c>
       <c r="E27" s="3">
-        <v>-324500</v>
+        <v>176700</v>
       </c>
       <c r="F27" s="3">
-        <v>617300</v>
+        <v>-325400</v>
       </c>
       <c r="G27" s="3">
-        <v>768600</v>
+        <v>619000</v>
       </c>
       <c r="H27" s="3">
-        <v>463200</v>
+        <v>770800</v>
       </c>
       <c r="I27" s="3">
-        <v>155200</v>
+        <v>464600</v>
       </c>
       <c r="J27" s="3">
+        <v>155600</v>
+      </c>
+      <c r="K27" s="3">
         <v>369800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>626200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>792700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1282100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1093800</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>39500</v>
+        <v>384100</v>
       </c>
       <c r="E32" s="3">
-        <v>601300</v>
+        <v>39600</v>
       </c>
       <c r="F32" s="3">
-        <v>-319600</v>
+        <v>603100</v>
       </c>
       <c r="G32" s="3">
-        <v>-484600</v>
+        <v>-320600</v>
       </c>
       <c r="H32" s="3">
-        <v>-135200</v>
+        <v>-486000</v>
       </c>
       <c r="I32" s="3">
-        <v>122300</v>
+        <v>-135600</v>
       </c>
       <c r="J32" s="3">
+        <v>122700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-119100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-408500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-40000</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>176200</v>
+        <v>-147800</v>
       </c>
       <c r="E33" s="3">
-        <v>-324500</v>
+        <v>176700</v>
       </c>
       <c r="F33" s="3">
-        <v>617300</v>
+        <v>-325400</v>
       </c>
       <c r="G33" s="3">
-        <v>768600</v>
+        <v>619000</v>
       </c>
       <c r="H33" s="3">
-        <v>463200</v>
+        <v>770800</v>
       </c>
       <c r="I33" s="3">
-        <v>155200</v>
+        <v>464600</v>
       </c>
       <c r="J33" s="3">
+        <v>155600</v>
+      </c>
+      <c r="K33" s="3">
         <v>369800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>626200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>792700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1282100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1093800</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>176200</v>
+        <v>-147800</v>
       </c>
       <c r="E35" s="3">
-        <v>-324500</v>
+        <v>176700</v>
       </c>
       <c r="F35" s="3">
-        <v>617300</v>
+        <v>-325400</v>
       </c>
       <c r="G35" s="3">
-        <v>768600</v>
+        <v>619000</v>
       </c>
       <c r="H35" s="3">
-        <v>463200</v>
+        <v>770800</v>
       </c>
       <c r="I35" s="3">
-        <v>155200</v>
+        <v>464600</v>
       </c>
       <c r="J35" s="3">
+        <v>155600</v>
+      </c>
+      <c r="K35" s="3">
         <v>369800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>626200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>792700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1282100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1093800</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,125 +1903,135 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>832900</v>
+        <v>327100</v>
       </c>
       <c r="E41" s="3">
-        <v>1833200</v>
+        <v>835400</v>
       </c>
       <c r="F41" s="3">
-        <v>458300</v>
+        <v>1838500</v>
       </c>
       <c r="G41" s="3">
-        <v>263600</v>
+        <v>459600</v>
       </c>
       <c r="H41" s="3">
-        <v>20000</v>
+        <v>264400</v>
       </c>
       <c r="I41" s="3">
+        <v>20100</v>
+      </c>
+      <c r="J41" s="3">
         <v>10100</v>
-      </c>
-      <c r="J41" s="3">
-        <v>7800</v>
       </c>
       <c r="K41" s="3">
         <v>7800</v>
       </c>
       <c r="L41" s="3">
+        <v>7800</v>
+      </c>
+      <c r="M41" s="3">
         <v>10400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>19700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7900</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>259500</v>
+        <v>667700</v>
       </c>
       <c r="E42" s="3">
-        <v>1343600</v>
+        <v>260300</v>
       </c>
       <c r="F42" s="3">
-        <v>730600</v>
+        <v>1347500</v>
       </c>
       <c r="G42" s="3">
-        <v>124200</v>
+        <v>732800</v>
       </c>
       <c r="H42" s="3">
-        <v>384100</v>
+        <v>124600</v>
       </c>
       <c r="I42" s="3">
-        <v>379500</v>
+        <v>385200</v>
       </c>
       <c r="J42" s="3">
+        <v>380600</v>
+      </c>
+      <c r="K42" s="3">
         <v>402500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>403500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>604900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>355600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>436000</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>118000</v>
+        <v>71800</v>
       </c>
       <c r="E43" s="3">
-        <v>59500</v>
+        <v>118300</v>
       </c>
       <c r="F43" s="3">
-        <v>40000</v>
+        <v>59700</v>
       </c>
       <c r="G43" s="3">
+        <v>40100</v>
+      </c>
+      <c r="H43" s="3">
         <v>25900</v>
       </c>
-      <c r="H43" s="3">
-        <v>28800</v>
-      </c>
       <c r="I43" s="3">
-        <v>154700</v>
+        <v>28900</v>
       </c>
       <c r="J43" s="3">
+        <v>155100</v>
+      </c>
+      <c r="K43" s="3">
         <v>25600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>25700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>31000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>20600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>17200</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1973,9 +2068,12 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2012,126 +2110,138 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1210400</v>
+        <v>1066600</v>
       </c>
       <c r="E46" s="3">
-        <v>3236200</v>
+        <v>1213900</v>
       </c>
       <c r="F46" s="3">
-        <v>1228900</v>
+        <v>3245600</v>
       </c>
       <c r="G46" s="3">
-        <v>413700</v>
+        <v>1232500</v>
       </c>
       <c r="H46" s="3">
-        <v>432900</v>
+        <v>414900</v>
       </c>
       <c r="I46" s="3">
-        <v>544300</v>
+        <v>434200</v>
       </c>
       <c r="J46" s="3">
+        <v>545800</v>
+      </c>
+      <c r="K46" s="3">
         <v>435800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>437000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>646400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>395900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>461100</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1327900</v>
+        <v>1440700</v>
       </c>
       <c r="E47" s="3">
-        <v>978700</v>
+        <v>1331700</v>
       </c>
       <c r="F47" s="3">
-        <v>878600</v>
+        <v>981500</v>
       </c>
       <c r="G47" s="3">
-        <v>676700</v>
+        <v>881100</v>
       </c>
       <c r="H47" s="3">
-        <v>697900</v>
+        <v>678700</v>
       </c>
       <c r="I47" s="3">
-        <v>685800</v>
+        <v>699900</v>
       </c>
       <c r="J47" s="3">
+        <v>687800</v>
+      </c>
+      <c r="K47" s="3">
         <v>618100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>619800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>652100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>611400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>674200</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12176800</v>
+        <v>12446100</v>
       </c>
       <c r="E48" s="3">
-        <v>9660400</v>
+        <v>12212100</v>
       </c>
       <c r="F48" s="3">
-        <v>10178200</v>
+        <v>9688400</v>
       </c>
       <c r="G48" s="3">
-        <v>9961300</v>
+        <v>10207800</v>
       </c>
       <c r="H48" s="3">
-        <v>9328400</v>
+        <v>9990200</v>
       </c>
       <c r="I48" s="3">
-        <v>8963000</v>
+        <v>9355400</v>
       </c>
       <c r="J48" s="3">
+        <v>8989000</v>
+      </c>
+      <c r="K48" s="3">
         <v>8983600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9007600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8486700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7804900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6463900</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2141,8 +2251,8 @@
       <c r="E49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="3">
-        <v>100</v>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G49" s="3">
         <v>100</v>
@@ -2153,8 +2263,8 @@
       <c r="I49" s="3">
         <v>100</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
+      <c r="J49" s="3">
+        <v>100</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
@@ -2168,9 +2278,12 @@
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>238200</v>
+        <v>272300</v>
       </c>
       <c r="E52" s="3">
-        <v>107500</v>
+        <v>238900</v>
       </c>
       <c r="F52" s="3">
-        <v>77500</v>
+        <v>107800</v>
       </c>
       <c r="G52" s="3">
-        <v>37500</v>
+        <v>77700</v>
       </c>
       <c r="H52" s="3">
+        <v>37600</v>
+      </c>
+      <c r="I52" s="3">
         <v>2800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1500</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3">
         <v>10400</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14953300</v>
+        <v>15225700</v>
       </c>
       <c r="E54" s="3">
-        <v>13982800</v>
+        <v>14996700</v>
       </c>
       <c r="F54" s="3">
-        <v>12363300</v>
+        <v>14023400</v>
       </c>
       <c r="G54" s="3">
-        <v>11089300</v>
+        <v>12399200</v>
       </c>
       <c r="H54" s="3">
-        <v>10462100</v>
+        <v>11121500</v>
       </c>
       <c r="I54" s="3">
-        <v>10194700</v>
+        <v>10492500</v>
       </c>
       <c r="J54" s="3">
+        <v>10224300</v>
+      </c>
+      <c r="K54" s="3">
         <v>10037600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10064400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9795600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8812200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7599100</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>24600</v>
+        <v>37700</v>
       </c>
       <c r="E57" s="3">
-        <v>35300</v>
+        <v>24700</v>
       </c>
       <c r="F57" s="3">
-        <v>40600</v>
+        <v>35400</v>
       </c>
       <c r="G57" s="3">
-        <v>32700</v>
+        <v>40800</v>
       </c>
       <c r="H57" s="3">
-        <v>27400</v>
+        <v>32800</v>
       </c>
       <c r="I57" s="3">
+        <v>27500</v>
+      </c>
+      <c r="J57" s="3">
         <v>19000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>28300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>28400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>20900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>60400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>68100</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>67600</v>
+        <v>414500</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>67800</v>
       </c>
       <c r="F58" s="3">
-        <v>72000</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>38200</v>
+        <v>72200</v>
       </c>
       <c r="H58" s="3">
-        <v>19100</v>
+        <v>38300</v>
       </c>
       <c r="I58" s="3">
-        <v>150300</v>
+        <v>19200</v>
       </c>
       <c r="J58" s="3">
-        <v>31900</v>
+        <v>150800</v>
       </c>
       <c r="K58" s="3">
         <v>31900</v>
       </c>
       <c r="L58" s="3">
+        <v>31900</v>
+      </c>
+      <c r="M58" s="3">
         <v>135800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>90000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>192900</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>154500</v>
+        <v>174300</v>
       </c>
       <c r="E59" s="3">
-        <v>162400</v>
+        <v>155000</v>
       </c>
       <c r="F59" s="3">
-        <v>199600</v>
+        <v>162900</v>
       </c>
       <c r="G59" s="3">
-        <v>162800</v>
+        <v>200200</v>
       </c>
       <c r="H59" s="3">
-        <v>177900</v>
+        <v>163300</v>
       </c>
       <c r="I59" s="3">
-        <v>199300</v>
+        <v>178400</v>
       </c>
       <c r="J59" s="3">
+        <v>199800</v>
+      </c>
+      <c r="K59" s="3">
         <v>126300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>126600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>129200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>77100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>75400</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>246800</v>
+        <v>626500</v>
       </c>
       <c r="E60" s="3">
-        <v>197700</v>
+        <v>247500</v>
       </c>
       <c r="F60" s="3">
-        <v>312300</v>
+        <v>198300</v>
       </c>
       <c r="G60" s="3">
-        <v>233800</v>
+        <v>313200</v>
       </c>
       <c r="H60" s="3">
-        <v>224400</v>
+        <v>234500</v>
       </c>
       <c r="I60" s="3">
-        <v>368600</v>
+        <v>225000</v>
       </c>
       <c r="J60" s="3">
+        <v>369600</v>
+      </c>
+      <c r="K60" s="3">
         <v>186400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>186900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>285900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>227600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>336400</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2309300</v>
+        <v>3070700</v>
       </c>
       <c r="E61" s="3">
-        <v>2416800</v>
+        <v>2316000</v>
       </c>
       <c r="F61" s="3">
-        <v>1524200</v>
+        <v>2423800</v>
       </c>
       <c r="G61" s="3">
-        <v>767200</v>
+        <v>1528600</v>
       </c>
       <c r="H61" s="3">
-        <v>768900</v>
+        <v>769400</v>
       </c>
       <c r="I61" s="3">
-        <v>651400</v>
+        <v>771100</v>
       </c>
       <c r="J61" s="3">
+        <v>653300</v>
+      </c>
+      <c r="K61" s="3">
         <v>587200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>588800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>830200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>675100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>660000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1200700</v>
+        <v>871100</v>
       </c>
       <c r="E62" s="3">
-        <v>227300</v>
+        <v>1204200</v>
       </c>
       <c r="F62" s="3">
-        <v>211000</v>
+        <v>227900</v>
       </c>
       <c r="G62" s="3">
-        <v>197300</v>
+        <v>211600</v>
       </c>
       <c r="H62" s="3">
-        <v>168600</v>
+        <v>197900</v>
       </c>
       <c r="I62" s="3">
-        <v>169400</v>
+        <v>169000</v>
       </c>
       <c r="J62" s="3">
+        <v>169900</v>
+      </c>
+      <c r="K62" s="3">
         <v>171700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>172200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>160000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>124500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>107500</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4184600</v>
+        <v>4949900</v>
       </c>
       <c r="E66" s="3">
-        <v>3238300</v>
+        <v>4196700</v>
       </c>
       <c r="F66" s="3">
-        <v>2470700</v>
+        <v>3247700</v>
       </c>
       <c r="G66" s="3">
-        <v>1606800</v>
+        <v>2477800</v>
       </c>
       <c r="H66" s="3">
-        <v>1550100</v>
+        <v>1611400</v>
       </c>
       <c r="I66" s="3">
-        <v>1596400</v>
+        <v>1554600</v>
       </c>
       <c r="J66" s="3">
+        <v>1601100</v>
+      </c>
+      <c r="K66" s="3">
         <v>1352500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1356100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1643600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1326500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1358700</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8281000</v>
+        <v>7951000</v>
       </c>
       <c r="E72" s="3">
-        <v>8313400</v>
+        <v>8305000</v>
       </c>
       <c r="F72" s="3">
-        <v>8847800</v>
+        <v>8337500</v>
       </c>
       <c r="G72" s="3">
-        <v>8433600</v>
+        <v>8873500</v>
       </c>
       <c r="H72" s="3">
-        <v>7849900</v>
+        <v>8458100</v>
       </c>
       <c r="I72" s="3">
-        <v>7566900</v>
+        <v>7872700</v>
       </c>
       <c r="J72" s="3">
+        <v>7588900</v>
+      </c>
+      <c r="K72" s="3">
         <v>7639900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7660300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7104900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6448300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5123700</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10768700</v>
+        <v>10275800</v>
       </c>
       <c r="E76" s="3">
-        <v>10744500</v>
+        <v>10800000</v>
       </c>
       <c r="F76" s="3">
-        <v>9892600</v>
+        <v>10775700</v>
       </c>
       <c r="G76" s="3">
-        <v>9482500</v>
+        <v>9921300</v>
       </c>
       <c r="H76" s="3">
-        <v>8912000</v>
+        <v>9510000</v>
       </c>
       <c r="I76" s="3">
-        <v>8598200</v>
+        <v>8937900</v>
       </c>
       <c r="J76" s="3">
+        <v>8623200</v>
+      </c>
+      <c r="K76" s="3">
         <v>8685100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8708300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8152000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7485700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6240400</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>176200</v>
+        <v>-147800</v>
       </c>
       <c r="E81" s="3">
-        <v>-324500</v>
+        <v>176700</v>
       </c>
       <c r="F81" s="3">
-        <v>617300</v>
+        <v>-325400</v>
       </c>
       <c r="G81" s="3">
-        <v>768600</v>
+        <v>619000</v>
       </c>
       <c r="H81" s="3">
-        <v>463200</v>
+        <v>770800</v>
       </c>
       <c r="I81" s="3">
-        <v>155200</v>
+        <v>464600</v>
       </c>
       <c r="J81" s="3">
+        <v>155600</v>
+      </c>
+      <c r="K81" s="3">
         <v>369800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>626200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>792700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1282100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1093800</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,31 +3492,32 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F83" s="3">
         <v>3100</v>
-      </c>
-      <c r="E83" s="3">
-        <v>2800</v>
-      </c>
-      <c r="F83" s="3">
-        <v>2200</v>
       </c>
       <c r="G83" s="3">
         <v>2800</v>
       </c>
       <c r="H83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I83" s="3">
         <v>2800</v>
       </c>
-      <c r="I83" s="3">
-        <v>2700</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+      <c r="J83" s="3">
+        <v>2800</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3327,15 +3525,18 @@
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3">
         <v>1400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1000</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>259900</v>
+        <v>306000</v>
       </c>
       <c r="E89" s="3">
-        <v>407900</v>
+        <v>316400</v>
       </c>
       <c r="F89" s="3">
-        <v>350500</v>
+        <v>260700</v>
       </c>
       <c r="G89" s="3">
-        <v>317200</v>
+        <v>409100</v>
       </c>
       <c r="H89" s="3">
-        <v>371900</v>
+        <v>351500</v>
       </c>
       <c r="I89" s="3">
-        <v>323600</v>
+        <v>318100</v>
       </c>
       <c r="J89" s="3">
+        <v>373000</v>
+      </c>
+      <c r="K89" s="3">
         <v>305100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>305900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>292600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>221600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>180100</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-116300</v>
+        <v>-393700</v>
       </c>
       <c r="E91" s="3">
-        <v>-121800</v>
+        <v>-2853600</v>
       </c>
       <c r="F91" s="3">
-        <v>-161200</v>
+        <v>-116700</v>
       </c>
       <c r="G91" s="3">
-        <v>-189300</v>
+        <v>-122100</v>
       </c>
       <c r="H91" s="3">
-        <v>-107900</v>
+        <v>-161600</v>
       </c>
       <c r="I91" s="3">
-        <v>-52700</v>
+        <v>-189900</v>
       </c>
       <c r="J91" s="3">
+        <v>-108200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-45700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-45900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-90600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-209400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-195600</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,32 +3927,35 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-738000</v>
+        <v>-1100900</v>
       </c>
       <c r="E94" s="3">
-        <v>-756100</v>
+        <v>-1922600</v>
       </c>
       <c r="F94" s="3">
-        <v>-126100</v>
+        <v>-740200</v>
       </c>
       <c r="G94" s="3">
+        <v>-758300</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-126500</v>
+      </c>
+      <c r="I94" s="3">
         <v>5900</v>
       </c>
-      <c r="H94" s="3">
-        <v>-189300</v>
-      </c>
-      <c r="I94" s="3">
-        <v>117500</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+      <c r="J94" s="3">
+        <v>-189900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3734,15 +3963,18 @@
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3">
         <v>46000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-326000</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-191400</v>
+        <v>-189900</v>
       </c>
       <c r="E96" s="3">
-        <v>-192000</v>
+        <v>-191300</v>
       </c>
       <c r="F96" s="3">
-        <v>-184000</v>
+        <v>-191900</v>
       </c>
       <c r="G96" s="3">
-        <v>-179800</v>
+        <v>-192500</v>
       </c>
       <c r="H96" s="3">
-        <v>-177600</v>
+        <v>-184500</v>
       </c>
       <c r="I96" s="3">
-        <v>-169400</v>
+        <v>-180300</v>
       </c>
       <c r="J96" s="3">
+        <v>-178100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-159900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-160300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-137000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-99000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-77600</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,32 +4155,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1853000</v>
+        <v>277500</v>
       </c>
       <c r="E100" s="3">
-        <v>542900</v>
+        <v>603100</v>
       </c>
       <c r="F100" s="3">
-        <v>-219900</v>
+        <v>1858400</v>
       </c>
       <c r="G100" s="3">
-        <v>-238100</v>
+        <v>544400</v>
       </c>
       <c r="H100" s="3">
-        <v>-82800</v>
+        <v>-220500</v>
       </c>
       <c r="I100" s="3">
-        <v>-440000</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+        <v>-238800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-83100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3946,35 +4191,38 @@
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3">
         <v>-227800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>158000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
+        <v>9100</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
@@ -3985,52 +4233,58 @@
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1374900</v>
+        <v>-508300</v>
       </c>
       <c r="E102" s="3">
-        <v>194700</v>
+        <v>-1003100</v>
       </c>
       <c r="F102" s="3">
+        <v>1378900</v>
+      </c>
+      <c r="G102" s="3">
+        <v>195200</v>
+      </c>
+      <c r="H102" s="3">
         <v>4500</v>
       </c>
-      <c r="G102" s="3">
-        <v>85000</v>
-      </c>
-      <c r="H102" s="3">
-        <v>99800</v>
-      </c>
       <c r="I102" s="3">
-        <v>1000</v>
+        <v>85200</v>
       </c>
       <c r="J102" s="3">
-        <v>-5700</v>
+        <v>100000</v>
       </c>
       <c r="K102" s="3">
         <v>-5700</v>
       </c>
       <c r="L102" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="M102" s="3">
         <v>-44000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>39800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>12000</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HYSNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HYSNY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>442100</v>
+        <v>441200</v>
       </c>
       <c r="E8" s="3">
-        <v>461000</v>
+        <v>460100</v>
       </c>
       <c r="F8" s="3">
-        <v>474000</v>
+        <v>473100</v>
       </c>
       <c r="G8" s="3">
-        <v>509500</v>
+        <v>508500</v>
       </c>
       <c r="H8" s="3">
-        <v>497000</v>
+        <v>496100</v>
       </c>
       <c r="I8" s="3">
-        <v>453300</v>
+        <v>452400</v>
       </c>
       <c r="J8" s="3">
-        <v>451700</v>
+        <v>450800</v>
       </c>
       <c r="K8" s="3">
         <v>437000</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>72400</v>
+        <v>72300</v>
       </c>
       <c r="E9" s="3">
-        <v>63800</v>
+        <v>63600</v>
       </c>
       <c r="F9" s="3">
-        <v>62600</v>
+        <v>62500</v>
       </c>
       <c r="G9" s="3">
-        <v>68500</v>
+        <v>68400</v>
       </c>
       <c r="H9" s="3">
-        <v>66800</v>
+        <v>66700</v>
       </c>
       <c r="I9" s="3">
-        <v>57400</v>
+        <v>57300</v>
       </c>
       <c r="J9" s="3">
-        <v>54700</v>
+        <v>54600</v>
       </c>
       <c r="K9" s="3">
         <v>52700</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>369600</v>
+        <v>368900</v>
       </c>
       <c r="E10" s="3">
-        <v>397200</v>
+        <v>396500</v>
       </c>
       <c r="F10" s="3">
-        <v>411400</v>
+        <v>410600</v>
       </c>
       <c r="G10" s="3">
-        <v>441100</v>
+        <v>440200</v>
       </c>
       <c r="H10" s="3">
-        <v>430200</v>
+        <v>429400</v>
       </c>
       <c r="I10" s="3">
-        <v>396000</v>
+        <v>395200</v>
       </c>
       <c r="J10" s="3">
-        <v>397000</v>
+        <v>396200</v>
       </c>
       <c r="K10" s="3">
         <v>384200</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>83400</v>
+        <v>83300</v>
       </c>
       <c r="E17" s="3">
-        <v>88000</v>
+        <v>87900</v>
       </c>
       <c r="F17" s="3">
-        <v>61500</v>
+        <v>61300</v>
       </c>
       <c r="G17" s="3">
-        <v>81900</v>
+        <v>81700</v>
       </c>
       <c r="H17" s="3">
-        <v>87900</v>
+        <v>87700</v>
       </c>
       <c r="I17" s="3">
-        <v>46800</v>
+        <v>46700</v>
       </c>
       <c r="J17" s="3">
-        <v>76300</v>
+        <v>76100</v>
       </c>
       <c r="K17" s="3">
         <v>75700</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>358700</v>
+        <v>357900</v>
       </c>
       <c r="E18" s="3">
-        <v>373000</v>
+        <v>372200</v>
       </c>
       <c r="F18" s="3">
-        <v>412600</v>
+        <v>411800</v>
       </c>
       <c r="G18" s="3">
-        <v>427600</v>
+        <v>426800</v>
       </c>
       <c r="H18" s="3">
-        <v>409100</v>
+        <v>408300</v>
       </c>
       <c r="I18" s="3">
-        <v>406600</v>
+        <v>405800</v>
       </c>
       <c r="J18" s="3">
-        <v>375400</v>
+        <v>374700</v>
       </c>
       <c r="K18" s="3">
         <v>361300</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-384100</v>
+        <v>-383300</v>
       </c>
       <c r="E20" s="3">
-        <v>-39600</v>
+        <v>-39500</v>
       </c>
       <c r="F20" s="3">
-        <v>-603100</v>
+        <v>-601900</v>
       </c>
       <c r="G20" s="3">
-        <v>320600</v>
+        <v>319900</v>
       </c>
       <c r="H20" s="3">
-        <v>486000</v>
+        <v>485100</v>
       </c>
       <c r="I20" s="3">
-        <v>135600</v>
+        <v>135300</v>
       </c>
       <c r="J20" s="3">
-        <v>-122700</v>
+        <v>-122400</v>
       </c>
       <c r="K20" s="3">
         <v>119100</v>
@@ -1200,22 +1200,22 @@
         <v>-21300</v>
       </c>
       <c r="E21" s="3">
-        <v>337100</v>
+        <v>336400</v>
       </c>
       <c r="F21" s="3">
-        <v>-187400</v>
+        <v>-187100</v>
       </c>
       <c r="G21" s="3">
-        <v>751000</v>
+        <v>749600</v>
       </c>
       <c r="H21" s="3">
-        <v>897300</v>
+        <v>895600</v>
       </c>
       <c r="I21" s="3">
-        <v>544900</v>
+        <v>543900</v>
       </c>
       <c r="J21" s="3">
-        <v>255500</v>
+        <v>255000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1239,13 +1239,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>52100</v>
+        <v>52000</v>
       </c>
       <c r="E22" s="3">
-        <v>44500</v>
+        <v>44400</v>
       </c>
       <c r="F22" s="3">
-        <v>64400</v>
+        <v>64300</v>
       </c>
       <c r="G22" s="3">
         <v>37900</v>
@@ -1254,10 +1254,10 @@
         <v>26300</v>
       </c>
       <c r="I22" s="3">
-        <v>18700</v>
+        <v>18600</v>
       </c>
       <c r="J22" s="3">
-        <v>21500</v>
+        <v>21400</v>
       </c>
       <c r="K22" s="3">
         <v>25200</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-77600</v>
+        <v>-77400</v>
       </c>
       <c r="E23" s="3">
-        <v>288900</v>
+        <v>288300</v>
       </c>
       <c r="F23" s="3">
-        <v>-254900</v>
+        <v>-254400</v>
       </c>
       <c r="G23" s="3">
-        <v>710300</v>
+        <v>708900</v>
       </c>
       <c r="H23" s="3">
-        <v>868800</v>
+        <v>867100</v>
       </c>
       <c r="I23" s="3">
-        <v>523500</v>
+        <v>522400</v>
       </c>
       <c r="J23" s="3">
-        <v>231300</v>
+        <v>230800</v>
       </c>
       <c r="K23" s="3">
         <v>455200</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>43700</v>
+        <v>43600</v>
       </c>
       <c r="E24" s="3">
         <v>45700</v>
       </c>
       <c r="F24" s="3">
-        <v>45100</v>
+        <v>45000</v>
       </c>
       <c r="G24" s="3">
-        <v>60400</v>
+        <v>60300</v>
       </c>
       <c r="H24" s="3">
-        <v>61500</v>
+        <v>61300</v>
       </c>
       <c r="I24" s="3">
-        <v>61800</v>
+        <v>61700</v>
       </c>
       <c r="J24" s="3">
-        <v>59200</v>
+        <v>59000</v>
       </c>
       <c r="K24" s="3">
         <v>55800</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-121300</v>
+        <v>-121000</v>
       </c>
       <c r="E26" s="3">
-        <v>243100</v>
+        <v>242700</v>
       </c>
       <c r="F26" s="3">
-        <v>-300000</v>
+        <v>-299400</v>
       </c>
       <c r="G26" s="3">
-        <v>649800</v>
+        <v>648600</v>
       </c>
       <c r="H26" s="3">
-        <v>807400</v>
+        <v>805800</v>
       </c>
       <c r="I26" s="3">
-        <v>461600</v>
+        <v>460700</v>
       </c>
       <c r="J26" s="3">
-        <v>172100</v>
+        <v>171800</v>
       </c>
       <c r="K26" s="3">
         <v>399400</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-147800</v>
+        <v>-147500</v>
       </c>
       <c r="E27" s="3">
-        <v>176700</v>
+        <v>176400</v>
       </c>
       <c r="F27" s="3">
-        <v>-325400</v>
+        <v>-324800</v>
       </c>
       <c r="G27" s="3">
-        <v>619000</v>
+        <v>617800</v>
       </c>
       <c r="H27" s="3">
-        <v>770800</v>
+        <v>769300</v>
       </c>
       <c r="I27" s="3">
-        <v>464600</v>
+        <v>463700</v>
       </c>
       <c r="J27" s="3">
-        <v>155600</v>
+        <v>155300</v>
       </c>
       <c r="K27" s="3">
         <v>369800</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>384100</v>
+        <v>383300</v>
       </c>
       <c r="E32" s="3">
-        <v>39600</v>
+        <v>39500</v>
       </c>
       <c r="F32" s="3">
-        <v>603100</v>
+        <v>601900</v>
       </c>
       <c r="G32" s="3">
-        <v>-320600</v>
+        <v>-319900</v>
       </c>
       <c r="H32" s="3">
-        <v>-486000</v>
+        <v>-485100</v>
       </c>
       <c r="I32" s="3">
-        <v>-135600</v>
+        <v>-135300</v>
       </c>
       <c r="J32" s="3">
-        <v>122700</v>
+        <v>122400</v>
       </c>
       <c r="K32" s="3">
         <v>-119100</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-147800</v>
+        <v>-147500</v>
       </c>
       <c r="E33" s="3">
-        <v>176700</v>
+        <v>176400</v>
       </c>
       <c r="F33" s="3">
-        <v>-325400</v>
+        <v>-324800</v>
       </c>
       <c r="G33" s="3">
-        <v>619000</v>
+        <v>617800</v>
       </c>
       <c r="H33" s="3">
-        <v>770800</v>
+        <v>769300</v>
       </c>
       <c r="I33" s="3">
-        <v>464600</v>
+        <v>463700</v>
       </c>
       <c r="J33" s="3">
-        <v>155600</v>
+        <v>155300</v>
       </c>
       <c r="K33" s="3">
         <v>369800</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-147800</v>
+        <v>-147500</v>
       </c>
       <c r="E35" s="3">
-        <v>176700</v>
+        <v>176400</v>
       </c>
       <c r="F35" s="3">
-        <v>-325400</v>
+        <v>-324800</v>
       </c>
       <c r="G35" s="3">
-        <v>619000</v>
+        <v>617800</v>
       </c>
       <c r="H35" s="3">
-        <v>770800</v>
+        <v>769300</v>
       </c>
       <c r="I35" s="3">
-        <v>464600</v>
+        <v>463700</v>
       </c>
       <c r="J35" s="3">
-        <v>155600</v>
+        <v>155300</v>
       </c>
       <c r="K35" s="3">
         <v>369800</v>
@@ -1910,22 +1910,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>327100</v>
+        <v>326500</v>
       </c>
       <c r="E41" s="3">
-        <v>835400</v>
+        <v>833700</v>
       </c>
       <c r="F41" s="3">
-        <v>1838500</v>
+        <v>1834900</v>
       </c>
       <c r="G41" s="3">
-        <v>459600</v>
+        <v>458700</v>
       </c>
       <c r="H41" s="3">
-        <v>264400</v>
+        <v>263800</v>
       </c>
       <c r="I41" s="3">
-        <v>20100</v>
+        <v>20000</v>
       </c>
       <c r="J41" s="3">
         <v>10100</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>667700</v>
+        <v>666400</v>
       </c>
       <c r="E42" s="3">
-        <v>260300</v>
+        <v>259800</v>
       </c>
       <c r="F42" s="3">
-        <v>1347500</v>
+        <v>1344800</v>
       </c>
       <c r="G42" s="3">
-        <v>732800</v>
+        <v>731300</v>
       </c>
       <c r="H42" s="3">
-        <v>124600</v>
+        <v>124300</v>
       </c>
       <c r="I42" s="3">
-        <v>385200</v>
+        <v>384500</v>
       </c>
       <c r="J42" s="3">
-        <v>380600</v>
+        <v>379900</v>
       </c>
       <c r="K42" s="3">
         <v>402500</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>71800</v>
+        <v>71700</v>
       </c>
       <c r="E43" s="3">
-        <v>118300</v>
+        <v>118100</v>
       </c>
       <c r="F43" s="3">
-        <v>59700</v>
+        <v>59600</v>
       </c>
       <c r="G43" s="3">
-        <v>40100</v>
+        <v>40000</v>
       </c>
       <c r="H43" s="3">
         <v>25900</v>
       </c>
       <c r="I43" s="3">
-        <v>28900</v>
+        <v>28800</v>
       </c>
       <c r="J43" s="3">
-        <v>155100</v>
+        <v>154800</v>
       </c>
       <c r="K43" s="3">
         <v>25600</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1066600</v>
+        <v>1064500</v>
       </c>
       <c r="E46" s="3">
-        <v>1213900</v>
+        <v>1211600</v>
       </c>
       <c r="F46" s="3">
-        <v>3245600</v>
+        <v>3239300</v>
       </c>
       <c r="G46" s="3">
-        <v>1232500</v>
+        <v>1230100</v>
       </c>
       <c r="H46" s="3">
-        <v>414900</v>
+        <v>414100</v>
       </c>
       <c r="I46" s="3">
-        <v>434200</v>
+        <v>433300</v>
       </c>
       <c r="J46" s="3">
-        <v>545800</v>
+        <v>544800</v>
       </c>
       <c r="K46" s="3">
         <v>435800</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1440700</v>
+        <v>1697400</v>
       </c>
       <c r="E47" s="3">
-        <v>1331700</v>
+        <v>1556100</v>
       </c>
       <c r="F47" s="3">
-        <v>981500</v>
+        <v>1080200</v>
       </c>
       <c r="G47" s="3">
-        <v>881100</v>
+        <v>956000</v>
       </c>
       <c r="H47" s="3">
-        <v>678700</v>
+        <v>714900</v>
       </c>
       <c r="I47" s="3">
-        <v>699900</v>
+        <v>701200</v>
       </c>
       <c r="J47" s="3">
-        <v>687800</v>
+        <v>686400</v>
       </c>
       <c r="K47" s="3">
         <v>618100</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12446100</v>
+        <v>12421700</v>
       </c>
       <c r="E48" s="3">
-        <v>12212100</v>
+        <v>12188200</v>
       </c>
       <c r="F48" s="3">
-        <v>9688400</v>
+        <v>9669500</v>
       </c>
       <c r="G48" s="3">
-        <v>10207800</v>
+        <v>10187800</v>
       </c>
       <c r="H48" s="3">
-        <v>9990200</v>
+        <v>9970700</v>
       </c>
       <c r="I48" s="3">
-        <v>9355400</v>
+        <v>9337100</v>
       </c>
       <c r="J48" s="3">
-        <v>8989000</v>
+        <v>8971400</v>
       </c>
       <c r="K48" s="3">
         <v>8983600</v>
@@ -2372,22 +2372,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>272300</v>
+        <v>12200</v>
       </c>
       <c r="E52" s="3">
-        <v>238900</v>
+        <v>11500</v>
       </c>
       <c r="F52" s="3">
-        <v>107800</v>
+        <v>7000</v>
       </c>
       <c r="G52" s="3">
-        <v>77700</v>
+        <v>900</v>
       </c>
       <c r="H52" s="3">
-        <v>37600</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>2800</v>
+        <v>100</v>
       </c>
       <c r="J52" s="3">
         <v>1500</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15225700</v>
+        <v>15195900</v>
       </c>
       <c r="E54" s="3">
-        <v>14996700</v>
+        <v>14967400</v>
       </c>
       <c r="F54" s="3">
-        <v>14023400</v>
+        <v>13996000</v>
       </c>
       <c r="G54" s="3">
-        <v>12399200</v>
+        <v>12374900</v>
       </c>
       <c r="H54" s="3">
-        <v>11121500</v>
+        <v>11099700</v>
       </c>
       <c r="I54" s="3">
-        <v>10492500</v>
+        <v>10471900</v>
       </c>
       <c r="J54" s="3">
-        <v>10224300</v>
+        <v>10204300</v>
       </c>
       <c r="K54" s="3">
         <v>10037600</v>
@@ -2534,22 +2534,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>37700</v>
+        <v>37600</v>
       </c>
       <c r="E57" s="3">
-        <v>24700</v>
+        <v>24600</v>
       </c>
       <c r="F57" s="3">
-        <v>35400</v>
+        <v>35300</v>
       </c>
       <c r="G57" s="3">
-        <v>40800</v>
+        <v>40700</v>
       </c>
       <c r="H57" s="3">
         <v>32800</v>
       </c>
       <c r="I57" s="3">
-        <v>27500</v>
+        <v>27400</v>
       </c>
       <c r="J57" s="3">
         <v>19000</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>414500</v>
+        <v>413700</v>
       </c>
       <c r="E58" s="3">
-        <v>67800</v>
+        <v>67700</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>72200</v>
+        <v>72000</v>
       </c>
       <c r="H58" s="3">
         <v>38300</v>
       </c>
       <c r="I58" s="3">
-        <v>19200</v>
+        <v>19100</v>
       </c>
       <c r="J58" s="3">
-        <v>150800</v>
+        <v>150500</v>
       </c>
       <c r="K58" s="3">
         <v>31900</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>174300</v>
+        <v>173900</v>
       </c>
       <c r="E59" s="3">
-        <v>155000</v>
+        <v>154700</v>
       </c>
       <c r="F59" s="3">
-        <v>162900</v>
+        <v>162600</v>
       </c>
       <c r="G59" s="3">
-        <v>200200</v>
+        <v>199800</v>
       </c>
       <c r="H59" s="3">
-        <v>163300</v>
+        <v>163000</v>
       </c>
       <c r="I59" s="3">
-        <v>178400</v>
+        <v>178000</v>
       </c>
       <c r="J59" s="3">
-        <v>199800</v>
+        <v>199400</v>
       </c>
       <c r="K59" s="3">
         <v>126300</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>626500</v>
+        <v>625200</v>
       </c>
       <c r="E60" s="3">
-        <v>247500</v>
+        <v>247000</v>
       </c>
       <c r="F60" s="3">
-        <v>198300</v>
+        <v>197900</v>
       </c>
       <c r="G60" s="3">
-        <v>313200</v>
+        <v>312600</v>
       </c>
       <c r="H60" s="3">
-        <v>234500</v>
+        <v>234000</v>
       </c>
       <c r="I60" s="3">
-        <v>225000</v>
+        <v>224600</v>
       </c>
       <c r="J60" s="3">
-        <v>369600</v>
+        <v>368900</v>
       </c>
       <c r="K60" s="3">
         <v>186400</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3070700</v>
+        <v>3064700</v>
       </c>
       <c r="E61" s="3">
-        <v>2316000</v>
+        <v>2311400</v>
       </c>
       <c r="F61" s="3">
-        <v>2423800</v>
+        <v>2419100</v>
       </c>
       <c r="G61" s="3">
-        <v>1528600</v>
+        <v>1525600</v>
       </c>
       <c r="H61" s="3">
-        <v>769400</v>
+        <v>767900</v>
       </c>
       <c r="I61" s="3">
-        <v>771100</v>
+        <v>769600</v>
       </c>
       <c r="J61" s="3">
-        <v>653300</v>
+        <v>652000</v>
       </c>
       <c r="K61" s="3">
         <v>587200</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>871100</v>
+        <v>869400</v>
       </c>
       <c r="E62" s="3">
-        <v>1204200</v>
+        <v>1201900</v>
       </c>
       <c r="F62" s="3">
-        <v>227900</v>
+        <v>227500</v>
       </c>
       <c r="G62" s="3">
-        <v>211600</v>
+        <v>211200</v>
       </c>
       <c r="H62" s="3">
-        <v>197900</v>
+        <v>197500</v>
       </c>
       <c r="I62" s="3">
-        <v>169000</v>
+        <v>168700</v>
       </c>
       <c r="J62" s="3">
-        <v>169900</v>
+        <v>169600</v>
       </c>
       <c r="K62" s="3">
         <v>171700</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4949900</v>
+        <v>4940300</v>
       </c>
       <c r="E66" s="3">
-        <v>4196700</v>
+        <v>4188500</v>
       </c>
       <c r="F66" s="3">
-        <v>3247700</v>
+        <v>3241300</v>
       </c>
       <c r="G66" s="3">
-        <v>2477800</v>
+        <v>2473000</v>
       </c>
       <c r="H66" s="3">
-        <v>1611400</v>
+        <v>1608300</v>
       </c>
       <c r="I66" s="3">
-        <v>1554600</v>
+        <v>1551500</v>
       </c>
       <c r="J66" s="3">
-        <v>1601100</v>
+        <v>1598000</v>
       </c>
       <c r="K66" s="3">
         <v>1352500</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7951000</v>
+        <v>7935400</v>
       </c>
       <c r="E72" s="3">
-        <v>8305000</v>
+        <v>8288800</v>
       </c>
       <c r="F72" s="3">
-        <v>8337500</v>
+        <v>8321200</v>
       </c>
       <c r="G72" s="3">
-        <v>8873500</v>
+        <v>8856100</v>
       </c>
       <c r="H72" s="3">
-        <v>8458100</v>
+        <v>8441600</v>
       </c>
       <c r="I72" s="3">
-        <v>7872700</v>
+        <v>7857300</v>
       </c>
       <c r="J72" s="3">
-        <v>7588900</v>
+        <v>7574100</v>
       </c>
       <c r="K72" s="3">
         <v>7639900</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10275800</v>
+        <v>10255700</v>
       </c>
       <c r="E76" s="3">
-        <v>10800000</v>
+        <v>10778900</v>
       </c>
       <c r="F76" s="3">
-        <v>10775700</v>
+        <v>10754700</v>
       </c>
       <c r="G76" s="3">
-        <v>9921300</v>
+        <v>9901900</v>
       </c>
       <c r="H76" s="3">
-        <v>9510000</v>
+        <v>9491400</v>
       </c>
       <c r="I76" s="3">
-        <v>8937900</v>
+        <v>8920400</v>
       </c>
       <c r="J76" s="3">
-        <v>8623200</v>
+        <v>8606300</v>
       </c>
       <c r="K76" s="3">
         <v>8685100</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-147800</v>
+        <v>-147500</v>
       </c>
       <c r="E81" s="3">
-        <v>176700</v>
+        <v>176400</v>
       </c>
       <c r="F81" s="3">
-        <v>-325400</v>
+        <v>-324800</v>
       </c>
       <c r="G81" s="3">
-        <v>619000</v>
+        <v>617800</v>
       </c>
       <c r="H81" s="3">
-        <v>770800</v>
+        <v>769300</v>
       </c>
       <c r="I81" s="3">
-        <v>464600</v>
+        <v>463700</v>
       </c>
       <c r="J81" s="3">
-        <v>155600</v>
+        <v>155300</v>
       </c>
       <c r="K81" s="3">
         <v>369800</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>306000</v>
+        <v>305400</v>
       </c>
       <c r="E89" s="3">
-        <v>316400</v>
+        <v>315700</v>
       </c>
       <c r="F89" s="3">
-        <v>260700</v>
+        <v>260100</v>
       </c>
       <c r="G89" s="3">
-        <v>409100</v>
+        <v>408300</v>
       </c>
       <c r="H89" s="3">
-        <v>351500</v>
+        <v>350800</v>
       </c>
       <c r="I89" s="3">
-        <v>318100</v>
+        <v>317500</v>
       </c>
       <c r="J89" s="3">
-        <v>373000</v>
+        <v>372200</v>
       </c>
       <c r="K89" s="3">
         <v>305100</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-393700</v>
+        <v>-392900</v>
       </c>
       <c r="E91" s="3">
-        <v>-2853600</v>
+        <v>-2848000</v>
       </c>
       <c r="F91" s="3">
-        <v>-116700</v>
+        <v>-116400</v>
       </c>
       <c r="G91" s="3">
-        <v>-122100</v>
+        <v>-121900</v>
       </c>
       <c r="H91" s="3">
-        <v>-161600</v>
+        <v>-161300</v>
       </c>
       <c r="I91" s="3">
-        <v>-189900</v>
+        <v>-189500</v>
       </c>
       <c r="J91" s="3">
-        <v>-108200</v>
+        <v>-108000</v>
       </c>
       <c r="K91" s="3">
         <v>-45700</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1100900</v>
+        <v>-1098700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1922600</v>
+        <v>-1918800</v>
       </c>
       <c r="F94" s="3">
-        <v>-740200</v>
+        <v>-738700</v>
       </c>
       <c r="G94" s="3">
-        <v>-758300</v>
+        <v>-756800</v>
       </c>
       <c r="H94" s="3">
-        <v>-126500</v>
+        <v>-126200</v>
       </c>
       <c r="I94" s="3">
         <v>5900</v>
       </c>
       <c r="J94" s="3">
-        <v>-189900</v>
+        <v>-189500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-189900</v>
+        <v>-189500</v>
       </c>
       <c r="E96" s="3">
-        <v>-191300</v>
+        <v>-190900</v>
       </c>
       <c r="F96" s="3">
-        <v>-191900</v>
+        <v>-191500</v>
       </c>
       <c r="G96" s="3">
-        <v>-192500</v>
+        <v>-192200</v>
       </c>
       <c r="H96" s="3">
-        <v>-184500</v>
+        <v>-184100</v>
       </c>
       <c r="I96" s="3">
-        <v>-180300</v>
+        <v>-179900</v>
       </c>
       <c r="J96" s="3">
-        <v>-178100</v>
+        <v>-177800</v>
       </c>
       <c r="K96" s="3">
         <v>-159900</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>277500</v>
+        <v>277000</v>
       </c>
       <c r="E100" s="3">
-        <v>603100</v>
+        <v>601900</v>
       </c>
       <c r="F100" s="3">
-        <v>1858400</v>
+        <v>1854800</v>
       </c>
       <c r="G100" s="3">
-        <v>544400</v>
+        <v>543400</v>
       </c>
       <c r="H100" s="3">
-        <v>-220500</v>
+        <v>-220100</v>
       </c>
       <c r="I100" s="3">
-        <v>-238800</v>
+        <v>-238300</v>
       </c>
       <c r="J100" s="3">
-        <v>-83100</v>
+        <v>-82900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-508300</v>
+        <v>-507300</v>
       </c>
       <c r="E102" s="3">
-        <v>-1003100</v>
+        <v>-1001200</v>
       </c>
       <c r="F102" s="3">
-        <v>1378900</v>
+        <v>1376200</v>
       </c>
       <c r="G102" s="3">
-        <v>195200</v>
+        <v>194900</v>
       </c>
       <c r="H102" s="3">
         <v>4500</v>
       </c>
       <c r="I102" s="3">
-        <v>85200</v>
+        <v>85100</v>
       </c>
       <c r="J102" s="3">
-        <v>100000</v>
+        <v>99800</v>
       </c>
       <c r="K102" s="3">
         <v>-5700</v>

--- a/AAII_Financials/Yearly/HYSNY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HYSNY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>441200</v>
+        <v>443500</v>
       </c>
       <c r="E8" s="3">
-        <v>460100</v>
+        <v>462500</v>
       </c>
       <c r="F8" s="3">
-        <v>473100</v>
+        <v>475600</v>
       </c>
       <c r="G8" s="3">
-        <v>508500</v>
+        <v>511200</v>
       </c>
       <c r="H8" s="3">
-        <v>496100</v>
+        <v>498700</v>
       </c>
       <c r="I8" s="3">
-        <v>452400</v>
+        <v>454800</v>
       </c>
       <c r="J8" s="3">
-        <v>450800</v>
+        <v>453200</v>
       </c>
       <c r="K8" s="3">
         <v>437000</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>72300</v>
+        <v>72700</v>
       </c>
       <c r="E9" s="3">
-        <v>63600</v>
+        <v>64000</v>
       </c>
       <c r="F9" s="3">
-        <v>62500</v>
+        <v>62800</v>
       </c>
       <c r="G9" s="3">
-        <v>68400</v>
+        <v>68700</v>
       </c>
       <c r="H9" s="3">
-        <v>66700</v>
+        <v>67000</v>
       </c>
       <c r="I9" s="3">
-        <v>57300</v>
+        <v>57600</v>
       </c>
       <c r="J9" s="3">
-        <v>54600</v>
+        <v>54900</v>
       </c>
       <c r="K9" s="3">
         <v>52700</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>368900</v>
+        <v>370900</v>
       </c>
       <c r="E10" s="3">
-        <v>396500</v>
+        <v>398500</v>
       </c>
       <c r="F10" s="3">
-        <v>410600</v>
+        <v>412800</v>
       </c>
       <c r="G10" s="3">
-        <v>440200</v>
+        <v>442500</v>
       </c>
       <c r="H10" s="3">
-        <v>429400</v>
+        <v>431600</v>
       </c>
       <c r="I10" s="3">
-        <v>395200</v>
+        <v>397300</v>
       </c>
       <c r="J10" s="3">
-        <v>396200</v>
+        <v>398300</v>
       </c>
       <c r="K10" s="3">
         <v>384200</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>83300</v>
+        <v>83700</v>
       </c>
       <c r="E17" s="3">
-        <v>87900</v>
+        <v>88300</v>
       </c>
       <c r="F17" s="3">
-        <v>61300</v>
+        <v>61700</v>
       </c>
       <c r="G17" s="3">
-        <v>81700</v>
+        <v>82200</v>
       </c>
       <c r="H17" s="3">
-        <v>87700</v>
+        <v>88200</v>
       </c>
       <c r="I17" s="3">
-        <v>46700</v>
+        <v>46900</v>
       </c>
       <c r="J17" s="3">
-        <v>76100</v>
+        <v>76500</v>
       </c>
       <c r="K17" s="3">
         <v>75700</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>357900</v>
+        <v>359800</v>
       </c>
       <c r="E18" s="3">
-        <v>372200</v>
+        <v>374200</v>
       </c>
       <c r="F18" s="3">
-        <v>411800</v>
+        <v>413900</v>
       </c>
       <c r="G18" s="3">
-        <v>426800</v>
+        <v>429100</v>
       </c>
       <c r="H18" s="3">
-        <v>408300</v>
+        <v>410500</v>
       </c>
       <c r="I18" s="3">
-        <v>405800</v>
+        <v>407900</v>
       </c>
       <c r="J18" s="3">
-        <v>374700</v>
+        <v>376600</v>
       </c>
       <c r="K18" s="3">
         <v>361300</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-383300</v>
+        <v>-385300</v>
       </c>
       <c r="E20" s="3">
-        <v>-39500</v>
+        <v>-39700</v>
       </c>
       <c r="F20" s="3">
-        <v>-601900</v>
+        <v>-605100</v>
       </c>
       <c r="G20" s="3">
-        <v>319900</v>
+        <v>321600</v>
       </c>
       <c r="H20" s="3">
-        <v>485100</v>
+        <v>487600</v>
       </c>
       <c r="I20" s="3">
-        <v>135300</v>
+        <v>136000</v>
       </c>
       <c r="J20" s="3">
-        <v>-122400</v>
+        <v>-123100</v>
       </c>
       <c r="K20" s="3">
         <v>119100</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-21300</v>
+        <v>-21400</v>
       </c>
       <c r="E21" s="3">
-        <v>336400</v>
+        <v>338200</v>
       </c>
       <c r="F21" s="3">
-        <v>-187100</v>
+        <v>-188100</v>
       </c>
       <c r="G21" s="3">
-        <v>749600</v>
+        <v>753500</v>
       </c>
       <c r="H21" s="3">
-        <v>895600</v>
+        <v>900300</v>
       </c>
       <c r="I21" s="3">
-        <v>543900</v>
+        <v>546700</v>
       </c>
       <c r="J21" s="3">
-        <v>255000</v>
+        <v>256400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>52000</v>
+        <v>52300</v>
       </c>
       <c r="E22" s="3">
-        <v>44400</v>
+        <v>44600</v>
       </c>
       <c r="F22" s="3">
-        <v>64300</v>
+        <v>64600</v>
       </c>
       <c r="G22" s="3">
-        <v>37900</v>
+        <v>38100</v>
       </c>
       <c r="H22" s="3">
-        <v>26300</v>
+        <v>26400</v>
       </c>
       <c r="I22" s="3">
-        <v>18600</v>
+        <v>18700</v>
       </c>
       <c r="J22" s="3">
-        <v>21400</v>
+        <v>21500</v>
       </c>
       <c r="K22" s="3">
         <v>25200</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-77400</v>
+        <v>-77800</v>
       </c>
       <c r="E23" s="3">
-        <v>288300</v>
+        <v>289800</v>
       </c>
       <c r="F23" s="3">
-        <v>-254400</v>
+        <v>-255700</v>
       </c>
       <c r="G23" s="3">
-        <v>708900</v>
+        <v>712600</v>
       </c>
       <c r="H23" s="3">
-        <v>867100</v>
+        <v>871700</v>
       </c>
       <c r="I23" s="3">
-        <v>522400</v>
+        <v>525200</v>
       </c>
       <c r="J23" s="3">
-        <v>230800</v>
+        <v>232000</v>
       </c>
       <c r="K23" s="3">
         <v>455200</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>43600</v>
+        <v>43800</v>
       </c>
       <c r="E24" s="3">
-        <v>45700</v>
+        <v>45900</v>
       </c>
       <c r="F24" s="3">
-        <v>45000</v>
+        <v>45300</v>
       </c>
       <c r="G24" s="3">
-        <v>60300</v>
+        <v>60600</v>
       </c>
       <c r="H24" s="3">
-        <v>61300</v>
+        <v>61700</v>
       </c>
       <c r="I24" s="3">
-        <v>61700</v>
+        <v>62000</v>
       </c>
       <c r="J24" s="3">
-        <v>59000</v>
+        <v>59400</v>
       </c>
       <c r="K24" s="3">
         <v>55800</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-121000</v>
+        <v>-121700</v>
       </c>
       <c r="E26" s="3">
-        <v>242700</v>
+        <v>243900</v>
       </c>
       <c r="F26" s="3">
-        <v>-299400</v>
+        <v>-301000</v>
       </c>
       <c r="G26" s="3">
-        <v>648600</v>
+        <v>652000</v>
       </c>
       <c r="H26" s="3">
-        <v>805800</v>
+        <v>810000</v>
       </c>
       <c r="I26" s="3">
-        <v>460700</v>
+        <v>463200</v>
       </c>
       <c r="J26" s="3">
-        <v>171800</v>
+        <v>172700</v>
       </c>
       <c r="K26" s="3">
         <v>399400</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-147500</v>
+        <v>-148300</v>
       </c>
       <c r="E27" s="3">
-        <v>176400</v>
+        <v>177300</v>
       </c>
       <c r="F27" s="3">
-        <v>-324800</v>
+        <v>-326500</v>
       </c>
       <c r="G27" s="3">
-        <v>617800</v>
+        <v>621100</v>
       </c>
       <c r="H27" s="3">
-        <v>769300</v>
+        <v>773400</v>
       </c>
       <c r="I27" s="3">
-        <v>463700</v>
+        <v>466100</v>
       </c>
       <c r="J27" s="3">
-        <v>155300</v>
+        <v>156100</v>
       </c>
       <c r="K27" s="3">
         <v>369800</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>383300</v>
+        <v>385300</v>
       </c>
       <c r="E32" s="3">
-        <v>39500</v>
+        <v>39700</v>
       </c>
       <c r="F32" s="3">
-        <v>601900</v>
+        <v>605100</v>
       </c>
       <c r="G32" s="3">
-        <v>-319900</v>
+        <v>-321600</v>
       </c>
       <c r="H32" s="3">
-        <v>-485100</v>
+        <v>-487600</v>
       </c>
       <c r="I32" s="3">
-        <v>-135300</v>
+        <v>-136000</v>
       </c>
       <c r="J32" s="3">
-        <v>122400</v>
+        <v>123100</v>
       </c>
       <c r="K32" s="3">
         <v>-119100</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-147500</v>
+        <v>-148300</v>
       </c>
       <c r="E33" s="3">
-        <v>176400</v>
+        <v>177300</v>
       </c>
       <c r="F33" s="3">
-        <v>-324800</v>
+        <v>-326500</v>
       </c>
       <c r="G33" s="3">
-        <v>617800</v>
+        <v>621100</v>
       </c>
       <c r="H33" s="3">
-        <v>769300</v>
+        <v>773400</v>
       </c>
       <c r="I33" s="3">
-        <v>463700</v>
+        <v>466100</v>
       </c>
       <c r="J33" s="3">
-        <v>155300</v>
+        <v>156100</v>
       </c>
       <c r="K33" s="3">
         <v>369800</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-147500</v>
+        <v>-148300</v>
       </c>
       <c r="E35" s="3">
-        <v>176400</v>
+        <v>177300</v>
       </c>
       <c r="F35" s="3">
-        <v>-324800</v>
+        <v>-326500</v>
       </c>
       <c r="G35" s="3">
-        <v>617800</v>
+        <v>621100</v>
       </c>
       <c r="H35" s="3">
-        <v>769300</v>
+        <v>773400</v>
       </c>
       <c r="I35" s="3">
-        <v>463700</v>
+        <v>466100</v>
       </c>
       <c r="J35" s="3">
-        <v>155300</v>
+        <v>156100</v>
       </c>
       <c r="K35" s="3">
         <v>369800</v>
@@ -1910,22 +1910,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>326500</v>
+        <v>328200</v>
       </c>
       <c r="E41" s="3">
-        <v>833700</v>
+        <v>838100</v>
       </c>
       <c r="F41" s="3">
-        <v>1834900</v>
+        <v>1844500</v>
       </c>
       <c r="G41" s="3">
-        <v>458700</v>
+        <v>461100</v>
       </c>
       <c r="H41" s="3">
-        <v>263800</v>
+        <v>265200</v>
       </c>
       <c r="I41" s="3">
-        <v>20000</v>
+        <v>20100</v>
       </c>
       <c r="J41" s="3">
         <v>10100</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>666400</v>
+        <v>669900</v>
       </c>
       <c r="E42" s="3">
-        <v>259800</v>
+        <v>261100</v>
       </c>
       <c r="F42" s="3">
-        <v>1344800</v>
+        <v>1351900</v>
       </c>
       <c r="G42" s="3">
-        <v>731300</v>
+        <v>735200</v>
       </c>
       <c r="H42" s="3">
-        <v>124300</v>
+        <v>125000</v>
       </c>
       <c r="I42" s="3">
-        <v>384500</v>
+        <v>386500</v>
       </c>
       <c r="J42" s="3">
-        <v>379900</v>
+        <v>381900</v>
       </c>
       <c r="K42" s="3">
         <v>402500</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>71700</v>
+        <v>72000</v>
       </c>
       <c r="E43" s="3">
-        <v>118100</v>
+        <v>118700</v>
       </c>
       <c r="F43" s="3">
-        <v>59600</v>
+        <v>59900</v>
       </c>
       <c r="G43" s="3">
-        <v>40000</v>
+        <v>40300</v>
       </c>
       <c r="H43" s="3">
-        <v>25900</v>
+        <v>26000</v>
       </c>
       <c r="I43" s="3">
-        <v>28800</v>
+        <v>29000</v>
       </c>
       <c r="J43" s="3">
-        <v>154800</v>
+        <v>155600</v>
       </c>
       <c r="K43" s="3">
         <v>25600</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1064500</v>
+        <v>1070100</v>
       </c>
       <c r="E46" s="3">
-        <v>1211600</v>
+        <v>1217900</v>
       </c>
       <c r="F46" s="3">
-        <v>3239300</v>
+        <v>3256300</v>
       </c>
       <c r="G46" s="3">
-        <v>1230100</v>
+        <v>1236500</v>
       </c>
       <c r="H46" s="3">
-        <v>414100</v>
+        <v>416200</v>
       </c>
       <c r="I46" s="3">
-        <v>433300</v>
+        <v>435600</v>
       </c>
       <c r="J46" s="3">
-        <v>544800</v>
+        <v>547600</v>
       </c>
       <c r="K46" s="3">
         <v>435800</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1697400</v>
+        <v>1706300</v>
       </c>
       <c r="E47" s="3">
-        <v>1556100</v>
+        <v>1564300</v>
       </c>
       <c r="F47" s="3">
-        <v>1080200</v>
+        <v>1085900</v>
       </c>
       <c r="G47" s="3">
-        <v>956000</v>
+        <v>961000</v>
       </c>
       <c r="H47" s="3">
-        <v>714900</v>
+        <v>718600</v>
       </c>
       <c r="I47" s="3">
-        <v>701200</v>
+        <v>704900</v>
       </c>
       <c r="J47" s="3">
-        <v>686400</v>
+        <v>690000</v>
       </c>
       <c r="K47" s="3">
         <v>618100</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12421700</v>
+        <v>12487000</v>
       </c>
       <c r="E48" s="3">
-        <v>12188200</v>
+        <v>12252300</v>
       </c>
       <c r="F48" s="3">
-        <v>9669500</v>
+        <v>9720300</v>
       </c>
       <c r="G48" s="3">
-        <v>10187800</v>
+        <v>10241400</v>
       </c>
       <c r="H48" s="3">
-        <v>9970700</v>
+        <v>10023000</v>
       </c>
       <c r="I48" s="3">
-        <v>9337100</v>
+        <v>9386200</v>
       </c>
       <c r="J48" s="3">
-        <v>8971400</v>
+        <v>9018600</v>
       </c>
       <c r="K48" s="3">
         <v>8983600</v>
@@ -2372,13 +2372,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12200</v>
+        <v>12300</v>
       </c>
       <c r="E52" s="3">
         <v>11500</v>
       </c>
       <c r="F52" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="G52" s="3">
         <v>900</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15195900</v>
+        <v>15275800</v>
       </c>
       <c r="E54" s="3">
-        <v>14967400</v>
+        <v>15046000</v>
       </c>
       <c r="F54" s="3">
-        <v>13996000</v>
+        <v>14069500</v>
       </c>
       <c r="G54" s="3">
-        <v>12374900</v>
+        <v>12439900</v>
       </c>
       <c r="H54" s="3">
-        <v>11099700</v>
+        <v>11158000</v>
       </c>
       <c r="I54" s="3">
-        <v>10471900</v>
+        <v>10527000</v>
       </c>
       <c r="J54" s="3">
-        <v>10204300</v>
+        <v>10257900</v>
       </c>
       <c r="K54" s="3">
         <v>10037600</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>37600</v>
+        <v>37800</v>
       </c>
       <c r="E57" s="3">
-        <v>24600</v>
+        <v>24700</v>
       </c>
       <c r="F57" s="3">
-        <v>35300</v>
+        <v>35500</v>
       </c>
       <c r="G57" s="3">
-        <v>40700</v>
+        <v>40900</v>
       </c>
       <c r="H57" s="3">
-        <v>32800</v>
+        <v>32900</v>
       </c>
       <c r="I57" s="3">
-        <v>27400</v>
+        <v>27600</v>
       </c>
       <c r="J57" s="3">
-        <v>19000</v>
+        <v>19100</v>
       </c>
       <c r="K57" s="3">
         <v>28300</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>413700</v>
+        <v>415800</v>
       </c>
       <c r="E58" s="3">
-        <v>67700</v>
+        <v>68100</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>72000</v>
+        <v>72400</v>
       </c>
       <c r="H58" s="3">
-        <v>38300</v>
+        <v>38500</v>
       </c>
       <c r="I58" s="3">
-        <v>19100</v>
+        <v>19200</v>
       </c>
       <c r="J58" s="3">
-        <v>150500</v>
+        <v>151300</v>
       </c>
       <c r="K58" s="3">
         <v>31900</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>173900</v>
+        <v>174900</v>
       </c>
       <c r="E59" s="3">
-        <v>154700</v>
+        <v>155500</v>
       </c>
       <c r="F59" s="3">
-        <v>162600</v>
+        <v>163400</v>
       </c>
       <c r="G59" s="3">
-        <v>199800</v>
+        <v>200900</v>
       </c>
       <c r="H59" s="3">
-        <v>163000</v>
+        <v>163800</v>
       </c>
       <c r="I59" s="3">
-        <v>178000</v>
+        <v>179000</v>
       </c>
       <c r="J59" s="3">
-        <v>199400</v>
+        <v>200500</v>
       </c>
       <c r="K59" s="3">
         <v>126300</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>625200</v>
+        <v>628500</v>
       </c>
       <c r="E60" s="3">
-        <v>247000</v>
+        <v>248300</v>
       </c>
       <c r="F60" s="3">
-        <v>197900</v>
+        <v>199000</v>
       </c>
       <c r="G60" s="3">
-        <v>312600</v>
+        <v>314200</v>
       </c>
       <c r="H60" s="3">
-        <v>234000</v>
+        <v>235200</v>
       </c>
       <c r="I60" s="3">
-        <v>224600</v>
+        <v>225700</v>
       </c>
       <c r="J60" s="3">
-        <v>368900</v>
+        <v>370900</v>
       </c>
       <c r="K60" s="3">
         <v>186400</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3064700</v>
+        <v>3080800</v>
       </c>
       <c r="E61" s="3">
-        <v>2311400</v>
+        <v>2323600</v>
       </c>
       <c r="F61" s="3">
-        <v>2419100</v>
+        <v>2431800</v>
       </c>
       <c r="G61" s="3">
-        <v>1525600</v>
+        <v>1533700</v>
       </c>
       <c r="H61" s="3">
-        <v>767900</v>
+        <v>772000</v>
       </c>
       <c r="I61" s="3">
-        <v>769600</v>
+        <v>773600</v>
       </c>
       <c r="J61" s="3">
-        <v>652000</v>
+        <v>655400</v>
       </c>
       <c r="K61" s="3">
         <v>587200</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>869400</v>
+        <v>874000</v>
       </c>
       <c r="E62" s="3">
-        <v>1201900</v>
+        <v>1208200</v>
       </c>
       <c r="F62" s="3">
-        <v>227500</v>
+        <v>228700</v>
       </c>
       <c r="G62" s="3">
-        <v>211200</v>
+        <v>212300</v>
       </c>
       <c r="H62" s="3">
-        <v>197500</v>
+        <v>198600</v>
       </c>
       <c r="I62" s="3">
-        <v>168700</v>
+        <v>169600</v>
       </c>
       <c r="J62" s="3">
-        <v>169600</v>
+        <v>170500</v>
       </c>
       <c r="K62" s="3">
         <v>171700</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4940300</v>
+        <v>4966200</v>
       </c>
       <c r="E66" s="3">
-        <v>4188500</v>
+        <v>4210500</v>
       </c>
       <c r="F66" s="3">
-        <v>3241300</v>
+        <v>3258300</v>
       </c>
       <c r="G66" s="3">
-        <v>2473000</v>
+        <v>2486000</v>
       </c>
       <c r="H66" s="3">
-        <v>1608300</v>
+        <v>1616700</v>
       </c>
       <c r="I66" s="3">
-        <v>1551500</v>
+        <v>1559700</v>
       </c>
       <c r="J66" s="3">
-        <v>1598000</v>
+        <v>1606300</v>
       </c>
       <c r="K66" s="3">
         <v>1352500</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7935400</v>
+        <v>7977100</v>
       </c>
       <c r="E72" s="3">
-        <v>8288800</v>
+        <v>8332400</v>
       </c>
       <c r="F72" s="3">
-        <v>8321200</v>
+        <v>8364900</v>
       </c>
       <c r="G72" s="3">
-        <v>8856100</v>
+        <v>8902700</v>
       </c>
       <c r="H72" s="3">
-        <v>8441600</v>
+        <v>8485900</v>
       </c>
       <c r="I72" s="3">
-        <v>7857300</v>
+        <v>7898600</v>
       </c>
       <c r="J72" s="3">
-        <v>7574100</v>
+        <v>7613800</v>
       </c>
       <c r="K72" s="3">
         <v>7639900</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10255700</v>
+        <v>10309600</v>
       </c>
       <c r="E76" s="3">
-        <v>10778900</v>
+        <v>10835500</v>
       </c>
       <c r="F76" s="3">
-        <v>10754700</v>
+        <v>10811200</v>
       </c>
       <c r="G76" s="3">
-        <v>9901900</v>
+        <v>9954000</v>
       </c>
       <c r="H76" s="3">
-        <v>9491400</v>
+        <v>9541300</v>
       </c>
       <c r="I76" s="3">
-        <v>8920400</v>
+        <v>8967300</v>
       </c>
       <c r="J76" s="3">
-        <v>8606300</v>
+        <v>8651500</v>
       </c>
       <c r="K76" s="3">
         <v>8685100</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-147500</v>
+        <v>-148300</v>
       </c>
       <c r="E81" s="3">
-        <v>176400</v>
+        <v>177300</v>
       </c>
       <c r="F81" s="3">
-        <v>-324800</v>
+        <v>-326500</v>
       </c>
       <c r="G81" s="3">
-        <v>617800</v>
+        <v>621100</v>
       </c>
       <c r="H81" s="3">
-        <v>769300</v>
+        <v>773400</v>
       </c>
       <c r="I81" s="3">
-        <v>463700</v>
+        <v>466100</v>
       </c>
       <c r="J81" s="3">
-        <v>155300</v>
+        <v>156100</v>
       </c>
       <c r="K81" s="3">
         <v>369800</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>305400</v>
+        <v>307000</v>
       </c>
       <c r="E89" s="3">
-        <v>315700</v>
+        <v>317400</v>
       </c>
       <c r="F89" s="3">
-        <v>260100</v>
+        <v>261500</v>
       </c>
       <c r="G89" s="3">
-        <v>408300</v>
+        <v>410500</v>
       </c>
       <c r="H89" s="3">
-        <v>350800</v>
+        <v>352700</v>
       </c>
       <c r="I89" s="3">
-        <v>317500</v>
+        <v>319200</v>
       </c>
       <c r="J89" s="3">
-        <v>372200</v>
+        <v>374200</v>
       </c>
       <c r="K89" s="3">
         <v>305100</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-392900</v>
+        <v>-395000</v>
       </c>
       <c r="E91" s="3">
-        <v>-2848000</v>
+        <v>-2863000</v>
       </c>
       <c r="F91" s="3">
-        <v>-116400</v>
+        <v>-117000</v>
       </c>
       <c r="G91" s="3">
-        <v>-121900</v>
+        <v>-122500</v>
       </c>
       <c r="H91" s="3">
-        <v>-161300</v>
+        <v>-162200</v>
       </c>
       <c r="I91" s="3">
-        <v>-189500</v>
+        <v>-190500</v>
       </c>
       <c r="J91" s="3">
-        <v>-108000</v>
+        <v>-108600</v>
       </c>
       <c r="K91" s="3">
         <v>-45700</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1098700</v>
+        <v>-1104500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1918800</v>
+        <v>-1928900</v>
       </c>
       <c r="F94" s="3">
-        <v>-738700</v>
+        <v>-742600</v>
       </c>
       <c r="G94" s="3">
-        <v>-756800</v>
+        <v>-760800</v>
       </c>
       <c r="H94" s="3">
-        <v>-126200</v>
+        <v>-126900</v>
       </c>
       <c r="I94" s="3">
         <v>5900</v>
       </c>
       <c r="J94" s="3">
-        <v>-189500</v>
+        <v>-190500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-189500</v>
+        <v>-190500</v>
       </c>
       <c r="E96" s="3">
-        <v>-190900</v>
+        <v>-191900</v>
       </c>
       <c r="F96" s="3">
-        <v>-191500</v>
+        <v>-192500</v>
       </c>
       <c r="G96" s="3">
-        <v>-192200</v>
+        <v>-193200</v>
       </c>
       <c r="H96" s="3">
-        <v>-184100</v>
+        <v>-185100</v>
       </c>
       <c r="I96" s="3">
-        <v>-179900</v>
+        <v>-180900</v>
       </c>
       <c r="J96" s="3">
-        <v>-177800</v>
+        <v>-178700</v>
       </c>
       <c r="K96" s="3">
         <v>-159900</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>277000</v>
+        <v>278400</v>
       </c>
       <c r="E100" s="3">
-        <v>601900</v>
+        <v>605100</v>
       </c>
       <c r="F100" s="3">
-        <v>1854800</v>
+        <v>1864500</v>
       </c>
       <c r="G100" s="3">
-        <v>543400</v>
+        <v>546200</v>
       </c>
       <c r="H100" s="3">
-        <v>-220100</v>
+        <v>-221300</v>
       </c>
       <c r="I100" s="3">
-        <v>-238300</v>
+        <v>-239600</v>
       </c>
       <c r="J100" s="3">
-        <v>-82900</v>
+        <v>-83300</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-507300</v>
+        <v>-509900</v>
       </c>
       <c r="E102" s="3">
-        <v>-1001200</v>
+        <v>-1006400</v>
       </c>
       <c r="F102" s="3">
-        <v>1376200</v>
+        <v>1383400</v>
       </c>
       <c r="G102" s="3">
-        <v>194900</v>
+        <v>195900</v>
       </c>
       <c r="H102" s="3">
         <v>4500</v>
       </c>
       <c r="I102" s="3">
-        <v>85100</v>
+        <v>85500</v>
       </c>
       <c r="J102" s="3">
-        <v>99800</v>
+        <v>100400</v>
       </c>
       <c r="K102" s="3">
         <v>-5700</v>
